--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -838,6 +838,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mindset Reset</t>
     </r>
     <r>
@@ -877,6 +884,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Turn Learning into Habits
 </t>
     </r>
@@ -3367,8 +3381,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3683,8 +3697,8 @@
   <sheetPr/>
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3706,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="129.6" spans="1:3">
+    <row r="2" ht="144" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -3737,7 +3751,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" ht="100.8" spans="1:3">
+    <row r="5" ht="115.2" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -4114,7 +4128,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Questions</t>
   </si>
@@ -564,6 +564,9 @@
 You’ll start seeing the pattern, not just memorizing one solution.</t>
   </si>
   <si>
+    <t>Rotate array</t>
+  </si>
+  <si>
     <t>Weekly Summary Day (Sundays work best)
 At week’s end, do a 90-minute recap:
 Write down everything you remember (no notes) about what you learned.
@@ -835,6 +838,27 @@
 Memory = O(n)
 Static in Java = Fixed size
 Dynamic (ArrayList) = Grows automatically</t>
+  </si>
+  <si>
+    <t>Sorting Algorithm</t>
+  </si>
+  <si>
+    <t>Concept (ELI5)
+Imagine you have a line of kids holding cards with numbers.
+You tell them:
+“If your card is bigger than the one next to you — swap places!”
+You repeat this again and again until nobody needs to swap anymore.
+That’s bubble sort — biggest numbers “bubble” to the end after each round.</t>
+  </si>
+  <si>
+    <t>Example
+Start: [5, 3, 8, 4, 2]
+Compare 5 and 3 → swap → [3, 5, 8, 4, 2]
+Compare 5 and 8 → no swap → [3, 5, 8, 4, 2]
+Compare 8 and 4 → swap → [3, 5, 4, 8, 2]
+Compare 8 and 2 → swap → [3, 5, 4, 2, 8]
+Now 8 (largest) is in the rightmost place. Repeat for the rest.
+Eventually → [2, 3, 4, 5, 8]</t>
   </si>
   <si>
     <r>
@@ -1695,7 +1719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1731,6 +1755,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2574,246 +2601,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11"/>
@@ -2828,7 +2855,7 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
@@ -2884,7 +2911,7 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
@@ -2946,7 +2973,7 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
@@ -3002,7 +3029,7 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="11"/>
@@ -3058,7 +3085,7 @@
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="11"/>
@@ -3120,7 +3147,7 @@
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="11"/>
@@ -3182,7 +3209,7 @@
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="11"/>
@@ -3238,7 +3265,7 @@
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
@@ -3294,7 +3321,7 @@
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="11"/>
@@ -3381,8 +3408,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3407,39 +3434,39 @@
       <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>45962</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>45968</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>45962</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>45968</v>
       </c>
       <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3447,24 +3474,32 @@
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>45962</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>45968</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="18">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="18">
+        <v>45968</v>
+      </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="21" t="s">
-        <v>32</v>
+      <c r="E5" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3472,161 +3507,161 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3654,36 +3689,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>45962</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="14" t="s">
         <v>35</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="14" t="s">
         <v>37</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="14" t="s">
         <v>39</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3697,8 +3732,8 @@
   <sheetPr/>
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3722,111 +3757,117 @@
     </row>
     <row r="2" ht="144" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" ht="115.2" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="86.4" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" ht="144" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
+    <row r="12" ht="115.2" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
@@ -4009,8 +4050,8 @@
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="11"/>
@@ -4135,7 +4176,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4150,7 +4191,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4392,7 +4433,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Questions</t>
   </si>
@@ -726,7 +726,7 @@
     <t>Think of the stack like a pile of plates in the kitchen.
 Each time a method is called, a new plate (frame) is added to the top.
 When the method finishes, that plate is removed.
-Stored in Stack:
+How it's Stored in Stack:
 Primitive variables (like int, char, boolean, float)
 References (pointers) to objects in the heap
 Function call info (parameters, return addresses, etc.)</t>
@@ -821,8 +821,7 @@
 Creates a new array double the size,
 Copies old elements,
 Adds the new one
-That’s why most inserts are O(1),
-but occasional inserts (when resizing) are slower (O(n)) — average = amortized O(1).</t>
+That’s why most inserts are O(1),</t>
   </si>
   <si>
     <t>Space Complexity</t>
@@ -840,11 +839,38 @@
 Dynamic (ArrayList) = Grows automatically</t>
   </si>
   <si>
+    <t>What is Linear Search (in real words)</t>
+  </si>
+  <si>
+    <t>Linear search is the simplest way to find something in a list.
+You start from the beginning, check each element one by one, and stop when you find what you’re looking for.
+It’s like going through your contact list manually to find “Ravi.”
+You look at each name — “Amit”, “Bharat”, “Chirag”, “Ravi” — boom, stop.
+That’s linear search.</t>
+  </si>
+  <si>
+    <t>arr = [4, 2, 7, 1, 9]
+target = 1
+You’ll check like this:
+Is arr[0] == 1? → 4 == 1 ❌
+Is arr[1] == 1? → 2 == 1 ❌
+Is arr[2] == 1? → 7 == 1 ❌
+Is arr[3] == 1? → 1 == 1 ✅ found at index 3
+Stop searching.</t>
+  </si>
+  <si>
     <t>Sorting Algorithm</t>
   </si>
   <si>
-    <t>Concept (ELI5)
-Imagine you have a line of kids holding cards with numbers.
+    <t>Sorting teaches you how to order data.
+Searching teaches you how to find data efficiently once it’s ordered.
+Both together → foundation of most interview problems.</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Imagine you have a line of kids holding cards with numbers.
 You tell them:
 “If your card is bigger than the one next to you — swap places!”
 You repeat this again and again until nobody needs to swap anymore.
@@ -859,6 +885,28 @@
 Compare 8 and 2 → swap → [3, 5, 4, 2, 8]
 Now 8 (largest) is in the rightmost place. Repeat for the rest.
 Eventually → [2, 3, 4, 5, 8]</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Imagine you’re sorting cards in your hand.
+You look at all your cards, find the smallest one, and place it at the beginning.
+Then you look at the remaining cards, find the next smallest, and put it second.
+Repeat until all are sorted.
+That’s Selection Sort — you “select” the smallest element and put it in the right place one by one.
+🧩 Algorithm (in human words)
+Start from the beginning of the array.
+Find the smallest element in the unsorted part.
+Swap it with the element at the current position.
+Move the boundary of the sorted part one step to the right.
+Repeat until everything is sorted.</t>
+  </si>
+  <si>
+    <t>Sort an array in ascending order — smallest to largest.
+Example:
+[5, 3, 8, 1, 2]
+→ [1, 2, 3, 5, 8]</t>
   </si>
   <si>
     <r>
@@ -3730,17 +3778,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="100.444444444444" customWidth="1"/>
-    <col min="3" max="3" width="77.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="69.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="45.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="34.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3840,7 +3888,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" ht="144" spans="1:3">
+    <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
@@ -3859,7 +3907,7 @@
       <c r="C11" s="6"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3871,32 +3919,48 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6"/>
+    <row r="15" ht="43.2" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" ht="129.6" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="187.2" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
@@ -4049,21 +4113,24 @@
       <c r="B48" s="11"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="1:2">
+    <row r="49" spans="1:3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="11"/>
@@ -4156,6 +4223,18 @@
     <row r="75" spans="1:2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4176,7 +4255,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4191,7 +4270,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4433,7 +4512,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -3781,7 +3781,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -3781,7 +3781,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Questions</t>
   </si>
@@ -857,6 +857,22 @@
 Is arr[2] == 1? → 7 == 1 ❌
 Is arr[3] == 1? → 1 == 1 ✅ found at index 3
 Stop searching.</t>
+  </si>
+  <si>
+    <t>Math in Java</t>
+  </si>
+  <si>
+    <t>Summary Table
+Function Meaning Example
+Math.abs(x) absolute value abs(-10) → 10
+Math.min(a,b) smaller number min(4,9) → 4
+Math.max(a,b) bigger number max(4,9) → 9
+Math.ceil(x) round up ceil(4.2) → 5.0
+Math.floor(x) round down floor(4.8) → 4.0
+Math.round(x) nearest integer round(4.5) → 5
+Math.pow(a,b) a to the power b pow(2,3) → 8.0
+Math.sqrt(x) square root sqrt(16) → 4.0
+Math.random() random 0–1 random() → 0.53</t>
   </si>
   <si>
     <t>Sorting Algorithm</t>
@@ -2635,7 +2651,7 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="A9" sqref="A9:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3781,7 +3797,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3803,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="144" spans="1:3">
+    <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -3814,7 +3830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:3">
+    <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -3834,7 +3850,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" ht="115.2" spans="1:3">
+    <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -3870,7 +3886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" ht="86.4" spans="1:3">
+    <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +3929,7 @@
       <c r="B12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3922,40 +3938,44 @@
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
+    <row r="14" ht="158.4" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4255,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4270,7 +4290,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4512,7 +4532,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Questions</t>
   </si>
@@ -573,6 +573,54 @@
 Then check what you missed.
 Code 1–2 mixed problems (like Python + DSA combined logic).
 This helps you feel progress and see weak spots clearly.</t>
+  </si>
+  <si>
+    <t>Find if an element exists
+Problem: Given an array of integers, find whether a number exists in it.
+Return the index if found, else return -1.
+Example:
+Input: arr = [4, 8, 15, 16, 23, 42], target = 23  
+Output: 4
+🧠 Hint: Return index when found, else return -1.
+(check result == -1, not target)</t>
+  </si>
+  <si>
+    <t>Count occurrences of a number
+Problem:Given an array, count how many times a number appears.
+Example:
+Input: arr = [2, 3, 5, 3, 7, 3, 9], target = 3  
+Output: 3
+🧠 Hint: Use a counter, don’t stop early — count all appearances.</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum
+Problem: Find the smallest and largest number in an array.
+Example:
+Input: arr = [12, 7, 19, 3, 15]  
+Output: min = 3, max = 19
+🧠 Hint: Start with min = arr[0], max = arr[0].
+Update when a smaller or larger value is found.</t>
+  </si>
+  <si>
+    <t>First and last occurrence
+Problem: Find the first and last index of a given number.
+Example:
+Input: arr = [5, 7, 7, 8, 8, 10], target = 8  
+Output: first = 3, last = 4
+🧠 Hint:
+Keep two variables: first = -1, last = -1.
+First match → set first.
+Keep updating last each time.</t>
+  </si>
+  <si>
+    <t>Closest element to target
+Problem: Find the element in the array closest to a given target.
+Example:
+Input: arr = [4, 9, 1, 32, 13], target = 10  
+Output: 9
+🧠 Hint:
+Use Math.abs(arr[i] - target) to calculate difference.
+Keep track of smallest difference and corresponding element.</t>
   </si>
   <si>
     <t>Recall</t>
@@ -3472,8 +3520,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3510,7 +3558,7 @@
         <v>45962</v>
       </c>
       <c r="C2" s="18">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
@@ -3525,7 +3573,7 @@
         <v>45962</v>
       </c>
       <c r="C3" s="18">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
@@ -3542,7 +3590,7 @@
         <v>45962</v>
       </c>
       <c r="C4" s="18">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -3559,46 +3607,88 @@
         <v>45965</v>
       </c>
       <c r="C5" s="18">
-        <v>45968</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>45969</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
       <c r="E5" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+    <row r="6" ht="144" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="18">
+        <v>45967</v>
+      </c>
+      <c r="C6" s="18">
+        <v>45969</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+    <row r="7" ht="115.2" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="18">
+        <v>45967</v>
+      </c>
+      <c r="C7" s="18">
+        <v>45969</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" ht="129.6" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="18">
+        <v>45967</v>
+      </c>
+      <c r="C8" s="18">
+        <v>45969</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+    <row r="9" ht="144" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="18">
+        <v>45967</v>
+      </c>
+      <c r="C9" s="18">
+        <v>45969</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+    <row r="10" ht="158.4" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="18">
+        <v>45968</v>
+      </c>
+      <c r="C10" s="18">
+        <v>45969</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
       <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
@@ -3753,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3763,26 +3853,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3886,7 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3821,116 +3911,116 @@
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3940,42 +4030,42 @@
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4275,7 +4365,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4290,7 +4380,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4532,7 +4622,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -1831,7 +1831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1867,9 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2713,246 +2710,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11"/>
@@ -2967,7 +2964,7 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
@@ -3023,7 +3020,7 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
@@ -3085,7 +3082,7 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
@@ -3141,7 +3138,7 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="11"/>
@@ -3197,7 +3194,7 @@
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="11"/>
@@ -3259,7 +3256,7 @@
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="11"/>
@@ -3321,7 +3318,7 @@
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="11"/>
@@ -3377,7 +3374,7 @@
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
@@ -3433,7 +3430,7 @@
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="11"/>
@@ -3520,8 +3517,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3546,39 +3543,39 @@
       <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>45962</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>45969</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>45962</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>45969</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3586,16 +3583,16 @@
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>45962</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>45969</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3603,16 +3600,16 @@
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>45965</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>45969</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3620,202 +3617,202 @@
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>45967</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>45969</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>45967</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>45969</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>45967</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>45969</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="144" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>45967</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>45969</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>45968</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>45969</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="25"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3847,7 +3844,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45962</v>
       </c>
     </row>
@@ -3855,7 +3852,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3863,7 +3860,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3871,7 +3868,7 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4035,7 +4032,7 @@
       <c r="B14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="11" t="s">
@@ -4239,8 +4236,8 @@
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="11"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Questions</t>
   </si>
@@ -905,6 +905,31 @@
 Is arr[2] == 1? → 7 == 1 ❌
 Is arr[3] == 1? → 1 == 1 ✅ found at index 3
 Stop searching.</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Imagine you’re guessing a number between 1 and 100.
+I’m thinking of 73. You can ask me “Is it higher or lower than X?”
+You guess 50 → I say “Higher.”
+You throw away 1–49.
+Next guess 75 → I say “Lower.”
+You throw away 76–100.
+Now you’re between 50–75 → keep cutting in half → 62, 68, 71, 73 ✅
+Each time, you cut your search space in half.
+That’s Binary Search — the art of halving until you land on the answer.</t>
+  </si>
+  <si>
+    <t>Algorithm (Human words) We’ll use two pointers:
+left → start of array
+right → end of array
+Then, while left &lt;= right:
+Find the middle index: mid = (left + right) / 2
+If arr[mid] == target → found ✅
+If arr[mid] &lt; target → ignore left half → move left = mid + 1
+If arr[mid] &gt; target → ignore right half → move right = mid - 1
+If loop ends, element doesn’t exist → return -1</t>
   </si>
   <si>
     <t>Math in Java</t>
@@ -1831,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1867,6 +1892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2710,246 +2738,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11"/>
@@ -2964,7 +2992,7 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
@@ -3020,7 +3048,7 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
@@ -3082,7 +3110,7 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
@@ -3138,7 +3166,7 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="11"/>
@@ -3194,7 +3222,7 @@
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="11"/>
@@ -3256,7 +3284,7 @@
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="11"/>
@@ -3318,7 +3346,7 @@
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="11"/>
@@ -3374,7 +3402,7 @@
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
@@ -3430,7 +3458,7 @@
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="11"/>
@@ -3517,8 +3545,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3543,39 +3571,39 @@
       <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>45962</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>45969</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>45962</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>45969</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3583,16 +3611,16 @@
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>45962</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>45969</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3600,16 +3628,16 @@
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>45965</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>45969</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3617,202 +3645,202 @@
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>45967</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>45969</v>
       </c>
       <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>45967</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <v>45969</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>45967</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>45969</v>
       </c>
       <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" ht="144" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>45967</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>45969</v>
       </c>
       <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>45968</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="18">
         <v>45969</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3844,7 +3872,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>45962</v>
       </c>
     </row>
@@ -3852,7 +3880,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3860,7 +3888,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3868,7 +3896,7 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3883,8 +3911,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4020,49 +4048,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
+    <row r="13" ht="158.4" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4236,8 +4270,8 @@
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="11"/>
@@ -4362,7 +4396,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4377,7 +4411,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4619,7 +4653,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Questions</t>
   </si>
@@ -529,7 +529,7 @@
 Sum of first n numbers
 Print a triangle pattern (like *, **, ***)
 Reverse a number (e.g., 123 → 321
-Check if a number is palindrome
+Check if a number is palindrome 
 Find factorial of n
 Count digits in a number
 Print multiplication table of a number</t>
@@ -642,6 +642,14 @@
   </si>
   <si>
     <t>the amount of storage we required to store an element to execute the code that's space complexity</t>
+  </si>
+  <si>
+    <t>todolater</t>
+  </si>
+  <si>
+    <t>Selection Sort , Bubble Sort
+Rotate array                                                                                                                                                   Check if a number is palindrome **
+Find factorial of n</t>
   </si>
   <si>
     <r>
@@ -1081,7 +1089,7 @@
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,6 +1108,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1256,7 +1270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1278,6 +1292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,55 +1746,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,74 +1806,77 @@
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,17 +1913,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1917,34 +1949,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1953,24 +1985,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,6 +2003,42 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2005,24 +2055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2738,246 +2770,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11"/>
@@ -2992,7 +3024,7 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
@@ -3048,7 +3080,7 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
@@ -3110,7 +3142,7 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
@@ -3166,7 +3198,7 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="11"/>
@@ -3222,7 +3254,7 @@
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="11"/>
@@ -3284,7 +3316,7 @@
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="11"/>
@@ -3346,7 +3378,7 @@
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="11"/>
@@ -3402,7 +3434,7 @@
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
@@ -3458,7 +3490,7 @@
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="11"/>
@@ -3545,8 +3577,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3571,39 +3603,39 @@
       <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="22">
         <v>45962</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="22">
         <v>45969</v>
       </c>
       <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="22">
         <v>45962</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="22">
         <v>45969</v>
       </c>
       <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3611,16 +3643,16 @@
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="22">
         <v>45962</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="22">
         <v>45969</v>
       </c>
       <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3628,16 +3660,16 @@
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="22">
         <v>45965</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="22">
         <v>45969</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3645,202 +3677,202 @@
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="22">
         <v>45967</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="22">
         <v>45969</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="22">
         <v>45967</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="22">
         <v>45969</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="22">
         <v>45967</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="22">
         <v>45969</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="144" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="22">
         <v>45967</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="22">
         <v>45969</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="22">
         <v>45968</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="22">
         <v>45969</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="25"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3855,49 +3887,66 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="59.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="79.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15">
         <v>45962</v>
       </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17">
+        <v>45969</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" s="13" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3960,7 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3936,167 +3985,167 @@
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4270,8 +4319,8 @@
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="11"/>
@@ -4396,7 +4445,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4411,7 +4460,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4653,7 +4702,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>Questions</t>
   </si>
@@ -623,6 +623,9 @@
 Keep track of smallest difference and corresponding element.</t>
   </si>
   <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -962,9 +965,6 @@
     <t>Sorting teaches you how to order data.
 Searching teaches you how to find data efficiently once it’s ordered.
 Both together → foundation of most interview problems.</t>
-  </si>
-  <si>
-    <t>Bubble Sort</t>
   </si>
   <si>
     <t>Imagine you have a line of kids holding cards with numbers.
@@ -1876,7 +1876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1917,9 +1917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2770,246 +2767,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11"/>
@@ -3024,7 +3021,7 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
@@ -3080,7 +3077,7 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
@@ -3142,7 +3139,7 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
@@ -3198,7 +3195,7 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="11"/>
@@ -3254,7 +3251,7 @@
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="11"/>
@@ -3316,7 +3313,7 @@
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="11"/>
@@ -3378,7 +3375,7 @@
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="11"/>
@@ -3434,7 +3431,7 @@
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
@@ -3490,7 +3487,7 @@
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="11"/>
@@ -3577,8 +3574,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3603,39 +3600,39 @@
       <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>45962</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>45969</v>
       </c>
       <c r="D2" s="11">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>45962</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>45969</v>
       </c>
       <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3643,16 +3640,16 @@
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>45962</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>45969</v>
       </c>
       <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3660,16 +3657,16 @@
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>45965</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>45969</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3677,202 +3674,206 @@
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>45967</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>45969</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>45967</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>45969</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>45967</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>45969</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="144" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>45967</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>45969</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>45968</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>45969</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="21">
+        <v>45971</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3889,7 +3890,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3901,52 +3902,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>45962</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B3" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B5" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>45969</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" s="13" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>47</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +3961,7 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3985,150 +3986,150 @@
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>85</v>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Recall Sheet" sheetId="2" r:id="rId4"/>
     <sheet name="Notes" sheetId="3" r:id="rId5"/>
     <sheet name="Mindset Reset" sheetId="6" r:id="rId6"/>
+    <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>Questions</t>
   </si>
@@ -1075,6 +1076,15 @@
 Visual Recall: Use small sticky notes or Notion cards — “Reverse Array → Two Pointers → Swap Elements”.
 Explain Out Loud: Teach it (even to yourself). It’s the most powerful way to retain.</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
+  </si>
+  <si>
+    <t>Referral  Resources By</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1hYEHHG7wFNZBR7gGSbEmxl3pQdKUVl1JyW77fyIhAP4/edit?tab=t.0</t>
   </si>
 </sst>
 </file>
@@ -3574,7 +3584,7 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4896,4 +4906,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -13,7 +13,8 @@
     <sheet name="Recall Sheet" sheetId="2" r:id="rId4"/>
     <sheet name="Notes" sheetId="3" r:id="rId5"/>
     <sheet name="Mindset Reset" sheetId="6" r:id="rId6"/>
-    <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId7"/>
+    <sheet name="Questions" sheetId="8" r:id="rId7"/>
+    <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Questions</t>
   </si>
@@ -1890,6 +1891,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1905,23 +1921,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2611,145 +2612,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2794,7 +2795,7 @@
       <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
@@ -2803,48 +2804,48 @@
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
       <c r="E8" s="33"/>
@@ -2854,7 +2855,7 @@
       <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
@@ -2863,56 +2864,56 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="43"/>
       <c r="D11" s="44"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="43"/>
       <c r="D12" s="44"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="43"/>
       <c r="D13" s="44"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="45"/>
       <c r="D15" s="46"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="47" t="s">
         <v>10</v>
       </c>
@@ -2921,16 +2922,16 @@
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="33"/>
@@ -2940,617 +2941,617 @@
       <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="49"/>
       <c r="D21" s="50"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="49"/>
       <c r="D22" s="50"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="53" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="54"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="55"/>
       <c r="D25" s="56"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="57"/>
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
       <c r="A40" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3598,16 +3599,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -3624,13 +3625,13 @@
       <c r="C2" s="21">
         <v>45969</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
       <c r="E2" s="22"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="21">
@@ -3639,7 +3640,7 @@
       <c r="C3" s="21">
         <v>45969</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
       <c r="E3" s="23" t="s">
@@ -3647,7 +3648,7 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="21">
@@ -3656,7 +3657,7 @@
       <c r="C4" s="21">
         <v>45969</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -3664,7 +3665,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="21">
@@ -3673,7 +3674,7 @@
       <c r="C5" s="21">
         <v>45969</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -3681,7 +3682,7 @@
       </c>
     </row>
     <row r="6" ht="144" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="21">
@@ -3690,13 +3691,13 @@
       <c r="C6" s="21">
         <v>45969</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="21">
@@ -3705,13 +3706,13 @@
       <c r="C7" s="21">
         <v>45969</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="21">
@@ -3720,13 +3721,13 @@
       <c r="C8" s="21">
         <v>45969</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" ht="144" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="21">
@@ -3735,13 +3736,13 @@
       <c r="C9" s="21">
         <v>45969</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="21">
@@ -3750,139 +3751,139 @@
       <c r="C10" s="21">
         <v>45969</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="21">
         <v>45971</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="28"/>
     </row>
   </sheetData>
@@ -3911,19 +3912,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14">
         <v>45962</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3931,7 +3932,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3939,7 +3940,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3950,7 +3951,7 @@
       <c r="A6" s="16">
         <v>45969</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" s="13" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="17" t="s">
@@ -3971,8 +3972,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3984,458 +3985,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4455,447 +4456,447 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4911,9 +4912,109 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="86.4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" ht="86.4" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" ht="72" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>Questions</t>
   </si>
@@ -1006,6 +1006,26 @@
 Example:
 [5, 3, 8, 1, 2]
 → [1, 2, 3, 5, 8]</t>
+  </si>
+  <si>
+    <t>Inserion Sort</t>
+  </si>
+  <si>
+    <t>Think of it like this:
+You’re holding playing cards in your hand.
+You pick up one card at a time and insert it in the correct spot in your already-sorted hand.
+Example:
+You pick cards in this order: [9, 5, 1, 4, 3]
+Your goal: keep sorting them as you pick them.</t>
+  </si>
+  <si>
+    <t>Core idea (step-by-step logic)
+First card (index 0) → already sorted.
+Start from second card (i = 1), call it the key.
+Move left (with j = i - 1) to find where the key fits in the sorted part.
+Shift elements one step right to make room.
+Insert the key at the correct spot.
+Repeat for every new card.</t>
   </si>
   <si>
     <r>
@@ -1887,7 +1907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,6 +1942,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2778,246 +2801,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4"/>
@@ -3032,7 +3055,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="5"/>
@@ -3088,7 +3111,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="5"/>
@@ -3150,7 +3173,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="5"/>
@@ -3206,7 +3229,7 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="4"/>
@@ -3262,7 +3285,7 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="4"/>
@@ -3324,7 +3347,7 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="4"/>
@@ -3386,7 +3409,7 @@
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="4"/>
@@ -3442,7 +3465,7 @@
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="5"/>
@@ -3498,7 +3521,7 @@
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="4"/>
@@ -3611,39 +3634,39 @@
       <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="22">
         <v>45962</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <v>45969</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="22">
         <v>45962</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
         <v>45969</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3651,16 +3674,16 @@
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>45962</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <v>45969</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3668,16 +3691,16 @@
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="22">
         <v>45965</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="22">
         <v>45969</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3685,206 +3708,206 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="22">
         <v>45967</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <v>45969</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <v>45967</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="22">
         <v>45969</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>45967</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <v>45969</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="144" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>45967</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>45969</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>45968</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>45969</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>45971</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="28"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="28"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="28"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="28"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3918,7 +3941,7 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14">
+      <c r="A2" s="15">
         <v>45962</v>
       </c>
       <c r="B2" s="1"/>
@@ -3927,7 +3950,7 @@
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3935,7 +3958,7 @@
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3943,21 +3966,21 @@
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>45969</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" s="13" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="17" t="s">
+    <row r="7" s="14" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3972,8 +3995,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4160,10 +4183,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
+    <row r="18" ht="115.2" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
@@ -4331,8 +4360,8 @@
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4"/>
@@ -4457,7 +4486,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4472,7 +4501,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -4714,7 +4743,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4914,7 +4943,7 @@
   <sheetPr/>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4938,12 +4967,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:1">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:1">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -4953,12 +4982,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="1:1">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="86.4" spans="1:1">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -4973,7 +5002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" ht="72" spans="1:1">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -5022,17 +5051,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Mindset Reset" sheetId="6" r:id="rId6"/>
     <sheet name="Questions" sheetId="8" r:id="rId7"/>
     <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId8"/>
+    <sheet name="Unfinished" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Questions</t>
   </si>
@@ -1008,7 +1009,7 @@
 → [1, 2, 3, 5, 8]</t>
   </si>
   <si>
-    <t>Inserion Sort</t>
+    <t>Insertion Sort</t>
   </si>
   <si>
     <t>Think of it like this:
@@ -1026,6 +1027,23 @@
 Shift elements one step right to make room.
 Insert the key at the correct spot.
 Repeat for every new card.</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Split the array into two halves → sort each half → merge them back in sorted order.
+Just like cutting a deck of cards into two piles, sorting each pile, then merging them into one sorted deck.
+🧠 Why Merge Sort feels easier
+Because it has only two jobs:
+JOB 1: Split until single elements remain
+[10, 5, 2, 7]
+→ [10, 5] + [2, 7]
+→ [10] [5] [2] [7]
+JOB 2: Merge sorted pieces back
+merge( [10], [5] ) → [5, 10]
+merge( [2], [7] ) → [2, 7]
+merge( [5,10], [2,7] ) → [2,5,7,10]</t>
   </si>
   <si>
     <r>
@@ -1328,6 +1346,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1341,12 +1365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,7 +1864,7 @@
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1907,7 +1925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,16 +1962,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1962,10 +1986,10 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1980,24 +2004,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,6 +2076,24 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2068,24 +2110,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2801,246 +2825,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4"/>
@@ -3055,7 +3079,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="5"/>
@@ -3111,7 +3135,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="5"/>
@@ -3173,7 +3197,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="5"/>
@@ -3229,7 +3253,7 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="4"/>
@@ -3285,7 +3309,7 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="4"/>
@@ -3347,7 +3371,7 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="4"/>
@@ -3409,7 +3433,7 @@
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="4"/>
@@ -3465,7 +3489,7 @@
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="5"/>
@@ -3521,7 +3545,7 @@
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="4"/>
@@ -3634,39 +3658,39 @@
       <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="24">
         <v>45962</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="24">
         <v>45969</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="24">
         <v>45962</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="24">
         <v>45969</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3674,16 +3698,16 @@
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="24">
         <v>45962</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="24">
         <v>45969</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3691,16 +3715,16 @@
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="24">
         <v>45965</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="24">
         <v>45969</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3708,206 +3732,206 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="24">
         <v>45967</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="24">
         <v>45969</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="24">
         <v>45967</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="24">
         <v>45969</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="129.6" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="24">
         <v>45967</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="24">
         <v>45969</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="144" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="24">
         <v>45967</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="24">
         <v>45969</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="158.4" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="24">
         <v>45968</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="24">
         <v>45969</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="24">
         <v>45971</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3941,7 +3965,7 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>45962</v>
       </c>
       <c r="B2" s="1"/>
@@ -3950,7 +3974,7 @@
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3958,7 +3982,7 @@
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3966,21 +3990,21 @@
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>45969</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" s="14" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="18" t="s">
+    <row r="7" s="16" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3995,8 +4019,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4184,19 +4208,23 @@
       </c>
     </row>
     <row r="18" ht="115.2" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    <row r="19" ht="187.2" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
@@ -4360,8 +4388,8 @@
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4"/>
@@ -4486,7 +4514,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4501,7 +4529,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -4743,7 +4771,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5051,17 +5079,39 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -2087,7 +2087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2163,6 +2163,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2184,16 +2187,28 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2993,246 +3008,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
@@ -3247,7 +3262,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="4"/>
@@ -3303,7 +3318,7 @@
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="4"/>
@@ -3365,7 +3380,7 @@
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="4"/>
@@ -3421,7 +3436,7 @@
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="2"/>
@@ -3477,7 +3492,7 @@
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="2"/>
@@ -3539,7 +3554,7 @@
       <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="2"/>
@@ -3601,7 +3616,7 @@
       <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="2"/>
@@ -3657,7 +3672,7 @@
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="4"/>
@@ -3713,7 +3728,7 @@
       <c r="D105" s="11"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="2"/>
@@ -3800,8 +3815,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3826,39 +3841,39 @@
       <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>45976</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <v>45969</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="28">
         <v>45976</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="28">
         <v>45969</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3866,16 +3881,16 @@
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <v>45976</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="28">
         <v>45969</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3883,214 +3898,214 @@
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>45976</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="28">
         <v>45969</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="28">
         <v>45976</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="28">
         <v>45969</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="28">
         <v>45976</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="28">
         <v>45969</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" ht="144" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" s="25" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="34">
         <v>45976</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="34">
         <v>45969</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="35">
         <v>2</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" ht="158.4" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" s="25" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="34">
         <v>45976</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="34">
         <v>45969</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="35">
         <v>0</v>
       </c>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" s="25" customFormat="1" spans="1:5">
+      <c r="A10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="34">
         <v>45976</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" s="25" customFormat="1" spans="1:5">
+      <c r="A11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="34">
         <v>45976</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:5">
+      <c r="A12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="34">
         <v>45976</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="33"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="33"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -2087,7 +2087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2163,6 +2163,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2187,6 +2190,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2195,9 +2210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3008,246 +3020,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
@@ -3262,7 +3274,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="4"/>
@@ -3318,7 +3330,7 @@
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="4"/>
@@ -3380,7 +3392,7 @@
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="4"/>
@@ -3436,7 +3448,7 @@
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="2"/>
@@ -3492,7 +3504,7 @@
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="2"/>
@@ -3554,7 +3566,7 @@
       <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="2"/>
@@ -3616,7 +3628,7 @@
       <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="2"/>
@@ -3672,7 +3684,7 @@
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="4"/>
@@ -3728,7 +3740,7 @@
       <c r="D105" s="11"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="44" t="s">
+      <c r="A106" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="2"/>
@@ -3815,8 +3827,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3841,39 +3853,39 @@
       <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>45976</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="29">
         <v>45969</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="29">
         <v>45976</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>45969</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3881,16 +3893,16 @@
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="29">
         <v>45976</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>45969</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3898,214 +3910,214 @@
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <v>45976</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="29">
         <v>45969</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="29">
         <v>45976</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="29">
         <v>45969</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="29">
         <v>45976</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="29">
         <v>45969</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" s="25" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="35">
         <v>45976</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="35">
         <v>45969</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" s="25" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="33" t="s">
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" s="26" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="39">
         <v>45976</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="39">
         <v>45969</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="40">
         <v>0</v>
       </c>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" s="25" customFormat="1" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" s="26" customFormat="1" spans="1:5">
+      <c r="A10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="39">
         <v>45976</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" s="25" customFormat="1" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" s="26" customFormat="1" spans="1:5">
+      <c r="A11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="39">
         <v>45976</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" s="25" customFormat="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" s="26" customFormat="1" spans="1:5">
+      <c r="A12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="39">
         <v>45976</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="39"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="39"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="39"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="39"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="39"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="39"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="39"/>
+      <c r="E27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -2202,17 +2202,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2221,6 +2218,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3020,10 +3020,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
@@ -3828,7 +3828,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3966,158 +3966,158 @@
       </c>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" s="26" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="38" t="s">
+    <row r="9" s="25" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>45976</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <v>45969</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" s="26" customFormat="1" spans="1:5">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="40">
         <v>45976</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" s="26" customFormat="1" spans="1:5">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="40">
         <v>45976</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" s="26" customFormat="1" spans="1:5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="40">
         <v>45976</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="43"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="43"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="43"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="43"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="43"/>
+      <c r="E27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>Questions</t>
   </si>
@@ -618,10 +618,16 @@
     <t>Bubble Sort</t>
   </si>
   <si>
+    <t>Practice 5 times - after 1 day, 2nd 3 days, 3rd 5 days, 4th 10th day, 15 day</t>
+  </si>
+  <si>
     <t>Selection Sort</t>
   </si>
   <si>
     <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
   </si>
   <si>
     <t>Recall</t>
@@ -1024,9 +1030,6 @@
 not went ahead &amp; check code yet I just told you what I understood in my language</t>
   </si>
   <si>
-    <t>Merge Sort</t>
-  </si>
-  <si>
     <t xml:space="preserve">Split the array into two halves → sort each half → merge them back in sorted order.
 Just like cutting a deck of cards into two piles, sorting each pile, then merging them into one sorted deck.                                                                                                                                                                                                          Merge Sort = break the array until each piece has 1 element, then merge them back in sorted order.
 That’s it.
@@ -1045,6 +1048,17 @@
 merge( [10], [5] ) → [5, 10]
 merge( [2], [7] ) → [2, 7]
 merge( [5,10], [2,7] ) → [2,5,7,10]</t>
+  </si>
+  <si>
+    <t>THE COMPLETE MENTAL MODEL (keep this)
+Merge sort = 2 things:
+Break (divide) until size = 1
+Merge (conquer) back using sorted merging
+Merging =
+Need a temp array
+Two pointers (i, j) compare
+One pointer (k) fills new array
+Copy back the sorted data</t>
   </si>
   <si>
     <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
@@ -2093,7 +2107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2148,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2210,6 +2224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3017,246 +3034,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6"/>
@@ -3271,7 +3288,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
@@ -3327,7 +3344,7 @@
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
@@ -3389,7 +3406,7 @@
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
@@ -3445,7 +3462,7 @@
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="6"/>
@@ -3501,7 +3518,7 @@
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="6"/>
@@ -3563,7 +3580,7 @@
       <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="6"/>
@@ -3625,7 +3642,7 @@
       <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="6"/>
@@ -3681,7 +3698,7 @@
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
@@ -3737,7 +3754,7 @@
       <c r="D105" s="11"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="6"/>
@@ -3824,8 +3841,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3834,7 +3851,7 @@
     <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="37.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="61.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="72.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3991,11 +4008,13 @@
       <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" s="26" customFormat="1" spans="1:5">
       <c r="A11" s="36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="30">
         <v>45976</v>
@@ -4006,11 +4025,13 @@
       <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" s="26" customFormat="1" spans="1:5">
       <c r="A12" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="30">
         <v>45976</v>
@@ -4021,112 +4042,122 @@
       <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="30">
+        <v>45977</v>
+      </c>
+      <c r="C13" s="30">
+        <v>45978</v>
+      </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="39"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="39"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="39"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="39"/>
+      <c r="E27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4155,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -4167,26 +4198,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4197,10 +4228,10 @@
     </row>
     <row r="7" s="20" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4214,8 +4245,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4239,144 +4270,144 @@
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="11"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="12"/>
     </row>
@@ -4385,46 +4416,49 @@
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" ht="158.4" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" ht="158.4" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="18" t="s">
         <v>94</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4717,72 +4751,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4792,7 +4826,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4814,17 +4848,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +4883,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4871,7 +4905,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4886,7 +4920,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -5128,7 +5162,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5314,7 +5348,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>Questions</t>
   </si>
@@ -1059,6 +1059,32 @@
 Two pointers (i, j) compare
 One pointer (k) fills new array
 Copy back the sorted data</t>
+  </si>
+  <si>
+    <t>3 Merge Sort Problems (Simple → Medium)
+Problem 1 — Sort an array using merge sort
+(You already did this, but repeat until you can write it without peeking.)
+Input: [5,2,4,7,1,3]
+Output: [1,2,3,4,5,7]
+Goal: Write mergeSort() + merge() cleanly from scratch.
+Problem 2 — Count inversions using merge sort
+This one is classic FAANG and 100% merge-sort-based.
+Input:
+arr = [2,4,1,3,5]
+Output:
+3
+Explanation: (2,1), (4,1), (4,3)
+Merge sort counts how many “out of order” pairs exist.
+Problem 3 — Sort an array of objects using merge sort
+This helps you think in real-world terms.
+Input:
+Array of students with {name, marks}
+Sort by marks using merge sort.
+Example:
+[{A,40},{B,20},{C,50}]
+→
+[{B,20},{A,40},{C,50}]
+Goal: Understand merge sort with custom comparison.</t>
   </si>
   <si>
     <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
@@ -2107,7 +2133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2135,6 +2161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,9 +2192,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2868,145 +2897,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3034,780 +3063,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="6"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3841,7 +3870,7 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3855,51 +3884,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="30">
         <v>45976</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>45983</v>
       </c>
       <c r="D2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="30">
         <v>45976</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>45983</v>
       </c>
       <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3907,16 +3936,16 @@
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="30">
         <v>45976</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <v>45983</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3924,125 +3953,125 @@
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <v>45976</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>45983</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="30">
         <v>45976</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>45983</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>45976</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="31">
         <v>45983</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" s="26" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>45976</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <v>45978</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="37">
         <v>2</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" s="26" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>45976</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="31">
         <v>45978</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" s="26" customFormat="1" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" s="27" customFormat="1" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>45976</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>45978</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="1" spans="1:5">
-      <c r="A11" s="36" t="s">
+    <row r="11" s="27" customFormat="1" spans="1:5">
+      <c r="A11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>45976</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="31">
         <v>45978</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="1" spans="1:5">
-      <c r="A12" s="36" t="s">
+    <row r="12" s="27" customFormat="1" spans="1:5">
+      <c r="A12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="31">
         <v>45976</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>45978</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="40" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4050,14 +4079,14 @@
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>45977</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="31">
         <v>45978</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="40" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4066,98 +4095,98 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4185,52 +4214,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>45962</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>45969</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" s="20" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4258,69 +4287,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4331,7 +4360,7 @@
       <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4342,7 +4371,7 @@
       <c r="B8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="8" t="s">
@@ -4351,7 +4380,7 @@
       <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="6" t="s">
@@ -4360,7 +4389,7 @@
       <c r="B10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="6" t="s">
@@ -4369,7 +4398,7 @@
       <c r="B11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="8" t="s">
@@ -4378,7 +4407,7 @@
       <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4389,7 +4418,7 @@
       <c r="B13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4400,7 +4429,7 @@
       <c r="B14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="6" t="s">
@@ -4409,7 +4438,7 @@
       <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="6" t="s">
@@ -4418,7 +4447,7 @@
       <c r="B16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4429,21 +4458,21 @@
       <c r="B17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4454,176 +4483,176 @@
       <c r="B19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6"/>
@@ -4738,13 +4767,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="48.7777777777778" customWidth="1"/>
   </cols>
@@ -4828,6 +4857,23 @@
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="17" ht="409.5" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4848,17 +4894,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4920,7 +4966,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -5162,7 +5208,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5348,7 +5394,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -1082,12 +1082,36 @@
 QuickSort = “Divide, Conquer, Repeat”.</t>
   </si>
   <si>
+    <t>Step-by-step Visual (ELI5)
+Array:
+[6, 3, 8, 5, 2]
+Pick pivot = last element → 2
+Partition:
+check each element:
+anything ≤2 goes left
+anything &gt;2 goes right
+Result after partition:
+[2 | 6 3 8 5]
+Pivot 2 is now in the correct sorted position.
+Left side: empty
+Right side: [6,3,8,5] → run QuickSort again.
+Pick pivot = 5
+Partition:
+[3 5 | 6 8]
+Left: [3]
+Right: [6,8]
+Everything sorted.
+Final: [2,3,5,6,8]</t>
+  </si>
+  <si>
     <t>1️ pivot
 A number we use to split the array.
 2️ partition
 Arranging the array so:
 [all smaller] pivot [all bigger]
-Partition returns the pivot’s final correct index.</t>
+Partition returns the pivot’s final correct index.                                                                                          It has 2 brains:
+quickSort() → splits
+partition() → does the heavy rearranging</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -2358,7 +2382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2420,6 +2444,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3128,246 +3155,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3382,7 +3409,7 @@
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3438,7 +3465,7 @@
       <c r="D39" s="15"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3500,7 +3527,7 @@
       <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3556,7 +3583,7 @@
       <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3612,7 +3639,7 @@
       <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3674,7 +3701,7 @@
       <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3736,7 +3763,7 @@
       <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -3792,7 +3819,7 @@
       <c r="D96" s="15"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -3848,7 +3875,7 @@
       <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -3961,39 +3988,39 @@
       <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>45976</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="33">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="32">
         <v>45976</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="33">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4001,16 +4028,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>45976</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4018,125 +4045,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>45976</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="33">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>45976</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="33">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>45976</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="37" t="s">
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="33">
         <v>45976</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>45978</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="39">
         <v>2</v>
       </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="37" t="s">
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" s="29" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="33">
         <v>45976</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>45978</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>1</v>
       </c>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" s="28" customFormat="1" spans="1:5">
-      <c r="A10" s="38" t="s">
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" s="29" customFormat="1" spans="1:5">
+      <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="33">
         <v>45976</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="33">
         <v>45978</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="39">
         <v>1</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:5">
-      <c r="A11" s="38" t="s">
+    <row r="11" s="29" customFormat="1" spans="1:5">
+      <c r="A11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="33">
         <v>45976</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="33">
         <v>45978</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="39">
         <v>1</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" s="29" customFormat="1" spans="1:5">
+      <c r="A12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="33">
         <v>45976</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="33">
         <v>45978</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="39">
         <v>1</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4144,14 +4171,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="33">
         <v>45977</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>45978</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4160,98 +4187,98 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="42"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="42"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4285,7 +4312,7 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23">
+      <c r="A2" s="24">
         <v>45962</v>
       </c>
       <c r="B2" s="15"/>
@@ -4294,7 +4321,7 @@
       <c r="A3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4302,7 +4329,7 @@
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4310,21 +4337,21 @@
       <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <v>45969</v>
       </c>
       <c r="B6" s="15"/>
     </row>
-    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4339,7 +4366,7 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4555,16 +4582,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" ht="230.4" spans="1:4">
+    <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4723,8 +4752,8 @@
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8"/>
@@ -4935,7 +4964,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4966,17 +4995,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5017,7 +5046,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5032,7 +5061,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5274,7 +5303,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5460,7 +5489,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15057,10 +15086,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -1138,6 +1138,9 @@
 →
 [{B,20},{A,40},{C,50}]
 Goal: Understand merge sort with custom comparison.</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Arrays Using Merge Technique</t>
   </si>
   <si>
     <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
@@ -2382,7 +2385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2419,9 +2422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,9 +2444,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2474,9 +2471,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3155,780 +3149,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3976,51 +3970,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="29">
         <v>45976</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>45976</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4028,16 +4022,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <v>45976</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4045,125 +4039,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <v>45976</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <v>45976</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <v>45976</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="38" t="s">
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="30">
         <v>45976</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <v>45978</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" s="29" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="38" t="s">
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="30">
         <v>45976</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>45978</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="36">
         <v>1</v>
       </c>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" s="29" customFormat="1" spans="1:5">
-      <c r="A10" s="39" t="s">
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" s="27" customFormat="1" spans="1:5">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="30">
         <v>45976</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <v>45978</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="1" spans="1:5">
-      <c r="A11" s="39" t="s">
+    <row r="11" s="27" customFormat="1" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="30">
         <v>45976</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <v>45978</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="1" spans="1:5">
-      <c r="A12" s="39" t="s">
+    <row r="12" s="27" customFormat="1" spans="1:5">
+      <c r="A12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="30">
         <v>45976</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <v>45978</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4171,14 +4165,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="30">
         <v>45977</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="30">
         <v>45978</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4187,98 +4181,98 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="43"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="43"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="43"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="43"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="43"/>
+      <c r="E27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4306,52 +4300,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24">
+      <c r="A2" s="22">
         <v>45962</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>45969</v>
       </c>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="27" t="s">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4366,7 +4360,7 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4379,69 +4373,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4452,7 +4446,7 @@
       <c r="B7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4463,7 +4457,7 @@
       <c r="B8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
@@ -4472,7 +4466,7 @@
       <c r="B9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
@@ -4481,7 +4475,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
@@ -4490,7 +4484,7 @@
       <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
@@ -4499,7 +4493,7 @@
       <c r="B12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4510,7 +4504,7 @@
       <c r="B13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4521,7 +4515,7 @@
       <c r="B14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
@@ -4530,7 +4524,7 @@
       <c r="B15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="8" t="s">
@@ -4539,7 +4533,7 @@
       <c r="B16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4550,21 +4544,21 @@
       <c r="B17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4575,10 +4569,10 @@
       <c r="B19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4589,7 +4583,7 @@
       <c r="B20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -4599,161 +4593,161 @@
     <row r="21" spans="1:3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="15"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="15"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="15"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="15"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="15"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="15"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="15"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8"/>
@@ -4870,13 +4864,14 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="48.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="93.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4959,16 +4954,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="409.5" spans="1:2">
+    <row r="17" ht="176" customHeight="1" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="11"/>
@@ -4995,17 +4992,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5046,7 +5043,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5061,7 +5058,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15086,10 +15083,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -1141,6 +1141,13 @@
   </si>
   <si>
     <t>Merge Two Sorted Arrays Using Merge Technique</t>
+  </si>
+  <si>
+    <t>Problem 1 — Count Inversions (classic MergeSort problem)
+Input: [2, 4, 1, 3, 5]
+Output: 3
+(Because (2,1), (4,1), (4,3) are inversions)
+👉 This uses the merge logic with one small modification.</t>
   </si>
   <si>
     <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
@@ -4864,8 +4871,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4967,8 +4974,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
+    <row r="19" ht="72" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="11"/>
@@ -4992,17 +5001,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5043,7 +5052,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5058,7 +5067,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5300,7 +5309,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5486,7 +5495,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15083,10 +15092,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4872,7 +4872,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <r>
       <rPr>
@@ -621,6 +621,15 @@
     <t>Merge Sort</t>
   </si>
   <si>
+    <t>Merge Two Sorted Arrays Using Merge Technique</t>
+  </si>
+  <si>
+    <t>Count Inversions (classic MergeSort problem)</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -1061,9 +1070,6 @@
 Copy back the sorted data</t>
   </si>
   <si>
-    <t>Quick Sort</t>
-  </si>
-  <si>
     <t>What QuickSort Really Is (in human words)
 Think of QuickSort like this:
 You want to sort a messy pile of papers.
@@ -1138,9 +1144,6 @@
 →
 [{B,20},{A,40},{C,50}]
 Goal: Understand merge sort with custom comparison.</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Arrays Using Merge Technique</t>
   </si>
   <si>
     <t>Problem 1 — Count Inversions (classic MergeSort problem)
@@ -3963,8 +3966,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4095,7 +4098,7 @@
         <v>45976</v>
       </c>
       <c r="C8" s="30">
-        <v>45978</v>
+        <v>45983</v>
       </c>
       <c r="D8" s="36">
         <v>2</v>
@@ -4110,7 +4113,7 @@
         <v>45976</v>
       </c>
       <c r="C9" s="30">
-        <v>45978</v>
+        <v>45983</v>
       </c>
       <c r="D9" s="36">
         <v>1</v>
@@ -4125,7 +4128,7 @@
         <v>45976</v>
       </c>
       <c r="C10" s="30">
-        <v>45978</v>
+        <v>45983</v>
       </c>
       <c r="D10" s="36">
         <v>1</v>
@@ -4142,7 +4145,7 @@
         <v>45976</v>
       </c>
       <c r="C11" s="30">
-        <v>45978</v>
+        <v>45983</v>
       </c>
       <c r="D11" s="36">
         <v>1</v>
@@ -4159,7 +4162,7 @@
         <v>45976</v>
       </c>
       <c r="C12" s="30">
-        <v>45978</v>
+        <v>45983</v>
       </c>
       <c r="D12" s="36">
         <v>1</v>
@@ -4176,7 +4179,7 @@
         <v>45977</v>
       </c>
       <c r="C13" s="30">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="39" t="s">
@@ -4184,23 +4187,49 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="30">
+        <v>45980</v>
+      </c>
+      <c r="C14" s="30">
+        <v>45982</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="30">
+        <v>45980</v>
+      </c>
+      <c r="C15" s="30">
+        <v>45982</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="30">
+        <v>45980</v>
+      </c>
+      <c r="C16" s="30">
+        <v>45982</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="40"/>
     </row>
@@ -4308,7 +4337,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -4320,26 +4349,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4350,10 +4379,10 @@
     </row>
     <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4381,155 +4410,155 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -4538,10 +4567,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -4549,10 +4578,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -4560,13 +4589,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -4574,27 +4603,27 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4871,7 +4900,7 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4883,72 +4912,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4966,17 +4995,17 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -5001,17 +5030,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5052,7 +5081,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5067,7 +5096,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5309,7 +5338,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5495,7 +5524,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15092,10 +15121,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -630,6 +630,12 @@
     <t>Quick Sort</t>
   </si>
   <si>
+    <t xml:space="preserve">QuickSort with Middle Pivot </t>
+  </si>
+  <si>
+    <t>Quick sort Duplicate &amp; descending order</t>
+  </si>
+  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -1118,6 +1124,57 @@
 Partition returns the pivot’s final correct index.                                                                                          It has 2 brains:
 quickSort() → splits
 partition() → does the heavy rearranging</t>
+  </si>
+  <si>
+    <t>Quick Sort Pattern Rec</t>
+  </si>
+  <si>
+    <t>✅ 1. Lomuto Partition (pivot = last element)
+Use this when:
+Array has no duplicates or very few duplicates
+Simpler problems
+Teaching / basic implementations
+Cleanest code (your standard QuickSort)
+Why?
+Because Lomuto does terrible when many items are the same. It moves them one-by-one → becomes slow.
+Pattern recognition:
+If constraints look easy…
+If array values look random…
+If no emphasis on duplicates…
+→ Lomuto is fine.
+✅ 2. Hoare Partition (pivot = middle element)
+Use this when:
+Array is large
+You want fast average performance
+Input may be partially sorted
+You want fewer swaps
+Why?
+Hoare partition is faster (fewer swaps, better partitioning), but trickier to implement.
+Pattern recognition:
+If problem says:
+Use middle pivot OR
+Avoid worst-case OR
+Do in-place with fewer swaps OR
+"Partition until left pointer &gt; right pointer"
+→ That’s Hoare.
+✅ 3. Dutch National Flag Partition (3-way partition)
+Use this when:
+Array contains a lot of duplicates
+Pivot duplicates must be grouped together
+Problem says “sort colors” or “group 0s,1s,2s”
+Classic example:
+LeetCode 75. Sort Colors
+QuickSort on array with many repeated numbers
+Pattern recognition:
+If problem has ANY of these phrases:
+"0, 1, 2"
+"colors"
+"group equal elements"
+"many duplicates"
+"3-way partitioning"
+“DNF” / “Dutch flag”
+“avoid worst-case when many are equal”
+→ Use DNF QuickSort.</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -3966,8 +4023,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C2:C9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4230,19 +4287,35 @@
       <c r="C16" s="30">
         <v>45982</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="30">
+        <v>45980</v>
+      </c>
+      <c r="C17" s="30">
+        <v>45982</v>
+      </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30">
+        <v>45981</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="40"/>
@@ -4337,7 +4410,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -4349,26 +4422,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4379,10 +4452,10 @@
     </row>
     <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4396,8 +4469,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4410,155 +4483,155 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -4567,10 +4640,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -4578,10 +4651,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -4589,13 +4662,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -4603,13 +4676,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
@@ -4617,18 +4690,22 @@
         <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" ht="409.5" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
@@ -4912,72 +4989,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4995,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5005,7 +5082,7 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -5030,17 +5107,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5158,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5096,7 +5173,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5338,7 +5415,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5524,7 +5601,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15121,10 +15198,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -1175,6 +1175,14 @@
 “DNF” / “Dutch flag”
 “avoid worst-case when many are equal”
 → Use DNF QuickSort.</t>
+  </si>
+  <si>
+    <t>If duplicates are rare → Lomuto
+If duplicates are many → DNF
+If array is huge / partially sorted → Hoare
+If interviewer says “just QuickSort” → Lomuto
+If they say “efficient partition” → Hoare
+If they say “colors/0 1 2” → DNF</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -2452,7 +2460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2511,6 +2519,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3216,246 +3227,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3470,7 +3481,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3526,7 +3537,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3588,7 +3599,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3644,7 +3655,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3700,7 +3711,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3762,7 +3773,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3824,7 +3835,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -3880,7 +3891,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -3936,7 +3947,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4049,7 +4060,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4057,31 +4068,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="30">
         <v>45976</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="30">
         <v>45976</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4089,16 +4100,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="30">
         <v>45976</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4106,125 +4117,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <v>45976</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="30">
         <v>45976</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>45976</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="31">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>45976</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <v>45983</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="37">
         <v>2</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>45976</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="31">
         <v>45983</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" s="27" customFormat="1" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>45976</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>45983</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:5">
-      <c r="A11" s="36" t="s">
+    <row r="11" s="28" customFormat="1" spans="1:5">
+      <c r="A11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>45976</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="31">
         <v>45983</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:5">
-      <c r="A12" s="36" t="s">
+    <row r="12" s="28" customFormat="1" spans="1:5">
+      <c r="A12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="31">
         <v>45976</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>45983</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4232,14 +4243,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>45977</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="31">
         <v>45982</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4247,16 +4258,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>45980</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="31">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4264,16 +4275,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="31">
         <v>45980</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="31">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4281,16 +4292,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="31">
         <v>45980</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="31">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4298,14 +4309,14 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="31">
         <v>45980</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="31">
         <v>45982</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4313,75 +4324,75 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="31">
         <v>45981</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4415,7 +4426,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -4424,7 +4435,7 @@
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4432,7 +4443,7 @@
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4440,21 +4451,21 @@
       <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24">
+      <c r="A6" s="25">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4470,7 +4481,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4706,7 +4717,9 @@
       <c r="B21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8"/>
@@ -4859,8 +4872,8 @@
       <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8"/>
@@ -5072,7 +5085,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5082,7 +5095,7 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -5107,17 +5120,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5158,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5173,7 +5186,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5415,7 +5428,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5601,7 +5614,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15198,10 +15211,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <r>
       <rPr>
@@ -1124,6 +1124,62 @@
 Partition returns the pivot’s final correct index.                                                                                          It has 2 brains:
 quickSort() → splits
 partition() → does the heavy rearranging</t>
+  </si>
+  <si>
+    <t>QS Lomuto Partition</t>
+  </si>
+  <si>
+    <t>Lomuto Partition (pivot = last element)
+Use when:
+– Simple array
+– No duplicates OR duplicates don’t matter
+– You want clean, predictable code
+Logic:
+– i tracks boundary of “smaller” elements
+– j scans everything
+– Swap whenever arr[j] &lt;= pivot
+– Finally place pivot in correct position
+Why it's easy: Perfect for beginners + interviewers love this.</t>
+  </si>
+  <si>
+    <t>QS Hoare Partition</t>
+  </si>
+  <si>
+    <t>Hoare Partition (pivot = middle element)
+Use when:
+– Better performance
+– Less swaps
+– Works well even if input is nearly sorted
+Logic:
+– Two pointers: left → right, right → left
+– Find wrong elements on both sides
+– Swap
+– Stop when pointers cross
+– Return right
+Why it's tricky:
+You need to control pointer movement carefully</t>
+  </si>
+  <si>
+    <t>Dutch Nation Flag Partition</t>
+  </si>
+  <si>
+    <t>Dutch National Flag Partition (3-way Pivot)
+Use when:
+– Array has many duplicates
+– Sorting huge arrays
+– Need O(n) partition
+Logic:
+Low → zone of &lt; pivot
+Mid → current element
+High → zone of &gt; pivot
+– If arr[mid] &lt; pivot → swap with low → move both
+– If arr[mid] == pivot → just move mid
+– If arr[mid] &gt; pivot → swap with high → move high
+Result:
+[ &lt; pivot | = pivot | &gt; pivot ]
+Return:
+{start_of_equals, end_of_equals}
+So recursion skips the middle zone.</t>
   </si>
   <si>
     <t>Quick Sort Pattern Rec</t>
@@ -2460,7 +2516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2519,9 +2575,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3227,246 +3280,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3481,7 +3534,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3537,7 +3590,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3599,7 +3652,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3655,7 +3708,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3711,7 +3764,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3773,7 +3826,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3835,7 +3888,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -3891,7 +3944,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -3947,7 +4000,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4034,8 +4087,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4060,7 +4113,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4068,31 +4121,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>45976</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>45976</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4100,16 +4153,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>45976</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4117,125 +4170,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>45976</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>45976</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>45976</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>45976</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>45983</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="36" t="s">
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>45976</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>45983</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" s="28" customFormat="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" s="27" customFormat="1" spans="1:5">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>45976</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>45983</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:5">
-      <c r="A11" s="37" t="s">
+    <row r="11" s="27" customFormat="1" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>45976</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>45983</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+    <row r="12" s="27" customFormat="1" spans="1:5">
+      <c r="A12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>45976</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>45983</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4243,14 +4296,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>45977</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>45982</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4258,16 +4311,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>45980</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4275,16 +4328,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>45980</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4292,16 +4345,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>45980</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4309,14 +4362,14 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>45980</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>45982</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4324,75 +4377,75 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>45981</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4426,7 +4479,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -4435,7 +4488,7 @@
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4443,7 +4496,7 @@
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4451,21 +4504,21 @@
       <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4478,10 +4531,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4710,31 +4763,43 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="1:3">
+    <row r="21" ht="174" customHeight="1" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" ht="187.2" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+    <row r="23" ht="244.8" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
+    <row r="24" ht="409.5" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8"/>
@@ -4866,14 +4931,13 @@
       <c r="B50" s="8"/>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="14"/>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8"/>
@@ -4974,10 +5038,6 @@
     <row r="77" spans="1:2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4990,8 +5050,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5085,7 +5145,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5095,7 +5155,7 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -5120,17 +5180,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5186,7 +5246,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5428,7 +5488,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5614,7 +5674,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15211,10 +15271,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <r>
       <rPr>
@@ -1272,6 +1272,13 @@
 Output: 3
 (Because (2,1), (4,1), (4,3) are inversions)
 👉 This uses the merge logic with one small modification.</t>
+  </si>
+  <si>
+    <t>QuickSort Practice Set (LeetCode style):
+1️⃣ Sort Colors (DNF)
+2️⃣ Kth Largest Element
+3️⃣ QuickSelect algorithm
+4️⃣ Median of Two Sorted Arrays (pivot logic thinking)</t>
   </si>
   <si>
     <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
@@ -4533,8 +4540,8 @@
   <sheetPr/>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -5050,8 +5057,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A15:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5158,8 +5165,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
+    <row r="20" ht="72" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5180,17 +5189,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +5240,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5246,7 +5255,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5488,7 +5497,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5674,7 +5683,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15271,10 +15280,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -1180,6 +1180,34 @@
 Return:
 {start_of_equals, end_of_equals}
 So recursion skips the middle zone.</t>
+  </si>
+  <si>
+    <t>Random Pivot QuickSort</t>
+  </si>
+  <si>
+    <t>ELI5: Think of picking a random kid in the class as “pivot” instead of always picking the last one.
+Why? So that the bully (worst-case input) can’t predict who you pick.
+Why It Matters:
+Prevents worst-case O(n²)
+On average ALWAYS gives O(n log n)
+FAANG uses randomized pivot in production
+Logic (4–5 lines):
+Pick a random index between left and right.
+Swap it with the last element (so Lomuto stays same).
+Run normal Lomuto partition.
+Recurse left side, then right side.</t>
+  </si>
+  <si>
+    <t>Median-of-Three QuickSort</t>
+  </si>
+  <si>
+    <t>Quick Concept — ELI5 (5 lines)
+Take 3 values: left, mid, right
+Sort those 3 positions only
+The middle of them is a good pivot
+Put that pivot at the end (right)
+Use normal Lomuto after that
+This avoids bad cases like sorted input.</t>
   </si>
   <si>
     <t>Quick Sort Pattern Rec</t>
@@ -4538,10 +4566,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4797,26 +4825,34 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" ht="409.5" spans="1:3">
+    <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" ht="100.8" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
+    <row r="26" ht="409.5" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="8"/>
@@ -4938,17 +4974,19 @@
       <c r="B50" s="8"/>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-    </row>
-    <row r="52" spans="1:2">
+    <row r="51" spans="1:3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>
@@ -5045,6 +5083,14 @@
     <row r="77" spans="1:2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5057,8 +5103,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5152,7 +5198,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5162,12 +5208,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5189,17 +5235,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5240,7 +5286,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5255,7 +5301,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5497,7 +5543,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5683,7 +5729,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15280,10 +15326,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -1267,6 +1267,32 @@
 If interviewer says “just QuickSort” → Lomuto
 If they say “efficient partition” → Hoare
 If they say “colors/0 1 2” → DNF</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Two pointers:
+slow = last unique element index
+fast = scanner
+Only write when something new appears</t>
+  </si>
+  <si>
+    <t>Sliding Windows</t>
+  </si>
+  <si>
+    <t>Sliding Window — ELI5 Breakdown
+Imagine you’re looking through a window that shows only 3 cookies on a table at once.
+You slide the window to the right:
+One cookie falls off the left side
+A new cookie enters from the right
+You update the sum without recounting all cookies again</t>
+  </si>
+  <si>
+    <t>So if last window sum was:
+[2,1,5] = 8
+Slide → [1,5,1]
+New sum = 8 - 2 + 1 = 7</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -2551,7 +2577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2610,6 +2636,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3315,246 +3344,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3569,7 +3598,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3625,7 +3654,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3687,7 +3716,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3743,7 +3772,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3799,7 +3828,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3861,7 +3890,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3923,7 +3952,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -3979,7 +4008,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4035,7 +4064,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4148,7 +4177,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4156,31 +4185,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="30">
         <v>45976</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="30">
         <v>45976</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4188,16 +4217,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="30">
         <v>45976</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4205,125 +4234,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <v>45976</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="30">
         <v>45976</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>45976</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="31">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>45976</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <v>45983</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="37">
         <v>2</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>45976</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="31">
         <v>45983</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" s="27" customFormat="1" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>45976</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>45983</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:5">
-      <c r="A11" s="36" t="s">
+    <row r="11" s="28" customFormat="1" spans="1:5">
+      <c r="A11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>45976</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="31">
         <v>45983</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:5">
-      <c r="A12" s="36" t="s">
+    <row r="12" s="28" customFormat="1" spans="1:5">
+      <c r="A12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="31">
         <v>45976</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>45983</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4331,14 +4360,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>45977</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="31">
         <v>45982</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4346,16 +4375,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>45980</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="31">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4363,16 +4392,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="31">
         <v>45980</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="31">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4380,16 +4409,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="31">
         <v>45980</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="31">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4397,14 +4426,14 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="31">
         <v>45980</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="31">
         <v>45982</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4412,75 +4441,75 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="31">
         <v>45981</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4514,7 +4543,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -4523,7 +4552,7 @@
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4531,7 +4560,7 @@
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4539,21 +4568,21 @@
       <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24">
+      <c r="A6" s="25">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4568,8 +4597,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4854,15 +4883,25 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+    <row r="27" ht="57.6" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="14"/>
+    <row r="28" ht="100.8" spans="1:3">
+      <c r="A28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8"/>
@@ -4985,8 +5024,8 @@
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>
@@ -5198,7 +5237,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5208,12 +5247,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5235,17 +5274,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5286,7 +5325,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5301,7 +5340,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5543,7 +5582,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5729,7 +5768,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15326,10 +15365,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -2577,7 +2577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2636,9 +2636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3344,246 +3341,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3598,7 +3595,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3654,7 +3651,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3716,7 +3713,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3772,7 +3769,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3828,7 +3825,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3890,7 +3887,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3952,7 +3949,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -4008,7 +4005,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4064,7 +4061,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4151,8 +4148,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4177,7 +4174,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4185,31 +4182,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>45976</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>45976</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4217,16 +4214,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>45976</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4234,125 +4231,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>45976</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>45976</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>45976</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>45976</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>45983</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="36" t="s">
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>45976</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>45983</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" s="28" customFormat="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" s="27" customFormat="1" spans="1:5">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>45976</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>45983</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:5">
-      <c r="A11" s="37" t="s">
+    <row r="11" s="27" customFormat="1" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>45976</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>45983</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+    <row r="12" s="27" customFormat="1" spans="1:5">
+      <c r="A12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>45976</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>45983</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4360,14 +4357,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>45977</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>45982</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4375,16 +4372,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>45980</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4392,16 +4389,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>45980</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4409,16 +4406,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>45980</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4426,14 +4423,14 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>45980</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>45982</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4441,75 +4438,75 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>45981</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4543,7 +4540,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -4552,7 +4549,7 @@
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4560,7 +4557,7 @@
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4568,21 +4565,21 @@
       <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4597,8 +4594,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4872,7 +4869,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" ht="409.5" spans="1:3">
+    <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="8" t="s">
         <v>115</v>
       </c>
@@ -4899,7 +4896,7 @@
       <c r="B28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5024,8 +5021,8 @@
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -1293,6 +1293,31 @@
 [2,1,5] = 8
 Slide → [1,5,1]
 New sum = 8 - 2 + 1 = 7</t>
+  </si>
+  <si>
+    <t>QuickSelect</t>
+  </si>
+  <si>
+    <t>💡 QuickSelect Explained SimplyQuickSelect is like finding the kth smallest prize in a big grab bag without dumping everything out and sorting it first.You randomly pick one item (the "pivot").You divide the rest of the prizes into two piles: those smaller than the pivot and those bigger.You check which pile the $k$th prize must be in based on the pile sizes.You ignore the other pile and repeat the process on the correct pile until you find your specific prize. This makes it much faster than full sorting.</t>
+  </si>
+  <si>
+    <t>When to use QuickSelect
+Use it when the problem asks for:
+✔ Kth Largest
+✔ Kth Smallest
+✔ Median
+✔ Top-K smallest
+✔ Top-K largest
+Not full sorting.
+Just find the position where pivot should land.
+→ That’s your new trigger.
+If the question mentions:
+“select”
+“find rank”
+“order statistics”
+“Kth something”
+Your brain goes:
+QuickSelect.</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -2577,7 +2602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2636,6 +2661,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3341,246 +3369,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3595,7 +3623,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3651,7 +3679,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3713,7 +3741,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3769,7 +3797,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3825,7 +3853,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3887,7 +3915,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3949,7 +3977,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -4005,7 +4033,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4061,7 +4089,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4148,7 +4176,7 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4174,7 +4202,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4182,31 +4210,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="30">
         <v>45976</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="30">
         <v>45976</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4214,16 +4242,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="30">
         <v>45976</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4231,125 +4259,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <v>45976</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="30">
         <v>45976</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>45976</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="31">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>45976</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <v>45983</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="37">
         <v>2</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>45976</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="31">
         <v>45983</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" s="27" customFormat="1" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>45976</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>45983</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:5">
-      <c r="A11" s="36" t="s">
+    <row r="11" s="28" customFormat="1" spans="1:5">
+      <c r="A11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>45976</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="31">
         <v>45983</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:5">
-      <c r="A12" s="36" t="s">
+    <row r="12" s="28" customFormat="1" spans="1:5">
+      <c r="A12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="31">
         <v>45976</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>45983</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4357,14 +4385,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>45977</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="31">
         <v>45982</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4372,16 +4400,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>45980</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="31">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4389,16 +4417,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="31">
         <v>45980</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="31">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4406,16 +4434,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="31">
         <v>45980</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="31">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4423,14 +4451,14 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="31">
         <v>45980</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="31">
         <v>45982</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4438,75 +4466,75 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="31">
         <v>45981</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4540,7 +4568,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -4549,7 +4577,7 @@
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4557,7 +4585,7 @@
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4565,21 +4593,21 @@
       <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24">
+      <c r="A6" s="25">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4594,8 +4622,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4900,10 +4928,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="14"/>
+    <row r="29" ht="244.8" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8"/>
@@ -5021,8 +5055,8 @@
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>
@@ -5234,7 +5268,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5244,12 +5278,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5271,17 +5305,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5322,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5337,7 +5371,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5579,7 +5613,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5765,7 +5799,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15362,10 +15396,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -1289,10 +1289,40 @@
 You update the sum without recounting all cookies again</t>
   </si>
   <si>
-    <t>So if last window sum was:
-[2,1,5] = 8
-Slide → [1,5,1]
-New sum = 8 - 2 + 1 = 7</t>
+    <t>Sliding Window — Animation Style (Your Example)
+Array:[3, 5, 1, 5, 1, 2]
+k = 3
+We want max sum of any 3 continuous elements.
+Step 1: Build the first window
+Take first 3 values
+[ 3, 5, 1 ] 5 1 2
+   ↑  ↑  ↑
+sum = 3 + 5 + 1 = 9  
+maxSum = 9
+Step 2: Slide the window right by 1
+Window moves one step → drop left value, add next value
+Old: 3
+New entering: 5
+3 [ 5, 1, 5 ] 1 2
+      ↑  ↑  ↑
+windowSum = 9 - 3 + 5 = 11  
+maxSum = 11
+Step 3: Slide again
+Drop 5, add 1
+3 5 [ 1, 5, 1 ] 2
+         ↑  ↑  ↑
+windowSum = 11 - 5 + 1 = 7  
+maxSum = 11
+Step 4: Slide again
+Drop 1, add 2
+3 5 1 [ 5, 1, 2 ]
+            ↑  ↑  ↑
+windowSum = 7 - 1 + 2 = 8  
+maxSum = 11</t>
+  </si>
+  <si>
+    <t>Quick rule to remember
+If the question says “longest / max / min / count / sum of subarray” with continuous elements, think Sliding Window.</t>
   </si>
   <si>
     <t>QuickSelect</t>
@@ -2602,7 +2632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2661,6 +2691,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3369,246 +3402,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3623,7 +3656,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3679,7 +3712,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3741,7 +3774,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3797,7 +3830,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3853,7 +3886,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3915,7 +3948,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -3977,7 +4010,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -4033,7 +4066,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4089,7 +4122,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4202,7 +4235,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4210,31 +4243,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="31">
         <v>45976</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="32">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="31">
         <v>45976</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="32">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4242,16 +4275,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="31">
         <v>45976</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="32">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4259,125 +4292,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="31">
         <v>45976</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="31">
         <v>45976</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="31">
         <v>45976</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="32">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="32">
         <v>45976</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="32">
         <v>45983</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="36" t="s">
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" s="29" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>45976</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="32">
         <v>45983</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" s="28" customFormat="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" s="29" customFormat="1" spans="1:5">
+      <c r="A10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>45976</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="32">
         <v>45983</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="38">
         <v>1</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:5">
-      <c r="A11" s="37" t="s">
+    <row r="11" s="29" customFormat="1" spans="1:5">
+      <c r="A11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="32">
         <v>45976</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="32">
         <v>45983</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="38">
         <v>1</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+    <row r="12" s="29" customFormat="1" spans="1:5">
+      <c r="A12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="32">
         <v>45976</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="32">
         <v>45983</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="38">
         <v>1</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4385,14 +4418,14 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="32">
         <v>45977</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="32">
         <v>45982</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4400,16 +4433,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>45980</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="32">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4417,16 +4450,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>45980</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="32">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4434,16 +4467,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="32">
         <v>45980</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="32">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4451,14 +4484,14 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="32">
         <v>45980</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="32">
         <v>45982</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4466,75 +4499,75 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="32">
         <v>45981</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4568,7 +4601,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23">
+      <c r="A2" s="24">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -4577,7 +4610,7 @@
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4585,7 +4618,7 @@
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4593,21 +4626,21 @@
       <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="22" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4623,7 +4656,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4917,7 +4950,7 @@
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" ht="100.8" spans="1:3">
+    <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>120</v>
       </c>
@@ -4927,16 +4960,19 @@
       <c r="C28" s="15" t="s">
         <v>122</v>
       </c>
+      <c r="D28" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="20" t="s">
         <v>125</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5055,8 +5091,8 @@
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>
@@ -5268,7 +5304,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5278,12 +5314,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5305,17 +5341,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5356,7 +5392,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5371,7 +5407,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5613,7 +5649,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5799,7 +5835,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15396,10 +15432,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
   <si>
     <r>
       <rPr>
@@ -627,13 +627,49 @@
     <t>Count Inversions (classic MergeSort problem)</t>
   </si>
   <si>
-    <t>Quick Sort</t>
+    <t>Quick Sort Lomuto</t>
   </si>
   <si>
     <t xml:space="preserve">QuickSort with Middle Pivot </t>
   </si>
   <si>
     <t>Quick sort Duplicate &amp; descending order</t>
+  </si>
+  <si>
+    <t>Quick sort DNF</t>
+  </si>
+  <si>
+    <t>quick sort random</t>
+  </si>
+  <si>
+    <t>medianFinder</t>
+  </si>
+  <si>
+    <t>kth largest</t>
+  </si>
+  <si>
+    <t>kth smallest</t>
+  </si>
+  <si>
+    <t>top k largest</t>
+  </si>
+  <si>
+    <t>top k smallest</t>
+  </si>
+  <si>
+    <t>move Zeros</t>
+  </si>
+  <si>
+    <t>Remove Duplicates</t>
+  </si>
+  <si>
+    <t>countSubArrayKEvenSum</t>
+  </si>
+  <si>
+    <t>MaxSumSubArrayK</t>
+  </si>
+  <si>
+    <t>LongestUniqueSubArray</t>
   </si>
   <si>
     <t>Recall</t>
@@ -1074,6 +1110,9 @@
 Two pointers (i, j) compare
 One pointer (k) fills new array
 Copy back the sorted data</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
   </si>
   <si>
     <t>What QuickSort Really Is (in human words)
@@ -2759,8 +2798,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4207,10 +4246,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4424,7 +4463,9 @@
       <c r="C13" s="32">
         <v>45982</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
       <c r="E13" s="41" t="s">
         <v>35</v>
       </c>
@@ -4490,7 +4531,9 @@
       <c r="C17" s="32">
         <v>45982</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
@@ -4502,72 +4545,835 @@
       <c r="B18" s="32">
         <v>45981</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="32">
+        <v>45983</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45982</v>
+      </c>
+      <c r="C19" s="32">
+        <v>45984</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45983</v>
+      </c>
+      <c r="C20" s="32">
+        <v>45985</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="42"/>
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C21" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C22" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="14" customHeight="1" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C23" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="42"/>
+      <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C24" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C25" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C26" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="42"/>
+      <c r="A27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45984</v>
+      </c>
+      <c r="C27" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45985</v>
+      </c>
+      <c r="C28" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45985</v>
+      </c>
+      <c r="C29" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D29" s="42">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45985</v>
+      </c>
+      <c r="C30" s="32">
+        <v>45987</v>
+      </c>
+      <c r="D30" s="42">
+        <v>0</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="42"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="42"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="42"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="42"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="42"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="42"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="42"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="42"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="42"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="42"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4596,7 +5402,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -4608,26 +5414,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4638,10 +5444,10 @@
     </row>
     <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4655,8 +5461,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4669,155 +5475,155 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -4826,10 +5632,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -4837,10 +5643,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -4848,13 +5654,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -4862,117 +5668,117 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5221,72 +6027,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -5304,7 +6110,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5314,12 +6120,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5341,17 +6147,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5392,7 +6198,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5407,7 +6213,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -5649,7 +6455,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5835,7 +6641,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -15420,8 +16226,8 @@
   <sheetPr/>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -15432,10 +16238,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -2671,7 +2671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2730,12 +2730,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2797,9 +2791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3441,246 +3432,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3695,7 +3686,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3751,7 +3742,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3813,7 +3804,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3869,7 +3860,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3925,7 +3916,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3987,7 +3978,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -4049,7 +4040,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -4105,7 +4096,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4161,7 +4152,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4248,8 +4239,8 @@
   <sheetPr/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4274,7 +4265,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4282,31 +4273,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="29">
         <v>45976</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>45976</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4314,16 +4305,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>45976</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4331,125 +4322,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>45976</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <v>45976</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <v>45976</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="37" t="s">
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>45976</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="30">
         <v>45983</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" s="29" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="37" t="s">
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <v>45976</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="30">
         <v>45983</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>1</v>
       </c>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" s="29" customFormat="1" spans="1:5">
-      <c r="A10" s="38" t="s">
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" s="27" customFormat="1" spans="1:5">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>45976</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="30">
         <v>45983</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="1" spans="1:5">
-      <c r="A11" s="38" t="s">
+    <row r="11" s="27" customFormat="1" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <v>45976</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>45983</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="1" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" s="27" customFormat="1" spans="1:5">
+      <c r="A12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <v>45976</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>45983</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4457,16 +4448,16 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>45977</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>45982</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4474,16 +4465,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>45980</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="30">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4491,16 +4482,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <v>45980</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="30">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4508,16 +4499,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="30">
         <v>45980</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="30">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4525,16 +4516,16 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <v>45980</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="30">
         <v>45982</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4542,16 +4533,16 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="30">
         <v>45981</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="30">
         <v>45983</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4559,16 +4550,16 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="30">
         <v>45982</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="30">
         <v>45984</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4576,16 +4567,16 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="30">
         <v>45983</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="30">
         <v>45985</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4593,16 +4584,16 @@
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C21" s="32">
+      <c r="B21" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C21" s="30">
         <v>45987</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4610,16 +4601,16 @@
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="B22" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C22" s="30">
         <v>45987</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4627,16 +4618,16 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="B23" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C23" s="30">
         <v>45987</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4644,16 +4635,16 @@
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C24" s="32">
+      <c r="B24" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C24" s="30">
         <v>45987</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4661,16 +4652,16 @@
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C25" s="32">
+      <c r="B25" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C25" s="30">
         <v>45987</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4678,16 +4669,16 @@
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B26" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C26" s="30">
         <v>45987</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4695,16 +4686,16 @@
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="32">
-        <v>45984</v>
-      </c>
-      <c r="C27" s="32">
+      <c r="B27" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C27" s="30">
         <v>45987</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4712,668 +4703,668 @@
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="32">
-        <v>45985</v>
-      </c>
-      <c r="C28" s="32">
+      <c r="B28" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C28" s="30">
         <v>45987</v>
       </c>
       <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="32">
-        <v>45985</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="B29" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C29" s="30">
         <v>45987</v>
       </c>
-      <c r="D29" s="42">
-        <v>0</v>
-      </c>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="32">
-        <v>45985</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="B30" s="30">
+        <v>45986</v>
+      </c>
+      <c r="C30" s="30">
         <v>45987</v>
       </c>
-      <c r="D30" s="42">
-        <v>0</v>
-      </c>
-      <c r="E30" s="41" t="s">
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="42"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="42"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="42"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="42"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="42"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="42"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="42"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="42"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="42"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="42"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="42"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5407,7 +5398,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24">
+      <c r="A2" s="22">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -5416,7 +5407,7 @@
       <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5424,7 +5415,7 @@
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5432,21 +5423,21 @@
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="27" t="s">
+    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5766,7 +5757,7 @@
       <c r="C28" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5777,7 +5768,7 @@
       <c r="B29" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="15" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5897,8 +5888,8 @@
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
   <si>
     <r>
       <rPr>
@@ -1387,6 +1387,26 @@
 “Kth something”
 Your brain goes:
 QuickSelect.</t>
+  </si>
+  <si>
+    <t>Fixed Window (size K)</t>
+  </si>
+  <si>
+    <t>Phase-A — Fixed Window (size K)
+Problem Think of it like… What output means
+Max Sum of size K You take every group of K numbers and pick the group with biggest total The largest window total
+Min Sum of size K Same, but find the smallest total The smallest window total
+Count subarrays of size K divisible by 2/3 You slide a window of K and count how many windows have sum divisible by X Output = number of valid windows
+Example for clarity
+arr = [3,5,2,1,4,6], K = 3
+Windows → sums → parity
+Window Elements Sum Even?
+1 3,5,2 10 ✔
+2 5,2,1 8 ✔
+3 2,1,4 7 ✘
+4 1,4,6 11 ✘
+Output → 2
+So when you code, you should already know 2 is coming.</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -4239,7 +4259,7 @@
   <sheetPr/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -5452,8 +5472,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -5772,9 +5792,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+    <row r="30" ht="244.8" spans="1:3">
+      <c r="A30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
@@ -6101,7 +6125,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -6111,12 +6135,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6138,17 +6162,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6213,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6204,7 +6228,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -6446,7 +6470,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6632,7 +6656,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -16229,10 +16253,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
   <si>
     <r>
       <rPr>
@@ -1409,6 +1409,800 @@
 So when you code, you should already know 2 is coming.</t>
   </si>
   <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Imagine you're walking on tiles where each tile has a number.
+Step Tile Value Total sum so far
+Step1 +2 2
+Step2 +5 7
+Step3 -3 4
+Step4 +1 5
+This running sum is the prefix sum.
+If at step 2 sum=7 and at step 4 sum=5,
+then between step(2→4) we lost 2.
+Because → 5 - 7 = -2
+So any subarray sum can be obtained by:
+prefix[j] - prefix[i] = subarray sum(i+1 to j)
+🔥 That’s the entire prefix concept.</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <r>
+      <t>What EVEN is a HashMap?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Imagine a drawer cabinet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You place something in drawer 5 → you can get it back instantly by opening drawer 5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You don’t search all drawers like in a list.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You know exactly where to look.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In Java terms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Drawer No. Inside item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Key Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>So:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Map&lt;Integer,Integer&gt; map = new HashMap&lt;&gt;();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map.put(5, 10); // keep item 10 in drawer key 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map.get(5);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// instantly retrieves 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You don't search — you access in O(1) time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HashMap does two things for us:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✔ Stores Key -&gt; Value pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✔ Retrieves value instantly if key exists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Think:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“I’ve seen this number before — how many times?”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prefix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1) What is prefix[i] actually storing?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Correct version:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prefix[i] stores the sum of all elements from arr[0] to arr[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i=2 → prefix[2] = arr[0] + arr[1] + arr[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2) Why does prefix[3] - prefix[0] give sum of arr[1..3]?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Your reasoning was half correct, but here is the clean logic:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prefix[3] = arr[0] + arr[1] + arr[2] + arr[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prefix[0] = arr[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Subtracting removes arr[0]:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prefix[3] - prefix[0] = (arr[0]+arr[1]+arr[2]+arr[3]) - arr[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= arr[1]+arr[2]+arr[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>This is why we use prefix for subarray sum.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3) Difference between arr[] and prefix[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arr[] prefix[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>original values running total of array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arr[i] = just one number prefix[i] = sum from index 0 → i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>no computation used to compute range sums fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Perfect one-liner:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arr = raw data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prefix = cumulative sum of that data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You got it.</t>
+    </r>
+  </si>
+  <si>
     <t>3 Merge Sort Problems (Simple → Medium)
 Problem 1 — Sort an array using merge sort
 (You already did this, but repeat until you can write it without peeking.)
@@ -1910,7 +2704,7 @@
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,6 +2734,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2321,7 +3121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2341,6 +3141,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2561,16 +3376,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2579,119 +3391,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2752,10 +3567,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2767,16 +3588,16 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2785,16 +3606,16 @@
     <xf numFmtId="181" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2803,10 +3624,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2830,11 +3651,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2848,11 +3666,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2866,11 +3684,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2884,11 +3702,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2900,6 +3718,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3452,246 +4273,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -3706,7 +4527,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -3762,7 +4583,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -3824,7 +4645,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -3880,7 +4701,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -3936,7 +4757,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -3998,7 +4819,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -4060,7 +4881,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -4116,7 +4937,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4172,7 +4993,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -4285,7 +5106,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4293,31 +5114,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="31">
         <v>45976</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="32">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>45976</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="32">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4325,16 +5146,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="31">
         <v>45976</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="32">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4342,125 +5163,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="31">
         <v>45976</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="32">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="31">
         <v>45976</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="32">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="31">
         <v>45976</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="32">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="32">
         <v>45976</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="32">
         <v>45983</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" s="29" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="32">
         <v>45976</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="32">
         <v>45983</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" s="27" customFormat="1" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" s="29" customFormat="1" spans="1:5">
+      <c r="A10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="32">
         <v>45976</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="32">
         <v>45983</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="38">
         <v>1</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:5">
-      <c r="A11" s="36" t="s">
+    <row r="11" s="29" customFormat="1" spans="1:5">
+      <c r="A11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="32">
         <v>45976</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="32">
         <v>45983</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="38">
         <v>1</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:5">
-      <c r="A12" s="36" t="s">
+    <row r="12" s="29" customFormat="1" spans="1:5">
+      <c r="A12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="32">
         <v>45976</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="32">
         <v>45983</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="38">
         <v>1</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4468,16 +5289,16 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="32">
         <v>45977</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="32">
         <v>45982</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4485,16 +5306,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="32">
         <v>45980</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="32">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4502,16 +5323,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="32">
         <v>45980</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="32">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4519,16 +5340,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="32">
         <v>45980</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="32">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4536,16 +5357,16 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="32">
         <v>45980</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="32">
         <v>45982</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4553,16 +5374,16 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="32">
         <v>45981</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="32">
         <v>45983</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4570,16 +5391,16 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="32">
         <v>45982</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="32">
         <v>45984</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4587,16 +5408,16 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="32">
         <v>45983</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="32">
         <v>45985</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4604,16 +5425,16 @@
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="32">
         <v>45986</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="32">
         <v>45987</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4621,16 +5442,16 @@
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="32">
         <v>45986</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="32">
         <v>45987</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4638,16 +5459,16 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="32">
         <v>45986</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="32">
         <v>45987</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4655,16 +5476,16 @@
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="32">
         <v>45986</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="32">
         <v>45987</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4672,16 +5493,16 @@
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="32">
         <v>45986</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="32">
         <v>45987</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4689,16 +5510,16 @@
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="32">
         <v>45986</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="32">
         <v>45987</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4706,16 +5527,16 @@
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="32">
         <v>45986</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="32">
         <v>45987</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4723,16 +5544,16 @@
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="32">
         <v>45986</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="32">
         <v>45987</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4740,16 +5561,16 @@
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="32">
         <v>45986</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="32">
         <v>45987</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4757,22 +5578,22 @@
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="32">
         <v>45986</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="32">
         <v>45987</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -5418,7 +6239,7 @@
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22">
+      <c r="A2" s="24">
         <v>45962</v>
       </c>
       <c r="B2" s="14"/>
@@ -5427,7 +6248,7 @@
       <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5435,7 +6256,7 @@
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5443,21 +6264,21 @@
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24">
+      <c r="A6" s="26">
         <v>45969</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" s="21" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5472,8 +6293,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -5801,19 +6622,31 @@
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+    <row r="31" ht="187.2" spans="1:3">
+      <c r="A31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+    <row r="32" ht="259.2" spans="1:3">
+      <c r="A32" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+    <row r="33" ht="345.6" spans="1:3">
+      <c r="A33" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3">
@@ -5912,8 +6745,8 @@
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>
@@ -6125,7 +6958,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -6135,12 +6968,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6162,17 +6995,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6213,7 +7046,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6228,7 +7061,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -6470,7 +7303,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6656,7 +7489,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -16253,10 +17086,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -6293,7 +6293,7 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -6987,8 +6987,8 @@
   <sheetPr/>
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
     <sheet name="Problem Solving" sheetId="1" r:id="rId2"/>
-    <sheet name="Recall Sheet" sheetId="2" r:id="rId3"/>
-    <sheet name="Notes" sheetId="3" r:id="rId4"/>
-    <sheet name="Questions" sheetId="8" r:id="rId5"/>
-    <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId6"/>
-    <sheet name="Unfinished" sheetId="9" r:id="rId7"/>
-    <sheet name="Reality check" sheetId="6" r:id="rId8"/>
-    <sheet name="Checklist" sheetId="10" r:id="rId9"/>
+    <sheet name="Python" sheetId="11" r:id="rId3"/>
+    <sheet name="Recall Sheet" sheetId="2" r:id="rId4"/>
+    <sheet name="Notes" sheetId="3" r:id="rId5"/>
+    <sheet name="Questions" sheetId="8" r:id="rId6"/>
+    <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId7"/>
+    <sheet name="Unfinished" sheetId="9" r:id="rId8"/>
+    <sheet name="Reality check" sheetId="6" r:id="rId9"/>
+    <sheet name="Checklist" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
   <si>
     <r>
       <rPr>
@@ -672,6 +673,56 @@
     <t>LongestUniqueSubArray</t>
   </si>
   <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Explaination</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>List Comprehension</t>
+  </si>
+  <si>
+    <t>The Formula
+Think of List Comprehension as a Robot Waiter. Instead of telling the waiter: "Go to table 1, check if they want water. If yes, bring it. Go to table 2..." (The Loop way).
+You just shout: "Bring water for everyone who is thirsty!"
+The Python syntax is literally that sentence rearranged: [ BRING_WATER for PERSON in CROWD if PERSON_IS_THIRSTY ]</t>
+  </si>
+  <si>
+    <t>The 3 Patterns You Will Use 90% of the Time
+Here is how to apply that formula to real code.
+Pattern 1: The "Transformer" (Change everything)
+Use this when you want to modify every single item.
+Formula: [ MODIFY(item) for item in list ]
+names = ["swaraj", "amit", "neha"]
+# "Give me the Upper Case version for every name in names"
+                       ↓↓↓
+capitalized = [name.upper() for name in names] 
+# Result: ['SWARAJ', 'AMIT', 'NEHA']
+Pattern 2: The "Filter" (Pick specific things)
+Use this when you want to keep the data same, but remove the bad ones.
+Formula: [ item for item in list if CONDITION ]
+scores = [10, 50, 95, 40, 88]
+# "Give me the score for every score in scores if it is passing (&gt;40)"
+#                  ↓↓↓                    ↓↓↓
+passing_scores = [score for score in scores if score &gt; 40]
+# Result: [50, 95, 88]
+Pattern 3: The "Combo" (Google Level)
+Use this to Filter AND Transform at the same time.
+Formula: [ MODIFY(item) for item in list if CONDITION ]
+Let's go back to your Employees example. This is how you extract just the Names of people in Tech.
+employees = [
+    {"name": "Amit", "dept": "Sales"},
+    {"name": "Neha", "dept": "Tech"},
+    {"name": "Raj", "dept": "Tech"},
+]
+# "Give me the NAME for every emp in employees if DEPT is Tech"
+tech_names = [emp["name"] for emp in employees if emp["dept"] == "Tech"]
+# Result: ['Neha', 'Raj']</t>
+  </si>
+  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -705,9 +756,6 @@
   </si>
   <si>
     <t>Answers</t>
-  </si>
-  <si>
-    <t>Example</t>
   </si>
   <si>
     <r>
@@ -1431,6 +1479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>What EVEN is a HashMap?</t>
     </r>
     <r>
@@ -1777,6 +1831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Prefix</t>
     </r>
     <r>
@@ -1791,6 +1851,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1) What is prefix[i] actually storing?</t>
     </r>
     <r>
@@ -2891,7 +2957,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2925,6 +2991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3382,7 +3454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3406,16 +3478,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3424,89 +3496,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3594,6 +3666,24 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3609,13 +3699,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3639,10 +3729,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3650,24 +3740,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3685,6 +3757,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3705,22 +3795,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4273,246 +4363,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -4527,7 +4617,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -4583,7 +4673,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -4645,7 +4735,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -4701,7 +4791,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -4757,7 +4847,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -4819,7 +4909,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -4881,7 +4971,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -4937,7 +5027,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -4993,7 +5083,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -5075,6 +5165,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="73.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="94.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="409" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -5106,7 +5341,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5114,31 +5349,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="37">
         <v>45976</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="38">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="37">
         <v>45976</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="38">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5146,16 +5381,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="37">
         <v>45976</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="38">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5163,125 +5398,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="37">
         <v>45976</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="38">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="37">
         <v>45976</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="38">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="37">
         <v>45976</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="38">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="37" t="s">
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" s="35" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="38">
         <v>45976</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="38">
         <v>45983</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="44">
         <v>2</v>
       </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" s="29" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="37" t="s">
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" s="35" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="38">
         <v>45976</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="38">
         <v>45983</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="44">
         <v>1</v>
       </c>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" s="29" customFormat="1" spans="1:5">
-      <c r="A10" s="38" t="s">
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" s="35" customFormat="1" spans="1:5">
+      <c r="A10" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="38">
         <v>45976</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="38">
         <v>45983</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="44">
         <v>1</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="1" spans="1:5">
-      <c r="A11" s="38" t="s">
+    <row r="11" s="35" customFormat="1" spans="1:5">
+      <c r="A11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="38">
         <v>45976</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="38">
         <v>45983</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="44">
         <v>1</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="1" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" s="35" customFormat="1" spans="1:5">
+      <c r="A12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="38">
         <v>45976</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="38">
         <v>45983</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="44">
         <v>1</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5289,16 +5524,16 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="38">
         <v>45977</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="38">
         <v>45982</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5306,16 +5541,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="38">
         <v>45980</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="38">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5323,16 +5558,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="38">
         <v>45980</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="38">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5340,16 +5575,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="38">
         <v>45980</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="38">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5357,16 +5592,16 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="38">
         <v>45980</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="38">
         <v>45982</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5374,16 +5609,16 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="38">
         <v>45981</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="38">
         <v>45983</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5391,16 +5626,16 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="38">
         <v>45982</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="38">
         <v>45984</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5408,16 +5643,16 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="38">
         <v>45983</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="38">
         <v>45985</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5425,16 +5660,16 @@
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="38">
         <v>45986</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="38">
         <v>45987</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5442,16 +5677,16 @@
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="38">
         <v>45986</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="38">
         <v>45987</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5459,16 +5694,16 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="38">
         <v>45986</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="38">
         <v>45987</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5476,16 +5711,16 @@
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="38">
         <v>45986</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="38">
         <v>45987</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5493,16 +5728,16 @@
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="38">
         <v>45986</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="38">
         <v>45987</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5510,16 +5745,16 @@
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="38">
         <v>45986</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="38">
         <v>45987</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5527,16 +5762,16 @@
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="38">
         <v>45986</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="38">
         <v>45987</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5544,16 +5779,16 @@
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="38">
         <v>45986</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="38">
         <v>45987</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5561,16 +5796,16 @@
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="38">
         <v>45986</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="38">
         <v>45987</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5578,22 +5813,22 @@
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="38">
         <v>45986</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="38">
         <v>45987</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -6218,6 +6453,310 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="57.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="121.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B7"/>
@@ -6234,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -6246,26 +6785,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6276,10 +6815,10 @@
     </row>
     <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6288,7 +6827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D79"/>
@@ -6307,155 +6846,155 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -6464,10 +7003,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -6475,10 +7014,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -6486,13 +7025,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -6500,152 +7039,152 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" ht="244.8" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C31" s="14"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
       <c r="A32" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
       <c r="A33" s="20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C33" s="14"/>
     </row>
@@ -6858,7 +7397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
@@ -6875,72 +7414,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6958,7 +7497,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -6968,12 +7507,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6982,12 +7521,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -6995,17 +7534,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7017,7 +7556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -7033,7 +7572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U437"/>
@@ -7046,7 +7585,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7061,7 +7600,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7303,7 +7842,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7489,7 +8028,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -17067,149 +17606,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="73.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="94.8888888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="409" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A37"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <r>
       <rPr>
@@ -2269,6 +2269,18 @@
     </r>
   </si>
   <si>
+    <t>Binary Search Patterns</t>
+  </si>
+  <si>
+    <t>Binary Search = find something without scanning whole array.
+Instead of checking every number, you keep cutting the search space in half like:
+"Is answer on left or right?"
+We solve 3 categories only — nothing extra.
+Pattern 1 — Find element / normal BS
+Pattern 2 — First/Last Occurrence
+Pattern 3 — Find in Rotated Sorted Array</t>
+  </si>
+  <si>
     <t>3 Merge Sort Problems (Simple → Medium)
 Problem 1 — Sort an array using merge sort
 (You already did this, but repeat until you can write it without peeking.)
@@ -2957,7 +2969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2991,12 +3003,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3454,7 +3460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3478,16 +3484,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3496,89 +3502,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3669,20 +3675,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -3699,13 +3696,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3729,10 +3726,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3740,6 +3737,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3757,24 +3772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3795,22 +3792,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4348,7 +4345,7 @@
   <sheetPr/>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -4357,252 +4354,252 @@
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="52.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="46.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="57.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="21.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="37.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="39.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -4617,7 +4614,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -4673,7 +4670,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -4735,7 +4732,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -4791,7 +4788,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -4847,7 +4844,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -4909,7 +4906,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -4971,7 +4968,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -5027,7 +5024,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -5083,7 +5080,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -5182,10 +5179,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5341,7 +5338,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5349,31 +5346,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="34">
         <v>45976</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="35">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <v>45976</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="35">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5381,16 +5378,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <v>45976</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="35">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5398,125 +5395,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>45976</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="35">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>45976</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="35">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>45976</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="35">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" s="35" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" s="32" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="35">
         <v>45976</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="35">
         <v>45983</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>2</v>
       </c>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" s="35" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="43" t="s">
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" s="32" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="35">
         <v>45976</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="35">
         <v>45983</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" s="35" customFormat="1" spans="1:5">
-      <c r="A10" s="44" t="s">
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" s="32" customFormat="1" spans="1:5">
+      <c r="A10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="35">
         <v>45976</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <v>45983</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>1</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="35" customFormat="1" spans="1:5">
-      <c r="A11" s="44" t="s">
+    <row r="11" s="32" customFormat="1" spans="1:5">
+      <c r="A11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="35">
         <v>45976</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="35">
         <v>45983</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <v>1</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="35" customFormat="1" spans="1:5">
-      <c r="A12" s="44" t="s">
+    <row r="12" s="32" customFormat="1" spans="1:5">
+      <c r="A12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="35">
         <v>45976</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="35">
         <v>45983</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5524,16 +5521,16 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="35">
         <v>45977</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="35">
         <v>45982</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5541,16 +5538,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="35">
         <v>45980</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="35">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5558,16 +5555,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="35">
         <v>45980</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="35">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5575,16 +5572,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="35">
         <v>45980</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="35">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5592,16 +5589,16 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="35">
         <v>45980</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="35">
         <v>45982</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5609,16 +5606,16 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="35">
         <v>45981</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="35">
         <v>45983</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5626,16 +5623,16 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="35">
         <v>45982</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="35">
         <v>45984</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5643,16 +5640,16 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="35">
         <v>45983</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="35">
         <v>45985</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5660,16 +5657,16 @@
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="35">
         <v>45986</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="35">
         <v>45987</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5677,16 +5674,16 @@
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="35">
         <v>45986</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="35">
         <v>45987</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5694,16 +5691,16 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="35">
         <v>45986</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="35">
         <v>45987</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5711,16 +5708,16 @@
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="35">
         <v>45986</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="35">
         <v>45987</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5728,16 +5725,16 @@
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="35">
         <v>45986</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="35">
         <v>45987</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5745,16 +5742,16 @@
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="35">
         <v>45986</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="35">
         <v>45987</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5762,16 +5759,16 @@
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="35">
         <v>45986</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="35">
         <v>45987</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5779,16 +5776,16 @@
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="35">
         <v>45986</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="35">
         <v>45987</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5796,16 +5793,16 @@
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="35">
         <v>45986</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="35">
         <v>45987</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5813,22 +5810,22 @@
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="35">
         <v>45986</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="35">
         <v>45987</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8"/>
-      <c r="B31" s="38"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -6457,7 +6454,7 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6475,280 +6472,280 @@
       <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6832,8 +6829,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -7188,9 +7185,13 @@
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+    <row r="34" ht="100.8" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3">
@@ -7497,7 +7498,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7507,12 +7508,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7534,17 +7535,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7585,7 +7586,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7600,7 +7601,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7842,7 +7843,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8028,7 +8029,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -2281,6 +2281,16 @@
 Pattern 3 — Find in Rotated Sorted Array</t>
   </si>
   <si>
+    <t>Binary Search on Answer</t>
+  </si>
+  <si>
+    <t>Idea is simple:
+We don’t search in the array.
+We search for the answer itself.
+We guess an answer → check if it’s possible → adjust high/low.
+Treat it like "hot–warm–cold".</t>
+  </si>
+  <si>
     <t>3 Merge Sort Problems (Simple → Medium)
 Problem 1 — Sort an array using merge sort
 (You already did this, but repeat until you can write it without peeking.)
@@ -5179,10 +5189,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6830,7 +6840,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -7194,9 +7204,13 @@
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+    <row r="35" ht="72" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3">
@@ -7498,7 +7512,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7508,12 +7522,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7535,17 +7549,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7586,7 +7600,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7601,7 +7615,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7843,7 +7857,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8029,7 +8043,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -721,6 +721,13 @@
 # "Give me the NAME for every emp in employees if DEPT is Tech"
 tech_names = [emp["name"] for emp in employees if emp["dept"] == "Tech"]
 # Result: ['Neha', 'Raj']</t>
+  </si>
+  <si>
+    <t>Functions (def)</t>
+  </si>
+  <si>
+    <t>Imagine you are a Wizard in Harry Potter.
+1. Defining (def) is WRITING the spell. You are writing a new spell in your spellbook. You give it a name, and you decide what it does.             2. Calling is CASTING the spell. This is when you actually wave your wand and say the name.</t>
   </si>
   <si>
     <t>Recall</t>
@@ -3594,7 +3601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3690,6 +3697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4370,246 +4380,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -4624,7 +4634,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -4680,7 +4690,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -4742,7 +4752,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -4798,7 +4808,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -4854,7 +4864,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -4916,7 +4926,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -4978,7 +4988,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="50" t="s">
+      <c r="A88" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -5034,7 +5044,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -5090,7 +5100,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -5189,10 +5199,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5348,7 +5358,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5356,31 +5366,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="35">
         <v>45976</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="36">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>45976</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="36">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5388,16 +5398,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="35">
         <v>45976</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="36">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5405,125 +5415,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="35">
         <v>45976</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="36">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="35">
         <v>45976</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="36">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="35">
         <v>45976</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="36">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" s="32" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="40" t="s">
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" s="33" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>45976</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="36">
         <v>45983</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>2</v>
       </c>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" s="32" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="40" t="s">
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" s="33" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="36">
         <v>45976</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="36">
         <v>45983</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" s="32" customFormat="1" spans="1:5">
-      <c r="A10" s="41" t="s">
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" s="33" customFormat="1" spans="1:5">
+      <c r="A10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>45976</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="36">
         <v>45983</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>1</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="32" customFormat="1" spans="1:5">
-      <c r="A11" s="41" t="s">
+    <row r="11" s="33" customFormat="1" spans="1:5">
+      <c r="A11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="36">
         <v>45976</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="36">
         <v>45983</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="42">
         <v>1</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="32" customFormat="1" spans="1:5">
-      <c r="A12" s="41" t="s">
+    <row r="12" s="33" customFormat="1" spans="1:5">
+      <c r="A12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="36">
         <v>45976</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="36">
         <v>45983</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>1</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5531,16 +5541,16 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="36">
         <v>45977</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="36">
         <v>45982</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5548,16 +5558,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="36">
         <v>45980</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="36">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5565,16 +5575,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="36">
         <v>45980</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="36">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5582,16 +5592,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="36">
         <v>45980</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="36">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5599,16 +5609,16 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="36">
         <v>45980</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="36">
         <v>45982</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5616,16 +5626,16 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="36">
         <v>45981</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="36">
         <v>45983</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5633,16 +5643,16 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="36">
         <v>45982</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="36">
         <v>45984</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5650,16 +5660,16 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="36">
         <v>45983</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="36">
         <v>45985</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5667,16 +5677,16 @@
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="36">
         <v>45986</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="36">
         <v>45987</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5684,16 +5694,16 @@
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="36">
         <v>45986</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="36">
         <v>45987</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5701,16 +5711,16 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="36">
         <v>45986</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="36">
         <v>45987</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5718,16 +5728,16 @@
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="36">
         <v>45986</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="36">
         <v>45987</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5735,16 +5745,16 @@
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="36">
         <v>45986</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="36">
         <v>45987</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5752,16 +5762,16 @@
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="36">
         <v>45986</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="36">
         <v>45987</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5769,16 +5779,16 @@
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="36">
         <v>45986</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="36">
         <v>45987</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5786,16 +5796,16 @@
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="36">
         <v>45986</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="36">
         <v>45987</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5803,16 +5813,16 @@
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="36">
         <v>45986</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="36">
         <v>45987</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5820,22 +5830,22 @@
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="36">
         <v>45986</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="36">
         <v>45987</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -6464,8 +6474,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6497,9 +6507,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+    <row r="3" ht="86.4" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
@@ -6780,7 +6794,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -6792,26 +6806,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6822,10 +6836,10 @@
     </row>
     <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6839,7 +6853,7 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -6853,10 +6867,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -6864,144 +6878,144 @@
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -7010,10 +7024,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -7021,10 +7035,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -7032,13 +7046,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -7046,170 +7060,170 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" ht="244.8" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C31" s="14"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
       <c r="A32" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
       <c r="A33" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C33" s="14"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C34" s="14"/>
     </row>
     <row r="35" ht="72" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" s="14"/>
     </row>
@@ -7429,72 +7443,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -7512,7 +7526,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7522,12 +7536,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7549,17 +7563,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -7600,7 +7614,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7615,7 +7629,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7857,7 +7871,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8043,7 +8057,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="173">
   <si>
     <r>
       <rPr>
@@ -728,6 +728,15 @@
   <si>
     <t>Imagine you are a Wizard in Harry Potter.
 1. Defining (def) is WRITING the spell. You are writing a new spell in your spellbook. You give it a name, and you decide what it does.             2. Calling is CASTING the spell. This is when you actually wave your wand and say the name.</t>
+  </si>
+  <si>
+    <t>Modules (The "Toolbox") 🧰</t>
+  </si>
+  <si>
+    <t>The Big 3 You Will Use Often:
+random: For shuffling data or picking random AI responses.
+datetime: For timestamping your logs.
+math: For complex calculations (vectors/distances).</t>
   </si>
   <si>
     <t>Recall</t>
@@ -5199,10 +5208,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6475,7 +6484,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6511,14 +6520,18 @@
       <c r="A3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+    <row r="4" ht="57.6" spans="1:3">
+      <c r="A4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
@@ -6794,7 +6807,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -6806,26 +6819,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6836,10 +6849,10 @@
     </row>
     <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6867,10 +6880,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -6878,144 +6891,144 @@
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -7024,10 +7037,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -7035,10 +7048,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -7046,13 +7059,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -7060,170 +7073,170 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" ht="244.8" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C31" s="14"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
       <c r="A32" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
       <c r="A33" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" s="14"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C34" s="14"/>
     </row>
     <row r="35" ht="72" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C35" s="14"/>
     </row>
@@ -7443,72 +7456,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -7526,7 +7539,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7536,12 +7549,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7563,17 +7576,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7614,7 +7627,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7629,7 +7642,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7871,7 +7884,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8057,7 +8070,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
   <si>
     <r>
       <rPr>
@@ -671,6 +671,18 @@
   </si>
   <si>
     <t>LongestUniqueSubArray</t>
+  </si>
+  <si>
+    <t>Split Array</t>
+  </si>
+  <si>
+    <t>Koko</t>
+  </si>
+  <si>
+    <t>Ship Packages</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
   </si>
   <si>
     <t>Topic</t>
@@ -3610,7 +3622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3707,9 +3719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3747,6 +3756,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4389,246 +4407,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="71"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -4643,7 +4661,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -4699,7 +4717,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -4761,7 +4779,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -4817,7 +4835,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -4873,7 +4891,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -4935,7 +4953,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -4997,7 +5015,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="51" t="s">
+      <c r="A88" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -5053,7 +5071,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -5109,7 +5127,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -5208,10 +5226,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5341,8 +5359,8 @@
   <sheetPr/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5367,7 +5385,7 @@
       <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5375,31 +5393,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>45976</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>45983</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>45976</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>45983</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5407,16 +5425,16 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>45976</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>45983</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5424,125 +5442,125 @@
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>45976</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>45983</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>45976</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>45983</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>45976</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>45983</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="41" t="s">
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" s="32" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>45976</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>45983</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>2</v>
       </c>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" s="33" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="41" t="s">
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" s="32" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>45976</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>45983</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" s="33" customFormat="1" spans="1:5">
-      <c r="A10" s="42" t="s">
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" s="32" customFormat="1" spans="1:5">
+      <c r="A10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>45976</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>45983</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>1</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="33" customFormat="1" spans="1:5">
-      <c r="A11" s="42" t="s">
+    <row r="11" s="32" customFormat="1" spans="1:5">
+      <c r="A11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>45976</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>45983</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>1</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="33" customFormat="1" spans="1:5">
-      <c r="A12" s="42" t="s">
+    <row r="12" s="32" customFormat="1" spans="1:5">
+      <c r="A12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>45976</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>45983</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5550,16 +5568,16 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>45977</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>45982</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5567,16 +5585,16 @@
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>45980</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>45982</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5584,16 +5602,16 @@
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>45980</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>45982</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5601,16 +5619,16 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>45980</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>45982</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5618,16 +5636,16 @@
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>45980</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>45982</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5635,16 +5653,16 @@
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>45981</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>45983</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5652,16 +5670,16 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>45982</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>45984</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5669,16 +5687,16 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>45983</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>45985</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5686,16 +5704,16 @@
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>45986</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>45987</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5703,16 +5721,16 @@
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>45986</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>45987</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5720,16 +5738,16 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>45986</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>45987</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5737,16 +5755,16 @@
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>45986</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>45987</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5754,16 +5772,16 @@
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>45986</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>45987</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5771,16 +5789,16 @@
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>45986</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>45987</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5788,16 +5806,16 @@
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>45986</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>45987</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5805,16 +5823,16 @@
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>45986</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>45987</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5822,16 +5840,16 @@
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>45986</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>45987</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5839,49 +5857,73 @@
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>45986</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>45987</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="35">
+        <v>45992</v>
+      </c>
+      <c r="C31" s="35">
+        <v>45993</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="35">
+        <v>45992</v>
+      </c>
+      <c r="C32" s="35">
+        <v>45993</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="35">
+        <v>45992</v>
+      </c>
+      <c r="C33" s="35">
+        <v>45993</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="35">
+        <v>45993</v>
+      </c>
+      <c r="C34" s="35">
+        <v>45993</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6483,7 +6525,7 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C6" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
@@ -6496,41 +6538,41 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" ht="57.6" spans="1:3">
-      <c r="A4" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>65</v>
+      <c r="A4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -6807,7 +6849,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -6819,26 +6861,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6849,10 +6891,10 @@
     </row>
     <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6880,155 +6922,155 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -7037,10 +7079,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
@@ -7048,10 +7090,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
@@ -7059,13 +7101,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
@@ -7073,170 +7115,170 @@
         <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" ht="244.8" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C31" s="14"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
       <c r="A32" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
       <c r="A33" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C33" s="14"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C34" s="14"/>
     </row>
     <row r="35" ht="72" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C35" s="14"/>
     </row>
@@ -7456,72 +7498,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -7539,7 +7581,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7549,12 +7591,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -7576,17 +7618,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7627,7 +7669,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7642,7 +7684,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7884,7 +7926,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8070,7 +8112,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
   <si>
     <r>
       <rPr>
@@ -3622,7 +3622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3756,15 +3756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4407,246 +4398,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8"/>
@@ -4661,7 +4652,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="10"/>
@@ -4717,7 +4708,7 @@
       <c r="D39" s="14"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="10"/>
@@ -4779,7 +4770,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="10"/>
@@ -4835,7 +4826,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="8"/>
@@ -4891,7 +4882,7 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="8"/>
@@ -4953,7 +4944,7 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="8"/>
@@ -5015,7 +5006,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="8"/>
@@ -5071,7 +5062,7 @@
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="10"/>
@@ -5127,7 +5118,7 @@
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="8"/>
@@ -5359,8 +5350,8 @@
   <sheetPr/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5871,7 +5862,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="35">
@@ -5880,11 +5871,15 @@
       <c r="C31" s="35">
         <v>45993</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="35">
@@ -5893,11 +5888,15 @@
       <c r="C32" s="35">
         <v>45993</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="35">
@@ -5906,11 +5905,15 @@
       <c r="C33" s="35">
         <v>45993</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="35">
@@ -5919,11 +5922,15 @@
       <c r="C34" s="35">
         <v>45993</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="47"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Notes" sheetId="3" r:id="rId5"/>
     <sheet name="Questions" sheetId="8" r:id="rId6"/>
     <sheet name="DSA &amp; Resource Sheet" sheetId="7" r:id="rId7"/>
-    <sheet name="Unfinished" sheetId="9" r:id="rId8"/>
+    <sheet name="neetcode150" sheetId="9" r:id="rId8"/>
     <sheet name="Reality check" sheetId="6" r:id="rId9"/>
     <sheet name="Checklist" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="240">
   <si>
     <r>
       <rPr>
@@ -749,6 +749,16 @@
 random: For shuffling data or picking random AI responses.
 datetime: For timestamping your logs.
 math: For complex calculations (vectors/distances).</t>
+  </si>
+  <si>
+    <t>The Project Skeleton</t>
+  </si>
+  <si>
+    <t>my_first_project/
+│
+├── main.py           &lt;-- The Boss (Entry Point)
+├── utils.py          &lt;-- The Worker (Functions live here)
+└── requirements.txt  &lt;-- The Shopping List (Libraries to install)</t>
   </si>
   <si>
     <t>Recall</t>
@@ -2368,6 +2378,260 @@
     <t>https://docs.google.com/document/d/1hYEHHG7wFNZBR7gGSbEmxl3pQdKUVl1JyW77fyIhAP4/edit?tab=t.0</t>
   </si>
   <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>704. Binary Search</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>1011. Capacity to Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>410. Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>4. Median of Two Sorted Arrays (HARD)</t>
+  </si>
+  <si>
+    <t>solved + LeetCode submitted</t>
+  </si>
+  <si>
+    <t>Binary Search = 100% finished.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are performing at </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FAANG-level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in this section.</t>
+    </r>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>(Not solved within Neetcode list, BUT you mastered the fundamentals outside of it)</t>
+  </si>
+  <si>
+    <t>Youā€™ve already done:</t>
+  </si>
+  <si>
+    <t>Move zeros</t>
+  </si>
+  <si>
+    <t>Remove duplicates</t>
+  </si>
+  <si>
+    <t>Slow/fast pointer logic</t>
+  </si>
+  <si>
+    <t>Basic 2 pointers array patterns</t>
+  </si>
+  <si>
+    <t>Sliding windows</t>
+  </si>
+  <si>
+    <t>NeetCode list items still pending:</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Sum II</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Weā€™ll hit these after Trees if needed.</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>You have mastered the core variants:</t>
+  </si>
+  <si>
+    <t>Fixed-size window</t>
+  </si>
+  <si>
+    <t>Variable window</t>
+  </si>
+  <si>
+    <t>Longest sum ā‰¤ X</t>
+  </si>
+  <si>
+    <t>Exactly K distinct</t>
+  </si>
+  <si>
+    <t>Longest unique substring (array version)</t>
+  </si>
+  <si>
+    <t>NeetCode variants still pending:</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters (string version)</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Weā€™ll hit these after Trees or alongside Python.</t>
+  </si>
+  <si>
+    <t>HashMap + Prefix Sum</t>
+  </si>
+  <si>
+    <t>You solved:</t>
+  </si>
+  <si>
+    <t>Count subarrays sum = X</t>
+  </si>
+  <si>
+    <t>Count subarrays sum = 0</t>
+  </si>
+  <si>
+    <t>Count subarrays divisible by K</t>
+  </si>
+  <si>
+    <t>HashMap prefix sums (full pattern)</t>
+  </si>
+  <si>
+    <t>This directly maps to:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Two Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pending)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49. Group Anagrams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pending)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>347. Top K Frequent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pending)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>128. Longest Consecutive Sequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pending)</t>
+    </r>
+  </si>
+  <si>
+    <t>Youā€™ll do these soon.</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>You mastered:</t>
+  </si>
+  <si>
+    <t>QuickSort (all variants)</t>
+  </si>
+  <si>
+    <t>Inversion Count</t>
+  </si>
+  <si>
+    <t>Median-of-3</t>
+  </si>
+  <si>
+    <t>Many people skip this</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="20"/>
@@ -2820,7 +3084,7 @@
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2836,19 +3100,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2997,6 +3269,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3492,16 +3772,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3510,119 +3787,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3644,7 +3924,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3659,10 +3960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -3683,31 +3984,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3718,6 +4019,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -3758,13 +4062,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3773,7 +4077,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4398,780 +4702,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="50" t="s">
+      <c r="A88" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5217,10 +5521,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5350,7 +5654,7 @@
   <sheetPr/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E31" sqref="E31:E34"/>
     </sheetView>
   </sheetViews>
@@ -5364,19 +5668,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5384,1138 +5688,1138 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="42">
         <v>45976</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="43">
         <v>45983</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="15">
         <v>4</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="42">
         <v>45976</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="43">
         <v>45983</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="42">
         <v>45976</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="43">
         <v>45983</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="144" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="42">
         <v>45976</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="43">
         <v>45983</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="42">
         <v>45976</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="43">
         <v>45983</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="42">
         <v>45976</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="43">
         <v>45983</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" s="32" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="40" t="s">
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" s="40" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="43">
         <v>45976</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="43">
         <v>45983</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="49">
         <v>2</v>
       </c>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" s="32" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="40" t="s">
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" s="40" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="43">
         <v>45976</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="43">
         <v>45983</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" s="32" customFormat="1" spans="1:5">
-      <c r="A10" s="41" t="s">
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" s="40" customFormat="1" spans="1:5">
+      <c r="A10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="43">
         <v>45976</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="43">
         <v>45983</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="32" customFormat="1" spans="1:5">
-      <c r="A11" s="41" t="s">
+    <row r="11" s="40" customFormat="1" spans="1:5">
+      <c r="A11" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="43">
         <v>45976</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="43">
         <v>45983</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="32" customFormat="1" spans="1:5">
-      <c r="A12" s="41" t="s">
+    <row r="12" s="40" customFormat="1" spans="1:5">
+      <c r="A12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="43">
         <v>45976</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="43">
         <v>45983</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="49">
         <v>1</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="43">
         <v>45977</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="43">
         <v>45982</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="43">
         <v>45980</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="43">
         <v>45982</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="43">
         <v>45980</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="43">
         <v>45982</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="43">
         <v>45980</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="43">
         <v>45982</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="43">
         <v>45980</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="43">
         <v>45982</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="43">
         <v>45981</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="43">
         <v>45983</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="43">
         <v>45982</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="43">
         <v>45984</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="43">
         <v>45983</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="43">
         <v>45985</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="43">
         <v>45986</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="43">
         <v>45987</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="43">
         <v>45986</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="43">
         <v>45987</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="15">
         <v>1</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="43">
         <v>45986</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="43">
         <v>45987</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="43">
         <v>45986</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="43">
         <v>45987</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="43">
         <v>45986</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="43">
         <v>45987</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="15">
         <v>1</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="43">
         <v>45986</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="43">
         <v>45987</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="15">
         <v>1</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="43">
         <v>45986</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="43">
         <v>45987</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="15">
         <v>1</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="43">
         <v>45986</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="43">
         <v>45987</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="15">
         <v>1</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="43">
         <v>45986</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="43">
         <v>45987</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="15">
         <v>1</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="43">
         <v>45986</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="43">
         <v>45987</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="15">
         <v>1</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="43">
         <v>45992</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="43">
         <v>45993</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="15">
         <v>1</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="43">
         <v>45992</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="43">
         <v>45993</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="15">
         <v>1</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="43">
         <v>45992</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="43">
         <v>45993</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="15">
         <v>1</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="43">
         <v>45993</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="43">
         <v>45993</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="15">
         <v>1</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6533,7 +6837,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C4:C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6544,294 +6848,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" ht="57.6" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" ht="72" spans="1:3">
+      <c r="A5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6855,53 +7163,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24">
+      <c r="A2" s="31">
         <v>45962</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>72</v>
+      <c r="A3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>74</v>
+      <c r="A4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>76</v>
+      <c r="A5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26">
+      <c r="A6" s="33">
         <v>45969</v>
       </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" s="23" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>78</v>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" s="30" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6928,559 +7236,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>83</v>
       </c>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="21" t="s">
         <v>86</v>
       </c>
+      <c r="B3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="14"/>
+      <c r="A4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="22" t="s">
         <v>91</v>
       </c>
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="B6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="B7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="A8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="A9" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
-      <c r="A10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
-      <c r="A11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="A11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>109</v>
       </c>
+      <c r="B12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="B13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
-      <c r="A15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>118</v>
+      <c r="B16" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>120</v>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>122</v>
+      <c r="B18" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>125</v>
+      <c r="B19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="15" t="s">
         <v>129</v>
       </c>
+      <c r="B20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="14"/>
+      <c r="A21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="14"/>
+      <c r="A22" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
-      <c r="A23" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="A23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="14"/>
+      <c r="A24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="A25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
-      <c r="A26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="15" t="s">
         <v>143</v>
       </c>
+      <c r="B26" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
-      <c r="A27" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="14"/>
+      <c r="A27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="15" t="s">
         <v>148</v>
       </c>
+      <c r="B28" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
-      <c r="A29" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="A29" s="15" t="s">
         <v>152</v>
       </c>
+      <c r="B29" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="30" ht="244.8" spans="1:3">
-      <c r="A30" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="14"/>
+      <c r="A30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
-      <c r="A31" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="14"/>
+      <c r="A31" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
-      <c r="A32" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="14"/>
+      <c r="A32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
-      <c r="A33" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="14"/>
+      <c r="A33" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
-      <c r="A34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="14"/>
+      <c r="A34" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" ht="72" spans="1:3">
-      <c r="A35" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="14"/>
+      <c r="A35" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="21"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="21"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7504,106 +7812,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>81</v>
+      <c r="A1" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
-        <v>84</v>
+      <c r="A2" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>87</v>
+      <c r="A3" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>89</v>
+      <c r="A4" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>92</v>
+      <c r="A5" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
-        <v>96</v>
+      <c r="A6" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>99</v>
+      <c r="A7" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>101</v>
+      <c r="A8" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
-        <v>103</v>
+      <c r="A9" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
-        <v>105</v>
+      <c r="A10" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
-        <v>107</v>
+      <c r="A11" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
-        <v>110</v>
+      <c r="A12" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
-        <v>113</v>
+      <c r="A13" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
-        <v>115</v>
+      <c r="A14" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="176" customHeight="1" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7624,18 +7932,18 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>168</v>
+      <c r="A2" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7650,14 +7958,344 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="107.555555555556" customWidth="1"/>
+    <col min="3" max="3" width="10.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="2:3">
+      <c r="B8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" ht="23.4" spans="2:2">
+      <c r="B11" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" ht="23.4" spans="2:2">
+      <c r="B26" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" ht="23.4" spans="2:2">
+      <c r="B41" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" ht="13" customHeight="1"/>
+    <row r="55" ht="22" customHeight="1" spans="2:2">
+      <c r="B55" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7676,7 +8314,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7691,7 +8329,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -7933,7 +8571,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8119,7 +8757,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="8280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="242">
   <si>
     <r>
       <rPr>
@@ -2329,6 +2329,120 @@
 Treat it like "hot–warm–cold".</t>
   </si>
   <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Tree:
+What is a Binary Tree?
+Imagine a family tree:
+        A
+       / \
+      B   C
+     / \   \
+    D  E    F
+Each node has:
+a value
+at most 2 children (left, right)
+And your job is always the same:
+Look at current node → go left → go right.
+That's the whole universe of tree problems.
+Every tree problem reduces to:
+return something( left subtree , right subtree )
+🌿 STEP 2 — Rules of Traversal (ELI5)
+When recursion visits a node:
+Check if node is null (base case)
+Do something with it
+Ask recursion to handle left subtree
+Ask recursion to handle right subtree
+Combine results
+For example:
+int dfs(node) {
+    if (node == null) return something;
+    int left = dfs(node.left);
+    int right = dfs(node.right);
+    return something(left, right);
+}
+This pattern NEVER changes.
+🌳 STEP 3 — Let's hit PROBLEM 1
+226. Invert Binary Tree (Easy)
+This builds intuition for tree manipulation.
+ELI5:
+Imagine flipping a family photo horizontally → left becomes right, right becomes left.
+Every node must swap its children:
+        4                     4
+       / \                   / \
+      2   7       →         7   2
+     / \ / \               / \ / \
+    1  3 6  9             9  6 3  1
+Pattern:
+At every node:
+swap left and right
+then recurse to children
+🌳 STEP 4 — PROBLEM 2
+104. Maximum Depth of Binary Tree
+ELI5:
+“How tall is the tree?”
+Count levels to the deepest leaf.
+Example:
+    3
+   / \
+  9  20
+    /  \
+   15   7
+Depth = 3.
+Pattern:
+Depth = 1 + max(depth(left), depth(right))
+int maxDepth(TreeNode root) {
+    if (root == null) return 0;
+    int left = maxDepth(root.left);
+    int right = maxDepth(root.right);
+    return 1 + Math.max(left, right);
+}
+🌳 STEP 5 — PROBLEM 3
+110. Balanced Binary Tree
+ELI5:
+A tree is “balanced” if no branch is too heavy…
+Difference of heights between left &amp; right ≤ 1.
+For every node:
+height(left) - height(right) ≤ 1
+Trick:
+You combine:
+height calculation
+imbalance detection
+int dfs(node) {
+    if(node == null) return 0;
+    int left = dfs(node.left);
+    if (left == -1) return -1;
+    int right = dfs(node.right);
+    if (right == -1) return -1;
+    if (Math.abs(left-right) &gt; 1) return -1;
+    return 1 + Math.max(left, right);
+}
+boolean isBalanced(root) {
+    return dfs(root) != -1;
+}
+This will make sense after maxDepth.
+🌳 STEP 6 — PROBLEM 4
+543. Diameter of Binary Tree
+ELI5:
+Diameter = longest path between any two nodes.
+This path may pass through root or not.
+Pattern:
+diameter = left height + right height
+at every node.
+🌳 STEP 7 — PROBLEM 5
+100. Same Tree
+ELI5:
+Check if two trees are identical.
+boolean same(p, q) {
+    if(p == null &amp;&amp; q == null) return true;
+    if(p == null || q == null) return false;
+    return p.val == q.val
+        &amp;&amp; same(p.left, q.left)
+        &amp;&amp; same(p.right, q.right);
+}</t>
+  </si>
+  <si>
     <t>3 Merge Sort Problems (Simple → Medium)
 Problem 1 — Sort an array using merge sort
 (You already did this, but repeat until you can write it without peeking.)
@@ -2415,6 +2529,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You are performing at </t>
     </r>
     <r>
@@ -2552,6 +2673,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. Two Sum</t>
     </r>
     <r>
@@ -2567,6 +2696,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>49. Group Anagrams</t>
     </r>
     <r>
@@ -2582,6 +2719,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>347. Top K Frequent</t>
     </r>
     <r>
@@ -2597,6 +2742,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>128. Longest Consecutive Sequence</t>
     </r>
     <r>
@@ -3272,15 +3425,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3902,7 +4055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3928,9 +4081,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4019,9 +4169,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4702,780 +4849,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="71" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="77" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="58" t="s">
+      <c r="A88" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="58" t="s">
+      <c r="A97" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5521,10 +5668,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5668,19 +5815,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5688,1138 +5835,1138 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="40">
         <v>45976</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="41">
         <v>45983</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>4</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>45976</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <v>45983</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <v>45976</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>45983</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="44" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="144" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <v>45976</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>45983</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <v>45976</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>45983</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <v>45976</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>45983</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" s="40" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="48" t="s">
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" s="38" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>45976</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>45983</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>2</v>
       </c>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" s="40" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="48" t="s">
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" s="38" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>45976</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>45983</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" s="40" customFormat="1" spans="1:5">
-      <c r="A10" s="49" t="s">
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" s="38" customFormat="1" spans="1:5">
+      <c r="A10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="41">
         <v>45976</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>45983</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" spans="1:5">
-      <c r="A11" s="49" t="s">
+    <row r="11" s="38" customFormat="1" spans="1:5">
+      <c r="A11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>45976</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>45983</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>1</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="40" customFormat="1" spans="1:5">
-      <c r="A12" s="49" t="s">
+    <row r="12" s="38" customFormat="1" spans="1:5">
+      <c r="A12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>45976</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>45983</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>1</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="41">
         <v>45977</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>45982</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="41">
         <v>45980</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>45982</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="41">
         <v>45980</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>45982</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>45980</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>45982</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="41">
         <v>45980</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>45982</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="41">
         <v>45981</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>45983</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="41">
         <v>45982</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>45984</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="41">
         <v>45983</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>45985</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="41">
         <v>45986</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>45987</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="41">
         <v>45986</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="41">
         <v>45987</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>1</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>45986</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="41">
         <v>45987</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="41">
         <v>45986</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="41">
         <v>45987</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="41">
         <v>45986</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="41">
         <v>45987</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>1</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="41">
         <v>45986</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="41">
         <v>45987</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="41">
         <v>45986</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="41">
         <v>45987</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="41">
         <v>45986</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="41">
         <v>45987</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="41">
         <v>45986</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="41">
         <v>45987</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="41">
         <v>45986</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="41">
         <v>45987</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="41">
         <v>45992</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="41">
         <v>45993</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="41">
         <v>45992</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="41">
         <v>45993</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>1</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="41">
         <v>45992</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="41">
         <v>45993</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>1</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="41">
         <v>45993</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="41">
         <v>45993</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>1</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6848,298 +6995,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" ht="57.6" spans="1:3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" ht="72" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7163,52 +7310,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <v>45962</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>45969</v>
       </c>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" s="30" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" s="29" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7223,8 +7370,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -7236,66 +7383,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -7303,122 +7450,122 @@
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" ht="158.4" spans="1:3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" ht="158.4" spans="1:3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -7426,13 +7573,13 @@
       </c>
     </row>
     <row r="19" ht="158.4" spans="1:4">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -7440,13 +7587,13 @@
       </c>
     </row>
     <row r="20" ht="302.4" spans="1:4">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -7454,78 +7601,78 @@
       </c>
     </row>
     <row r="21" ht="174" customHeight="1" spans="1:3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" ht="57.6" spans="1:3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -7533,262 +7680,266 @@
       </c>
     </row>
     <row r="29" ht="244.8" spans="1:3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30" ht="244.8" spans="1:3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" ht="72" spans="1:3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="21"/>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" ht="409" customHeight="1" spans="1:3">
+      <c r="A36" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7812,106 +7963,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="176" customHeight="1" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7932,18 +8083,18 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
-        <v>170</v>
+      <c r="A2" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7960,7 +8111,7 @@
   <sheetPr/>
   <dimension ref="B1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -7972,327 +8123,327 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="10" t="s">
-        <v>184</v>
+      <c r="B9" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
-      <c r="B11" s="11" t="s">
-        <v>186</v>
+      <c r="B11" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="12" t="s">
-        <v>189</v>
+      <c r="B14" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="12" t="s">
-        <v>190</v>
+      <c r="B15" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="12" t="s">
-        <v>191</v>
+      <c r="B16" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="12" t="s">
-        <v>192</v>
+      <c r="B17" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="12" t="s">
-        <v>193</v>
+      <c r="B18" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12" t="s">
-        <v>195</v>
+      <c r="B20" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="12" t="s">
-        <v>196</v>
+      <c r="B21" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12" t="s">
-        <v>197</v>
+      <c r="B22" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12" t="s">
-        <v>198</v>
+      <c r="B23" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12" t="s">
-        <v>199</v>
+      <c r="B24" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
-      <c r="B26" s="11" t="s">
-        <v>201</v>
+      <c r="B26" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12" t="s">
-        <v>203</v>
+      <c r="B28" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12" t="s">
-        <v>204</v>
+      <c r="B29" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12" t="s">
-        <v>205</v>
+      <c r="B30" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12" t="s">
-        <v>206</v>
+      <c r="B31" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12" t="s">
-        <v>207</v>
+      <c r="B32" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12" t="s">
-        <v>209</v>
+      <c r="B34" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="12" t="s">
-        <v>210</v>
+      <c r="B35" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12" t="s">
-        <v>211</v>
+      <c r="B36" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="12" t="s">
-        <v>212</v>
+      <c r="B37" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="12" t="s">
-        <v>213</v>
+      <c r="B38" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="12" t="s">
-        <v>214</v>
+      <c r="B39" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
-      <c r="B41" s="11" t="s">
-        <v>216</v>
+      <c r="B41" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="12" t="s">
-        <v>218</v>
+      <c r="B43" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="12" t="s">
-        <v>219</v>
+      <c r="B44" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="12" t="s">
-        <v>220</v>
+      <c r="B45" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="12" t="s">
-        <v>221</v>
+      <c r="B46" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="13" t="s">
-        <v>223</v>
+      <c r="B48" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="13" t="s">
-        <v>224</v>
+      <c r="B49" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="13" t="s">
-        <v>225</v>
+      <c r="B50" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="13" t="s">
-        <v>226</v>
+      <c r="B51" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
-      <c r="B55" s="11" t="s">
-        <v>228</v>
+      <c r="B55" s="10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="12" t="s">
-        <v>230</v>
+      <c r="B57" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="12" t="s">
-        <v>231</v>
+      <c r="B60" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="12" t="s">
-        <v>232</v>
+      <c r="B61" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -8314,7 +8465,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8329,7 +8480,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -8571,7 +8722,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8757,7 +8908,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="245">
   <si>
     <r>
       <rPr>
@@ -2441,6 +2441,30 @@
         &amp;&amp; same(p.left, q.left)
         &amp;&amp; same(p.right, q.right);
 }</t>
+  </si>
+  <si>
+    <t>DFS = go deep left → go deep right
+Depth = max height of its children + 1
+Balanced tree = leftHeight and rightHeight differ ≤ 1
+We check balance bottom-up using dfs</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>What is DFS? (ELI5)
+DFS = Depth First Search.
+It’s just a fancy word for:
+“Go as deep as possible down one branch before coming back.”
+Like climbing a tree:
+Climb the left branch all the way down
+Come back
+Then climb the right branch all the way down
+That's it.
+Every recursion you’ve seen:
+dfs(node.left);
+dfs(node.right);
+is DFS.</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -3715,10 +3739,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3728,10 +3752,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4055,7 +4079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4141,6 +4165,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4173,7 +4203,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4182,13 +4212,13 @@
     <xf numFmtId="181" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4203,7 +4233,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4849,246 +4879,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="55"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="14"/>
@@ -5103,7 +5133,7 @@
       <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="16"/>
@@ -5159,7 +5189,7 @@
       <c r="D39" s="20"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="16"/>
@@ -5221,7 +5251,7 @@
       <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="16"/>
@@ -5277,7 +5307,7 @@
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="14"/>
@@ -5333,7 +5363,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="14"/>
@@ -5395,7 +5425,7 @@
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="58" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="14"/>
@@ -5457,7 +5487,7 @@
       <c r="D87" s="20"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="58" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="14"/>
@@ -5513,7 +5543,7 @@
       <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="16"/>
@@ -5569,7 +5599,7 @@
       <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="56" t="s">
+      <c r="A106" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="14"/>
@@ -5668,10 +5698,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5827,7 +5857,7 @@
       <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5835,31 +5865,31 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="42">
         <v>45976</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="43">
         <v>45983</v>
       </c>
       <c r="D2" s="14">
         <v>4</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="42">
         <v>45976</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="43">
         <v>45983</v>
       </c>
       <c r="D3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5867,16 +5897,16 @@
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="42">
         <v>45976</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>45983</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5884,125 +5914,125 @@
       <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="42">
         <v>45976</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="43">
         <v>45983</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="42">
         <v>45976</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>45983</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="42">
         <v>45976</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="43">
         <v>45983</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="45"/>
-    </row>
-    <row r="8" s="38" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="46" t="s">
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" s="40" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="43">
         <v>45976</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="43">
         <v>45983</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="49">
         <v>2</v>
       </c>
-      <c r="E8" s="48"/>
-    </row>
-    <row r="9" s="38" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="46" t="s">
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" s="40" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="43">
         <v>45976</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="43">
         <v>45983</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" s="38" customFormat="1" spans="1:5">
-      <c r="A10" s="47" t="s">
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" s="40" customFormat="1" spans="1:5">
+      <c r="A10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="43">
         <v>45976</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="43">
         <v>45983</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="38" customFormat="1" spans="1:5">
-      <c r="A11" s="47" t="s">
+    <row r="11" s="40" customFormat="1" spans="1:5">
+      <c r="A11" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="43">
         <v>45976</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="43">
         <v>45983</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="38" customFormat="1" spans="1:5">
-      <c r="A12" s="47" t="s">
+    <row r="12" s="40" customFormat="1" spans="1:5">
+      <c r="A12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="43">
         <v>45976</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="43">
         <v>45983</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="49">
         <v>1</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6010,16 +6040,16 @@
       <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="43">
         <v>45977</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="43">
         <v>45982</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6027,16 +6057,16 @@
       <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="43">
         <v>45980</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="43">
         <v>45982</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6044,16 +6074,16 @@
       <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="43">
         <v>45980</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="43">
         <v>45982</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6061,16 +6091,16 @@
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="43">
         <v>45980</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="43">
         <v>45982</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6078,16 +6108,16 @@
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="43">
         <v>45980</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="43">
         <v>45982</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6095,16 +6125,16 @@
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="43">
         <v>45981</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="43">
         <v>45983</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6112,16 +6142,16 @@
       <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="43">
         <v>45982</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="43">
         <v>45984</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6129,16 +6159,16 @@
       <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="43">
         <v>45983</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="43">
         <v>45985</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6146,16 +6176,16 @@
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="43">
         <v>45986</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="43">
         <v>45987</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6163,16 +6193,16 @@
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="43">
         <v>45986</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="43">
         <v>45987</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6180,16 +6210,16 @@
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="43">
         <v>45986</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="43">
         <v>45987</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6197,16 +6227,16 @@
       <c r="A24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="43">
         <v>45986</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="43">
         <v>45987</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6214,16 +6244,16 @@
       <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="43">
         <v>45986</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="43">
         <v>45987</v>
       </c>
       <c r="D25" s="14">
         <v>1</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6231,16 +6261,16 @@
       <c r="A26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="43">
         <v>45986</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="43">
         <v>45987</v>
       </c>
       <c r="D26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6248,16 +6278,16 @@
       <c r="A27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="43">
         <v>45986</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="43">
         <v>45987</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6265,16 +6295,16 @@
       <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="43">
         <v>45986</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="43">
         <v>45987</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6282,16 +6312,16 @@
       <c r="A29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="43">
         <v>45986</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="43">
         <v>45987</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6299,16 +6329,16 @@
       <c r="A30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="43">
         <v>45986</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="43">
         <v>45987</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6316,16 +6346,16 @@
       <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="43">
         <v>45992</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="43">
         <v>45993</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6333,16 +6363,16 @@
       <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="43">
         <v>45992</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="43">
         <v>45993</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6350,16 +6380,16 @@
       <c r="A33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="43">
         <v>45992</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="43">
         <v>45993</v>
       </c>
       <c r="D33" s="14">
         <v>1</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6367,16 +6397,16 @@
       <c r="A34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="43">
         <v>45993</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="43">
         <v>45993</v>
       </c>
       <c r="D34" s="14">
         <v>1</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6995,21 +7025,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -7316,7 +7346,7 @@
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30">
+      <c r="A2" s="32">
         <v>45962</v>
       </c>
       <c r="B2" s="20"/>
@@ -7325,7 +7355,7 @@
       <c r="A3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7333,7 +7363,7 @@
       <c r="A4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7341,21 +7371,21 @@
       <c r="A5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32">
+      <c r="A6" s="34">
         <v>45969</v>
       </c>
       <c r="B6" s="20"/>
     </row>
-    <row r="7" s="29" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="33" t="s">
+    <row r="7" s="31" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7371,7 +7401,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -7751,12 +7781,18 @@
       <c r="B36" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="20"/>
+      <c r="C36" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" ht="187.2" spans="1:3">
+      <c r="A37" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="14"/>
@@ -7834,8 +7870,8 @@
       <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="14"/>
@@ -7942,6 +7978,9 @@
       <c r="B79" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C36:C37"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8047,7 +8086,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -8057,12 +8096,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -8084,17 +8123,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8123,302 +8162,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -8433,17 +8472,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8465,7 +8504,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8480,7 +8519,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -8722,7 +8761,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8908,7 +8947,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -7401,7 +7401,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="360">
   <si>
     <r>
       <rPr>
@@ -2447,7 +2447,17 @@
     <t>DFS = go deep left → go deep right
 Depth = max height of its children + 1
 Balanced tree = leftHeight and rightHeight differ ≤ 1
-We check balance bottom-up using dfs</t>
+We check balance bottom-up using dfs
+BFS vs DFS – TL;DR
+BFS
+Uses queue
+Explores level by level
+Good for: shortest path, level order, “first time you reach something”
+DFS
+Uses recursion or stack
+Explores one path fully before trying another
+Good for: depth, diameter, tree shape checks, backtracking
+Both are just different ways of walking the same structure.</t>
   </si>
   <si>
     <t>DFS</t>
@@ -2466,6 +2476,60 @@
 dfs(node.left);
 dfs(node.right);
 is DFS.</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>What is BFS?
+BFS = Breadth-First Search.
+Super simple idea:
+You explore a tree level by level.
+First you visit depth 0 (root),
+then all nodes at depth 1,
+then all nodes at depth 2,
+and so on.
+Real-life analogy:
+You’re on floor 0 in a building. You visit everyone on floor 0,
+then floor 1,
+then floor 2…
+You don’t randomly go up/down.
+In code, BFS is almost always done with a queue:
+Put starting node in queue
+While queue not empty:
+Remove front
+Add its children
+For trees, this gives level order naturally.</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Queue = First-In First-Out (FIFO)
+Real-life example:
+People stand in line.
+The first person who enters the line is the first to exit.
+In Java:
+Queue&lt;TreeNode&gt; q = new LinkedList&lt;&gt;();
+q.add(root);  // push
+q.poll();     // remove first
+You don't have to memorize the syntax.
+Just understand:
+Stack → DFS
+Queue → BFS
+That's the entire idea.</t>
+  </si>
+  <si>
+    <t>Understand LinkedList as a Queue</t>
+  </si>
+  <si>
+    <t>Java doesn't have a separate queue class with its own constructor.
+Instead:
+Queue&lt;TreeNode&gt; q = new LinkedList&lt;&gt;();
+LinkedList implements the Queue interface.
+We use it only because Java requires it.
+If Java had a Queue() constructor, we’d use that instead.
+You don't need to know internal implementation right now.</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -3590,7 +3654,7 @@
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="182" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3649,6 +3713,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4097,9 +4168,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4110,7 +4179,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4293,7 +4364,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4302,128 +4373,128 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4529,13 +4600,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4547,10 +4624,10 @@
     <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -4574,7 +4651,7 @@
     <xf numFmtId="182" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4583,7 +4660,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4592,10 +4669,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5241,246 +5318,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="66" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21"/>
@@ -5495,7 +5572,7 @@
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="23"/>
@@ -5551,7 +5628,7 @@
       <c r="D39" s="27"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="66" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="23"/>
@@ -5613,7 +5690,7 @@
       <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="23"/>
@@ -5669,7 +5746,7 @@
       <c r="D58" s="27"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="21"/>
@@ -5725,7 +5802,7 @@
       <c r="D67" s="27"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="21"/>
@@ -5787,7 +5864,7 @@
       <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="21"/>
@@ -5849,7 +5926,7 @@
       <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="21"/>
@@ -5905,7 +5982,7 @@
       <c r="D96" s="27"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="64" t="s">
+      <c r="A97" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="23"/>
@@ -5961,7 +6038,7 @@
       <c r="D105" s="27"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="21"/>
@@ -6060,10 +6137,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6193,7 +6270,7 @@
   <sheetPr/>
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6214,12 +6291,12 @@
     </row>
     <row r="2" ht="31.2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6229,7 +6306,7 @@
     </row>
     <row r="8" ht="23.4" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -6244,7 +6321,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -6254,52 +6331,52 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6307,177 +6384,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" ht="23.4" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" ht="23.4" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6487,12 +6564,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6500,12 +6577,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" ht="23.4" spans="1:1">
@@ -6513,42 +6590,42 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -6556,12 +6633,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" ht="23.4" spans="1:1">
@@ -6569,62 +6646,62 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" ht="23.4" spans="1:1">
@@ -6632,62 +6709,62 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -6697,7 +6774,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -6707,122 +6784,122 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6862,7 +6939,7 @@
       <c r="D1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="49" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6870,31 +6947,31 @@
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="50">
         <v>45976</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="51">
         <v>45983</v>
       </c>
       <c r="D2" s="21">
         <v>4</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="50">
         <v>45976</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="51">
         <v>45983</v>
       </c>
       <c r="D3" s="21">
         <v>4</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6902,16 +6979,16 @@
       <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <v>45976</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="51">
         <v>45983</v>
       </c>
       <c r="D4" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6919,125 +6996,125 @@
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="50">
         <v>45976</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="51">
         <v>45983</v>
       </c>
       <c r="D5" s="21">
         <v>2</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="50">
         <v>45976</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="51">
         <v>45983</v>
       </c>
       <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="50">
         <v>45976</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="51">
         <v>45983</v>
       </c>
       <c r="D7" s="21">
         <v>2</v>
       </c>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" s="46" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="54" t="s">
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" s="48" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="51">
         <v>45976</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="51">
         <v>45983</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="57">
         <v>2</v>
       </c>
-      <c r="E8" s="56"/>
-    </row>
-    <row r="9" s="46" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="54" t="s">
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" s="48" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="51">
         <v>45976</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="51">
         <v>45983</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="57">
         <v>1</v>
       </c>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" s="46" customFormat="1" spans="1:5">
-      <c r="A10" s="55" t="s">
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" s="48" customFormat="1" spans="1:5">
+      <c r="A10" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="51">
         <v>45976</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="51">
         <v>45983</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="57">
         <v>1</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="46" customFormat="1" spans="1:5">
-      <c r="A11" s="55" t="s">
+    <row r="11" s="48" customFormat="1" spans="1:5">
+      <c r="A11" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="51">
         <v>45976</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="51">
         <v>45983</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="57">
         <v>1</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="46" customFormat="1" spans="1:5">
-      <c r="A12" s="55" t="s">
+    <row r="12" s="48" customFormat="1" spans="1:5">
+      <c r="A12" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="51">
         <v>45976</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="51">
         <v>45983</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="57">
         <v>1</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7045,16 +7122,16 @@
       <c r="A13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="51">
         <v>45977</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="51">
         <v>45982</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7062,16 +7139,16 @@
       <c r="A14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="51">
         <v>45980</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="51">
         <v>45982</v>
       </c>
       <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7079,16 +7156,16 @@
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="51">
         <v>45980</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="51">
         <v>45982</v>
       </c>
       <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7096,16 +7173,16 @@
       <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="51">
         <v>45980</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="51">
         <v>45982</v>
       </c>
       <c r="D16" s="21">
         <v>1</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7113,16 +7190,16 @@
       <c r="A17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="51">
         <v>45980</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="51">
         <v>45982</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7130,16 +7207,16 @@
       <c r="A18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="51">
         <v>45981</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="51">
         <v>45983</v>
       </c>
       <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7147,16 +7224,16 @@
       <c r="A19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="51">
         <v>45982</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="51">
         <v>45984</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7164,16 +7241,16 @@
       <c r="A20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="51">
         <v>45983</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="51">
         <v>45985</v>
       </c>
       <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7181,16 +7258,16 @@
       <c r="A21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="51">
         <v>45986</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="51">
         <v>45987</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7198,16 +7275,16 @@
       <c r="A22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="51">
         <v>45986</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="51">
         <v>45987</v>
       </c>
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7215,16 +7292,16 @@
       <c r="A23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="51">
         <v>45986</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="51">
         <v>45987</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7232,16 +7309,16 @@
       <c r="A24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="51">
         <v>45986</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="51">
         <v>45987</v>
       </c>
       <c r="D24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7249,16 +7326,16 @@
       <c r="A25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="51">
         <v>45986</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="51">
         <v>45987</v>
       </c>
       <c r="D25" s="21">
         <v>1</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7266,16 +7343,16 @@
       <c r="A26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="51">
         <v>45986</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="51">
         <v>45987</v>
       </c>
       <c r="D26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7283,16 +7360,16 @@
       <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="51">
         <v>45986</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="51">
         <v>45987</v>
       </c>
       <c r="D27" s="21">
         <v>1</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7300,16 +7377,16 @@
       <c r="A28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="51">
         <v>45986</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="51">
         <v>45987</v>
       </c>
       <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7317,16 +7394,16 @@
       <c r="A29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="51">
         <v>45986</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="51">
         <v>45987</v>
       </c>
       <c r="D29" s="21">
         <v>1</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7334,16 +7411,16 @@
       <c r="A30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="51">
         <v>45986</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="51">
         <v>45987</v>
       </c>
       <c r="D30" s="21">
         <v>1</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7351,16 +7428,16 @@
       <c r="A31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="51">
         <v>45992</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="51">
         <v>45993</v>
       </c>
       <c r="D31" s="21">
         <v>1</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7368,16 +7445,16 @@
       <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="51">
         <v>45992</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="51">
         <v>45993</v>
       </c>
       <c r="D32" s="21">
         <v>1</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7385,16 +7462,16 @@
       <c r="A33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="51">
         <v>45992</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="51">
         <v>45993</v>
       </c>
       <c r="D33" s="21">
         <v>1</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7402,16 +7479,16 @@
       <c r="A34" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="51">
         <v>45993</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="51">
         <v>45993</v>
       </c>
       <c r="D34" s="21">
         <v>1</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8030,21 +8107,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -8351,7 +8428,7 @@
       <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38">
+      <c r="A2" s="40">
         <v>45962</v>
       </c>
       <c r="B2" s="27"/>
@@ -8360,7 +8437,7 @@
       <c r="A3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8368,7 +8445,7 @@
       <c r="A4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8376,21 +8453,21 @@
       <c r="A5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40">
+      <c r="A6" s="42">
         <v>45969</v>
       </c>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" s="37" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="41" t="s">
+    <row r="7" s="39" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8405,8 +8482,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8799,19 +8876,31 @@
       </c>
       <c r="C37" s="36"/>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="27"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+    <row r="38" ht="288" spans="1:3">
+      <c r="A38" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="37"/>
+    </row>
+    <row r="39" ht="216" spans="1:3">
+      <c r="A39" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+    <row r="40" ht="100.8" spans="1:3">
+      <c r="A40" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="C40" s="27"/>
     </row>
     <row r="41" spans="1:3">
@@ -8875,8 +8964,8 @@
       <c r="C52" s="27"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="21"/>
@@ -8984,7 +9073,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9091,7 +9180,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -9101,12 +9190,12 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9128,17 +9217,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="20" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -9167,302 +9256,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="14" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="15" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="18" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="18" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="18" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="18" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="18" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="18" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="18" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="18" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="18" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="18" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="18" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="18" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="18" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="18" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="18" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="18" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="19" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="19" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="19" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="19" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="17" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="18" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -9477,17 +9566,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="18" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="18" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9598,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9524,7 +9613,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
@@ -9766,7 +9855,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -9952,7 +10041,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="11" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -8482,8 +8482,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9209,8 +9209,8 @@
   <sheetPr/>
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="361">
   <si>
     <r>
       <rPr>
@@ -1025,7 +1025,7 @@
 That’s why most inserts are O(1),</t>
   </si>
   <si>
-    <t>Space Complexity</t>
+    <t>Space Complexity for Array</t>
   </si>
   <si>
     <t>An array of n integers → takes O(n) space.
@@ -2530,6 +2530,9 @@
 We use it only because Java requires it.
 If Java had a Queue() constructor, we’d use that instead.
 You don't need to know internal implementation right now.</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
   </si>
   <si>
     <t>3 Merge Sort Problems (Simple → Medium)
@@ -4494,7 +4497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4566,9 +4569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5318,780 +5318,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="65"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="23"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="23"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="23"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="21"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="21"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="66" t="s">
+      <c r="A78" s="65" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="66" t="s">
+      <c r="A88" s="65" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="66" t="s">
+      <c r="A97" s="65" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="23"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="23"/>
       <c r="B98" s="23"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="21"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6137,10 +6137,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6291,12 +6291,12 @@
     </row>
     <row r="2" ht="31.2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6306,7 +6306,7 @@
     </row>
     <row r="8" ht="23.4" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -6321,7 +6321,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -6331,52 +6331,52 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6384,177 +6384,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" ht="23.4" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" ht="23.4" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6564,12 +6564,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6577,12 +6577,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" ht="23.4" spans="1:1">
@@ -6590,42 +6590,42 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -6633,12 +6633,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" ht="23.4" spans="1:1">
@@ -6646,62 +6646,62 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" ht="23.4" spans="1:1">
@@ -6709,62 +6709,62 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -6774,7 +6774,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -6784,122 +6784,122 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6927,19 +6927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6947,31 +6947,31 @@
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="49">
         <v>45976</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="50">
         <v>45983</v>
       </c>
       <c r="D2" s="21">
         <v>4</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>45976</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
         <v>45983</v>
       </c>
       <c r="D3" s="21">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6979,16 +6979,16 @@
       <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>45976</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <v>45983</v>
       </c>
       <c r="D4" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6996,125 +6996,125 @@
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>45976</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="50">
         <v>45983</v>
       </c>
       <c r="D5" s="21">
         <v>2</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>45976</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="50">
         <v>45983</v>
       </c>
       <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>45976</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="50">
         <v>45983</v>
       </c>
       <c r="D7" s="21">
         <v>2</v>
       </c>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" s="48" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="56" t="s">
+      <c r="E7" s="54"/>
+    </row>
+    <row r="8" s="47" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="50">
         <v>45976</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="50">
         <v>45983</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>2</v>
       </c>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" s="48" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="56" t="s">
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" s="47" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="50">
         <v>45976</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="50">
         <v>45983</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <v>1</v>
       </c>
-      <c r="E9" s="59"/>
-    </row>
-    <row r="10" s="48" customFormat="1" spans="1:5">
-      <c r="A10" s="57" t="s">
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" s="47" customFormat="1" spans="1:5">
+      <c r="A10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="50">
         <v>45976</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="50">
         <v>45983</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>1</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="48" customFormat="1" spans="1:5">
-      <c r="A11" s="57" t="s">
+    <row r="11" s="47" customFormat="1" spans="1:5">
+      <c r="A11" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="50">
         <v>45976</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="50">
         <v>45983</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>1</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="48" customFormat="1" spans="1:5">
-      <c r="A12" s="57" t="s">
+    <row r="12" s="47" customFormat="1" spans="1:5">
+      <c r="A12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <v>45976</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <v>45983</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>1</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7122,33 +7122,33 @@
       <c r="A13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="50">
         <v>45977</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="50">
         <v>45982</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="50">
         <v>45980</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="50">
         <v>45982</v>
       </c>
       <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7156,16 +7156,16 @@
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="50">
         <v>45980</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="50">
         <v>45982</v>
       </c>
       <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7173,16 +7173,16 @@
       <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="50">
         <v>45980</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="50">
         <v>45982</v>
       </c>
       <c r="D16" s="21">
         <v>1</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7190,16 +7190,16 @@
       <c r="A17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="50">
         <v>45980</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="50">
         <v>45982</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7207,16 +7207,16 @@
       <c r="A18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="50">
         <v>45981</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="50">
         <v>45983</v>
       </c>
       <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7224,16 +7224,16 @@
       <c r="A19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="50">
         <v>45982</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="50">
         <v>45984</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7241,16 +7241,16 @@
       <c r="A20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="50">
         <v>45983</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <v>45985</v>
       </c>
       <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7258,16 +7258,16 @@
       <c r="A21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="50">
         <v>45986</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>45987</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7275,16 +7275,16 @@
       <c r="A22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="50">
         <v>45986</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>45987</v>
       </c>
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7292,16 +7292,16 @@
       <c r="A23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="50">
         <v>45986</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <v>45987</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7309,16 +7309,16 @@
       <c r="A24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="50">
         <v>45986</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <v>45987</v>
       </c>
       <c r="D24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7326,16 +7326,16 @@
       <c r="A25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="50">
         <v>45986</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <v>45987</v>
       </c>
       <c r="D25" s="21">
         <v>1</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7343,16 +7343,16 @@
       <c r="A26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="50">
         <v>45986</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <v>45987</v>
       </c>
       <c r="D26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7360,16 +7360,16 @@
       <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="50">
         <v>45986</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="50">
         <v>45987</v>
       </c>
       <c r="D27" s="21">
         <v>1</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7377,16 +7377,16 @@
       <c r="A28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="50">
         <v>45986</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="50">
         <v>45987</v>
       </c>
       <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7394,16 +7394,16 @@
       <c r="A29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="50">
         <v>45986</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="50">
         <v>45987</v>
       </c>
       <c r="D29" s="21">
         <v>1</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7411,16 +7411,16 @@
       <c r="A30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="50">
         <v>45986</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="50">
         <v>45987</v>
       </c>
       <c r="D30" s="21">
         <v>1</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7428,16 +7428,16 @@
       <c r="A31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="50">
         <v>45992</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <v>45993</v>
       </c>
       <c r="D31" s="21">
         <v>1</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7445,16 +7445,16 @@
       <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="50">
         <v>45992</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="50">
         <v>45993</v>
       </c>
       <c r="D32" s="21">
         <v>1</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7462,38 +7462,38 @@
       <c r="A33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="50">
         <v>45992</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <v>45993</v>
       </c>
       <c r="D33" s="21">
         <v>1</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="50">
         <v>45993</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <v>45993</v>
       </c>
       <c r="D34" s="21">
         <v>1</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -8107,298 +8107,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" ht="57.6" spans="1:3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" ht="72" spans="1:3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8422,52 +8422,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>45962</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>45969</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" s="39" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="43" t="s">
+      <c r="B6" s="26"/>
+    </row>
+    <row r="7" s="38" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8482,8 +8482,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8495,66 +8495,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -8568,7 +8568,7 @@
       <c r="B7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="B8" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="23" t="s">
@@ -8588,7 +8588,7 @@
       <c r="B9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="21" t="s">
@@ -8597,7 +8597,7 @@
       <c r="B10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="21" t="s">
@@ -8606,7 +8606,7 @@
       <c r="B11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="23" t="s">
@@ -8615,7 +8615,7 @@
       <c r="B12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
       <c r="B13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="B14" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="21" t="s">
@@ -8646,7 +8646,7 @@
       <c r="B15" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="21" t="s">
@@ -8655,7 +8655,7 @@
       <c r="B16" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8666,18 +8666,18 @@
       <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -8691,7 +8691,7 @@
       <c r="B19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -8705,7 +8705,7 @@
       <c r="B20" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -8719,7 +8719,7 @@
       <c r="B21" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="21" t="s">
@@ -8728,7 +8728,7 @@
       <c r="B22" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="21" t="s">
@@ -8737,7 +8737,7 @@
       <c r="B23" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="21" t="s">
@@ -8746,7 +8746,7 @@
       <c r="B24" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="21" t="s">
@@ -8755,7 +8755,7 @@
       <c r="B25" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="21" t="s">
@@ -8764,7 +8764,7 @@
       <c r="B26" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="B27" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="21" t="s">
@@ -8784,7 +8784,7 @@
       <c r="B28" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -8798,7 +8798,7 @@
       <c r="B29" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="B30" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="21" t="s">
@@ -8818,25 +8818,25 @@
       <c r="B31" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
       <c r="A34" s="21" t="s">
@@ -8845,7 +8845,7 @@
       <c r="B34" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" ht="72" spans="1:3">
       <c r="A35" s="21" t="s">
@@ -8854,7 +8854,7 @@
       <c r="B35" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" ht="409" customHeight="1" spans="1:3">
       <c r="A36" s="21" t="s">
@@ -8863,7 +8863,7 @@
       <c r="B36" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>169</v>
       </c>
     </row>
@@ -8874,7 +8874,7 @@
       <c r="B37" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" ht="288" spans="1:3">
       <c r="A38" s="21" t="s">
@@ -8883,7 +8883,7 @@
       <c r="B38" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" ht="216" spans="1:3">
       <c r="A39" s="21" t="s">
@@ -8892,7 +8892,7 @@
       <c r="B39" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" ht="100.8" spans="1:3">
       <c r="A40" s="23" t="s">
@@ -8901,71 +8901,71 @@
       <c r="B40" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
-      <c r="C41" s="27"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="27"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="27"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
-      <c r="C44" s="27"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
-      <c r="C46" s="27"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
-      <c r="C47" s="27"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
-      <c r="C48" s="27"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
-      <c r="C52" s="27"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="21"/>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="21" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9176,26 +9176,26 @@
       </c>
     </row>
     <row r="17" ht="176" customHeight="1" spans="1:2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -9209,7 +9209,7 @@
   <sheetPr/>
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9217,17 +9217,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9256,302 +9256,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -9566,17 +9566,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -9598,7 +9598,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9613,7 +9613,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -6414,7 +6414,7 @@
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="375">
   <si>
     <r>
       <rPr>
@@ -2575,6 +2575,77 @@
 4️⃣ Median of Two Sorted Arrays (pivot logic thinking)</t>
   </si>
   <si>
+    <t>Binary Search Applications</t>
+  </si>
+  <si>
+    <t>First / Last Occurrence
+Search in Rotated Sorted Array
+Square ≥ N (Binary Search Answer)
+Koko Eating Bananas
+Split Array Largest Sum (410)
+Capacity to Ship Packages (1011)
+Median of Two Sorted Arrays (4)</t>
+  </si>
+  <si>
+    <t>Time-Based Indexing</t>
+  </si>
+  <si>
+    <t>TimeMap (981)</t>
+  </si>
+  <si>
+    <t>QuickSelect &amp; Rank Problems</t>
+  </si>
+  <si>
+    <t>Kth Largest
+Kth Smallest
+Top K Largest
+Top K Smallest</t>
+  </si>
+  <si>
+    <t>QuickSort Variants</t>
+  </si>
+  <si>
+    <t>QuickSort Lomuto
+QuickSort Hoare
+QuickSort DNF
+QuickSort Random Pivot
+QuickSort Median-of-Three</t>
+  </si>
+  <si>
+    <t>Binary Tree Fundamentals</t>
+  </si>
+  <si>
+    <t>Maximum Depth (104)
+Balanced Binary Tree (110)
+Level Order Traversal (102)
+Right Side View (199)
+Zigzag Level Order (103)
+Bottom-Up Level Order (107)</t>
+  </si>
+  <si>
+    <t>Path Problems</t>
+  </si>
+  <si>
+    <t>Path Sum (112)
+Path Sum II (113)
+Binary Tree Paths (257)</t>
+  </si>
+  <si>
+    <t>Tree Transformations</t>
+  </si>
+  <si>
+    <t>Symmetric Tree (101)
+Invert Binary Tree (226)</t>
+  </si>
+  <si>
+    <t>Traversals</t>
+  </si>
+  <si>
+    <t>Preorder
+Inorder
+Postorder</t>
+  </si>
+  <si>
     <t>https://www.notion.so/DSA-PATTERN-ROADMAP-2a285e32939580ff8596d7c9fbb7e0b3</t>
   </si>
   <si>
@@ -3593,9 +3664,6 @@
   </si>
   <si>
     <t>Divide + merge → O(n log n)</t>
-  </si>
-  <si>
-    <t>QuickSort Variants</t>
   </si>
   <si>
     <t>pick pivot</t>
@@ -4634,7 +4702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4712,6 +4780,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5461,780 +5535,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="66"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="69" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="25"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="25"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="23"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="23"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="23"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="23"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="23"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="23"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="23"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6280,10 +6354,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6413,7 +6487,7 @@
   <sheetPr/>
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6434,18 +6508,18 @@
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C3"/>
     </row>
@@ -6494,32 +6568,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6527,177 +6601,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" ht="23.4" spans="1:1">
       <c r="A60" s="9" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" ht="23.4" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6707,12 +6781,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6720,12 +6794,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" ht="23.4" spans="1:1">
@@ -6733,42 +6807,42 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -6776,12 +6850,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" ht="23.4" spans="1:1">
@@ -6789,62 +6863,62 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" ht="23.4" spans="1:1">
@@ -6852,62 +6926,62 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -6917,7 +6991,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -6927,122 +7001,122 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7070,19 +7144,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="52" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7090,31 +7164,31 @@
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="53">
         <v>45976</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>45983</v>
       </c>
       <c r="D2" s="23">
         <v>4</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="53">
         <v>45976</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="54">
         <v>45983</v>
       </c>
       <c r="D3" s="23">
         <v>4</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7122,16 +7196,16 @@
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="53">
         <v>45976</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>45983</v>
       </c>
       <c r="D4" s="23">
         <v>3</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7139,125 +7213,125 @@
       <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="53">
         <v>45976</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>45983</v>
       </c>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="53">
         <v>45976</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>45983</v>
       </c>
       <c r="D6" s="23">
         <v>2</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <v>45976</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>45983</v>
       </c>
       <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" s="49" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="57" t="s">
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" s="51" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="54">
         <v>45976</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="54">
         <v>45983</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="60">
         <v>2</v>
       </c>
-      <c r="E8" s="59"/>
-    </row>
-    <row r="9" s="49" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="57" t="s">
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" s="51" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="54">
         <v>45976</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="54">
         <v>45983</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="60">
         <v>1</v>
       </c>
-      <c r="E9" s="60"/>
-    </row>
-    <row r="10" s="49" customFormat="1" spans="1:5">
-      <c r="A10" s="58" t="s">
+      <c r="E9" s="62"/>
+    </row>
+    <row r="10" s="51" customFormat="1" spans="1:5">
+      <c r="A10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="54">
         <v>45976</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="54">
         <v>45983</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="60">
         <v>1</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="49" customFormat="1" spans="1:5">
-      <c r="A11" s="58" t="s">
+    <row r="11" s="51" customFormat="1" spans="1:5">
+      <c r="A11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="54">
         <v>45976</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="54">
         <v>45983</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="60">
         <v>1</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="49" customFormat="1" spans="1:5">
-      <c r="A12" s="58" t="s">
+    <row r="12" s="51" customFormat="1" spans="1:5">
+      <c r="A12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="54">
         <v>45976</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="54">
         <v>45983</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="60">
         <v>1</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7265,16 +7339,16 @@
       <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="54">
         <v>45977</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="54">
         <v>45982</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7282,16 +7356,16 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="54">
         <v>45980</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="54">
         <v>45982</v>
       </c>
       <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7299,16 +7373,16 @@
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="54">
         <v>45980</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="54">
         <v>45982</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7316,16 +7390,16 @@
       <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="54">
         <v>45980</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="54">
         <v>45982</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7333,16 +7407,16 @@
       <c r="A17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="54">
         <v>45980</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="54">
         <v>45982</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7350,16 +7424,16 @@
       <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="54">
         <v>45981</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="54">
         <v>45983</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7367,16 +7441,16 @@
       <c r="A19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="54">
         <v>45982</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="54">
         <v>45984</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7384,16 +7458,16 @@
       <c r="A20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="54">
         <v>45983</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="54">
         <v>45985</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7401,16 +7475,16 @@
       <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="54">
         <v>45986</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="54">
         <v>45987</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7418,16 +7492,16 @@
       <c r="A22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="54">
         <v>45986</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="54">
         <v>45987</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7435,16 +7509,16 @@
       <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="54">
         <v>45986</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="54">
         <v>45987</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7452,16 +7526,16 @@
       <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="54">
         <v>45986</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="54">
         <v>45987</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7469,16 +7543,16 @@
       <c r="A25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="54">
         <v>45986</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="54">
         <v>45987</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7486,16 +7560,16 @@
       <c r="A26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="54">
         <v>45986</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="54">
         <v>45987</v>
       </c>
       <c r="D26" s="23">
         <v>1</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7503,16 +7577,16 @@
       <c r="A27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="54">
         <v>45986</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="54">
         <v>45987</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7520,16 +7594,16 @@
       <c r="A28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="54">
         <v>45986</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="54">
         <v>45987</v>
       </c>
       <c r="D28" s="23">
         <v>1</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7537,16 +7611,16 @@
       <c r="A29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="54">
         <v>45986</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="54">
         <v>45987</v>
       </c>
       <c r="D29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7554,16 +7628,16 @@
       <c r="A30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="54">
         <v>45986</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="54">
         <v>45987</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7571,16 +7645,16 @@
       <c r="A31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="54">
         <v>45992</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="54">
         <v>45993</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7588,16 +7662,16 @@
       <c r="A32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="54">
         <v>45992</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="54">
         <v>45993</v>
       </c>
       <c r="D32" s="23">
         <v>1</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7605,16 +7679,16 @@
       <c r="A33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="54">
         <v>45992</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="54">
         <v>45993</v>
       </c>
       <c r="D33" s="23">
         <v>1</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7622,21 +7696,21 @@
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="54">
         <v>45993</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="54">
         <v>45993</v>
       </c>
       <c r="D34" s="23">
         <v>1</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="63" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="28"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -8250,298 +8324,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" ht="57.6" spans="1:3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" ht="72" spans="1:3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8565,52 +8639,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41">
+      <c r="A2" s="43">
         <v>45962</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43">
+      <c r="A6" s="45">
         <v>45969</v>
       </c>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="7" s="40" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="44" t="s">
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" s="42" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="47" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8638,66 +8712,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -8711,7 +8785,7 @@
       <c r="B7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8722,7 +8796,7 @@
       <c r="B8" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="25" t="s">
@@ -8731,7 +8805,7 @@
       <c r="B9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="23" t="s">
@@ -8740,7 +8814,7 @@
       <c r="B10" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="23" t="s">
@@ -8749,7 +8823,7 @@
       <c r="B11" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="25" t="s">
@@ -8758,7 +8832,7 @@
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8769,7 +8843,7 @@
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8780,7 +8854,7 @@
       <c r="B14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="23" t="s">
@@ -8789,7 +8863,7 @@
       <c r="B15" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="23" t="s">
@@ -8798,7 +8872,7 @@
       <c r="B16" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8809,18 +8883,18 @@
       <c r="B17" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -8834,7 +8908,7 @@
       <c r="B19" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -8848,7 +8922,7 @@
       <c r="B20" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -8862,7 +8936,7 @@
       <c r="B21" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="23" t="s">
@@ -8871,7 +8945,7 @@
       <c r="B22" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="23" t="s">
@@ -8880,7 +8954,7 @@
       <c r="B23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" ht="172.8" spans="1:3">
       <c r="A24" s="23" t="s">
@@ -8889,7 +8963,7 @@
       <c r="B24" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="23" t="s">
@@ -8898,7 +8972,7 @@
       <c r="B25" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="23" t="s">
@@ -8907,7 +8981,7 @@
       <c r="B26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="31" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8918,7 +8992,7 @@
       <c r="B27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="23" t="s">
@@ -8927,7 +9001,7 @@
       <c r="B28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -8941,7 +9015,7 @@
       <c r="B29" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8952,7 +9026,7 @@
       <c r="B30" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="23" t="s">
@@ -8961,25 +9035,25 @@
       <c r="B31" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
       <c r="A34" s="23" t="s">
@@ -8988,7 +9062,7 @@
       <c r="B34" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" ht="72" spans="1:3">
       <c r="A35" s="23" t="s">
@@ -8997,7 +9071,7 @@
       <c r="B35" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" ht="409" customHeight="1" spans="1:3">
       <c r="A36" s="23" t="s">
@@ -9006,7 +9080,7 @@
       <c r="B36" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="38" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9017,7 +9091,7 @@
       <c r="B37" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="39"/>
     </row>
     <row r="38" ht="288" spans="1:3">
       <c r="A38" s="23" t="s">
@@ -9026,7 +9100,7 @@
       <c r="B38" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="38"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" ht="216" spans="1:3">
       <c r="A39" s="23" t="s">
@@ -9035,7 +9109,7 @@
       <c r="B39" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" ht="100.8" spans="1:3">
       <c r="A40" s="25" t="s">
@@ -9044,71 +9118,71 @@
       <c r="B40" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="28"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="28"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="28"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="28"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="28"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="28"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="28"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="28"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="28"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="28"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="23"/>
@@ -9226,10 +9300,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -9339,6 +9413,70 @@
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="7" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="21" ht="100.8" spans="1:2">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" ht="57.6" spans="1:2">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" ht="72" spans="1:2">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" ht="86.4" spans="1:2">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" ht="43.2" spans="1:2">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:2">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" ht="43.2" spans="1:2">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -9360,17 +9498,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="22" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9399,302 +9537,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="16" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="17" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="17" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="17" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="17" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="19" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="20" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="20" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="20" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="20" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="20" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="20" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="20" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="20" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="19" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="20" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="20" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="20" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="20" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="20" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="20" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="20" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="20" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="20" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="20" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="19" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="20" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="20" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="20" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="20" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="21" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="21" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="19" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="20" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -9709,17 +9847,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="20" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="20" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -9741,7 +9879,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="12" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9756,7 +9894,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="14" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
@@ -9998,7 +10136,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="12" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10184,7 +10322,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="13" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="382">
   <si>
     <r>
       <rPr>
@@ -2530,6 +2530,55 @@
 We use it only because Java requires it.
 If Java had a Queue() constructor, we’d use that instead.
 You don't need to know internal implementation right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Build Tree (Preorder + Inorder).
+</t>
+  </si>
+  <si>
+    <t>Pattern you must remember
+Preorder gives root
+Inorder tells left vs right
+Size of left subtree controls recursion</t>
+  </si>
+  <si>
+    <t>How interviewer expects explanation
+“I use preorder to pick the root, and inorder to split left and right subtrees.
+A global index moves through preorder, and a hashmap gives O(1) lookup in inorder.”
+“Preorder tells me the root.
+Inorder tells me how many nodes belong to the left subtree.
+I recursively build left and right using index boundaries.”</t>
+  </si>
+  <si>
+    <t>Build Tree — Inorder + Postorder</t>
+  </si>
+  <si>
+    <t>In postorder, the last element is the root.
+In preorder, root came first.
+Here, root comes last.</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor — Binary Tree</t>
+  </si>
+  <si>
+    <t>Problem in one line
+Given a binary tree and two nodes p and q, find the lowest node in the tree that has both p and q in its subtree.
+The intuition (this is the whole trick)
+Think recursively.
+At any node:
+If the node is null → return null
+If the node is p or q → return the node
+Ask left subtree: “do you have p or q?”
+Ask right subtree: “do you have p or q?”
+Now:
+If both left and right return non-null, this node is the LCA
+If only one side returns non-null → bubble it up
+If both return null → return null
+That’s it. No extra data structures.
+Why this works
+DFS explores the whole tree
+The first node where paths to p and q split is the answer
+“Lowest” is naturally handled by recursion</t>
   </si>
   <si>
     <t>Space Complexity</t>
@@ -4702,7 +4751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4825,6 +4874,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5535,246 +5587,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="70" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="23"/>
@@ -5789,7 +5841,7 @@
       <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="25"/>
@@ -5845,7 +5897,7 @@
       <c r="D39" s="30"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="70" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="25"/>
@@ -5907,7 +5959,7 @@
       <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="70" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="25"/>
@@ -5963,7 +6015,7 @@
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="23"/>
@@ -6019,7 +6071,7 @@
       <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="70" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="23"/>
@@ -6081,7 +6133,7 @@
       <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="69" t="s">
+      <c r="A78" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="23"/>
@@ -6143,7 +6195,7 @@
       <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="69" t="s">
+      <c r="A88" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="23"/>
@@ -6199,7 +6251,7 @@
       <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="69" t="s">
+      <c r="A97" s="70" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="25"/>
@@ -6255,7 +6307,7 @@
       <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="69" t="s">
+      <c r="A106" s="70" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="23"/>
@@ -6354,10 +6406,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6508,18 +6560,18 @@
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C3"/>
     </row>
@@ -6568,32 +6620,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6601,177 +6653,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" ht="23.4" spans="1:1">
       <c r="A60" s="9" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" ht="23.4" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6781,12 +6833,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6794,12 +6846,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" ht="23.4" spans="1:1">
@@ -6807,42 +6859,42 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -6850,12 +6902,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" ht="23.4" spans="1:1">
@@ -6863,62 +6915,62 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" ht="23.4" spans="1:1">
@@ -6926,62 +6978,62 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -6991,7 +7043,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -7001,122 +7053,122 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7156,7 +7208,7 @@
       <c r="D1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7164,31 +7216,31 @@
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="54">
         <v>45976</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="55">
         <v>45983</v>
       </c>
       <c r="D2" s="23">
         <v>4</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="54">
         <v>45976</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="55">
         <v>45983</v>
       </c>
       <c r="D3" s="23">
         <v>4</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7196,16 +7248,16 @@
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="54">
         <v>45976</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="55">
         <v>45983</v>
       </c>
       <c r="D4" s="23">
         <v>3</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7213,125 +7265,125 @@
       <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="54">
         <v>45976</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="55">
         <v>45983</v>
       </c>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="54">
         <v>45976</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="55">
         <v>45983</v>
       </c>
       <c r="D6" s="23">
         <v>2</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="54">
         <v>45976</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="55">
         <v>45983</v>
       </c>
       <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="58"/>
-    </row>
-    <row r="8" s="51" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="59" t="s">
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" s="52" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="55">
         <v>45976</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="55">
         <v>45983</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="61">
         <v>2</v>
       </c>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" s="51" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="59" t="s">
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" s="52" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="55">
         <v>45976</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="55">
         <v>45983</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="61">
         <v>1</v>
       </c>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10" s="51" customFormat="1" spans="1:5">
-      <c r="A10" s="60" t="s">
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" s="52" customFormat="1" spans="1:5">
+      <c r="A10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="55">
         <v>45976</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="55">
         <v>45983</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="61">
         <v>1</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="51" customFormat="1" spans="1:5">
-      <c r="A11" s="60" t="s">
+    <row r="11" s="52" customFormat="1" spans="1:5">
+      <c r="A11" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="55">
         <v>45976</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="55">
         <v>45983</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="61">
         <v>1</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="51" customFormat="1" spans="1:5">
-      <c r="A12" s="60" t="s">
+    <row r="12" s="52" customFormat="1" spans="1:5">
+      <c r="A12" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="55">
         <v>45976</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="55">
         <v>45983</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="61">
         <v>1</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7339,16 +7391,16 @@
       <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="55">
         <v>45977</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="55">
         <v>45982</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7356,16 +7408,16 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="55">
         <v>45980</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="55">
         <v>45982</v>
       </c>
       <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7373,16 +7425,16 @@
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="55">
         <v>45980</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="55">
         <v>45982</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7390,16 +7442,16 @@
       <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="55">
         <v>45980</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="55">
         <v>45982</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7407,16 +7459,16 @@
       <c r="A17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="55">
         <v>45980</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="55">
         <v>45982</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7424,16 +7476,16 @@
       <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="55">
         <v>45981</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="55">
         <v>45983</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7441,16 +7493,16 @@
       <c r="A19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="55">
         <v>45982</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="55">
         <v>45984</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7458,16 +7510,16 @@
       <c r="A20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="55">
         <v>45983</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="55">
         <v>45985</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7475,16 +7527,16 @@
       <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="55">
         <v>45986</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="55">
         <v>45987</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7492,16 +7544,16 @@
       <c r="A22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="55">
         <v>45986</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="55">
         <v>45987</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7509,16 +7561,16 @@
       <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="55">
         <v>45986</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="55">
         <v>45987</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7526,16 +7578,16 @@
       <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="55">
         <v>45986</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="55">
         <v>45987</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7543,16 +7595,16 @@
       <c r="A25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="55">
         <v>45986</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="55">
         <v>45987</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7560,16 +7612,16 @@
       <c r="A26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="55">
         <v>45986</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="55">
         <v>45987</v>
       </c>
       <c r="D26" s="23">
         <v>1</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7577,16 +7629,16 @@
       <c r="A27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="55">
         <v>45986</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="55">
         <v>45987</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7594,16 +7646,16 @@
       <c r="A28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="55">
         <v>45986</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="55">
         <v>45987</v>
       </c>
       <c r="D28" s="23">
         <v>1</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7611,16 +7663,16 @@
       <c r="A29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="55">
         <v>45986</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="55">
         <v>45987</v>
       </c>
       <c r="D29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7628,16 +7680,16 @@
       <c r="A30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="55">
         <v>45986</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="55">
         <v>45987</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7645,16 +7697,16 @@
       <c r="A31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="55">
         <v>45992</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="55">
         <v>45993</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7662,16 +7714,16 @@
       <c r="A32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="55">
         <v>45992</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="55">
         <v>45993</v>
       </c>
       <c r="D32" s="23">
         <v>1</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7679,16 +7731,16 @@
       <c r="A33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="55">
         <v>45992</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="55">
         <v>45993</v>
       </c>
       <c r="D33" s="23">
         <v>1</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7696,16 +7748,16 @@
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="55">
         <v>45993</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="55">
         <v>45993</v>
       </c>
       <c r="D34" s="23">
         <v>1</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8324,21 +8376,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -8645,7 +8697,7 @@
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43">
+      <c r="A2" s="44">
         <v>45962</v>
       </c>
       <c r="B2" s="30"/>
@@ -8654,7 +8706,7 @@
       <c r="A3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8662,7 +8714,7 @@
       <c r="A4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8670,21 +8722,21 @@
       <c r="A5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45">
+      <c r="A6" s="46">
         <v>45969</v>
       </c>
       <c r="B6" s="30"/>
     </row>
-    <row r="7" s="42" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="46" t="s">
+    <row r="7" s="43" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8699,8 +8751,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8708,7 +8760,7 @@
     <col min="1" max="1" width="23.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="69.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="45.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="34.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="18.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9121,23 +9173,39 @@
       <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23" t="s">
+        <v>167</v>
+      </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="30"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+    <row r="42" ht="144" spans="1:3">
+      <c r="A42" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" ht="57.6" spans="1:3">
+      <c r="A43" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>182</v>
+      </c>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+    <row r="44" ht="273.6" spans="1:3">
+      <c r="A44" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>184</v>
+      </c>
       <c r="C44" s="30"/>
     </row>
     <row r="45" spans="1:3">
@@ -9181,8 +9249,8 @@
       <c r="C52" s="30"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="23"/>
@@ -9302,7 +9370,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -9359,7 +9427,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9397,7 +9465,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -9407,76 +9475,76 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="27" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" ht="57.6" spans="1:2">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" ht="72" spans="1:2">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" ht="86.4" spans="1:2">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" ht="43.2" spans="1:2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:2">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:2">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -9498,17 +9566,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="22" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -9537,302 +9605,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="17" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="17" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="17" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="17" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="18" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="19" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="20" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="20" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="20" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="20" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="20" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="19" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="20" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="20" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="20" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="20" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="20" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="20" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="19" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="20" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="20" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="20" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="21" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="21" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="19" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -9847,17 +9915,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -9879,7 +9947,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="12" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9894,7 +9962,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="14" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
@@ -10136,7 +10204,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="12" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10322,7 +10390,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="13" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -8752,15 +8752,15 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="69.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="38.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="88.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="45.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="18.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DSA plan" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="387">
   <si>
     <r>
       <rPr>
@@ -2581,6 +2581,40 @@
 “Lowest” is naturally handled by recursion</t>
   </si>
   <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>First: what the problem is REALLY asking
+You are given a binary tree.
+A path is any sequence of nodes where:
+You can go left or right
+You cannot revisit a node
+You do not need to start at root
+You do not need to end at a leaf
+Your job:
+👉 Find the maximum sum of any path in the tree</t>
+  </si>
+  <si>
+    <t>Example (simple)
+      1
+     / \
+    2   3
+Paths:
+1
+2
+3
+2 → 1
+1 → 3
+2 → 1 → 3 ✅ (max = 6)
+Answer = 6</t>
+  </si>
+  <si>
+    <t>Integer.MIN_VALUE &amp; Integer.MAX_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Java, Integer.MIN_VALUE and Integer.MAX_VALUE are predefined constants in the java.lang.Integer wrapper class that represent the minimum and maximum possible values for a 32-bit signed integer (int) primitive data type. </t>
+  </si>
+  <si>
     <t>Space Complexity</t>
   </si>
   <si>
@@ -4121,15 +4155,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4751,7 +4785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4829,9 +4863,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -5587,780 +5618,780 @@
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="69"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="69" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:4">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="25"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="25"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="23"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="23"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="23"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="23"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="23"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="23"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="70" t="s">
+      <c r="A97" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="25"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="70" t="s">
+      <c r="A106" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="23"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6406,10 +6437,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6560,18 +6591,18 @@
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C3"/>
     </row>
@@ -6620,32 +6651,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6653,177 +6684,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" ht="23.4" spans="1:1">
       <c r="A60" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" ht="23.4" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6833,12 +6864,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6846,12 +6877,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" ht="23.4" spans="1:1">
@@ -6859,42 +6890,42 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -6902,12 +6933,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" ht="23.4" spans="1:1">
@@ -6915,62 +6946,62 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" ht="23.4" spans="1:1">
@@ -6978,62 +7009,62 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -7043,7 +7074,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -7053,122 +7084,122 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7196,19 +7227,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7216,31 +7247,31 @@
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="53">
         <v>45976</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="54">
         <v>45983</v>
       </c>
       <c r="D2" s="23">
         <v>4</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <v>45976</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="54">
         <v>45983</v>
       </c>
       <c r="D3" s="23">
         <v>4</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7248,16 +7279,16 @@
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>45976</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <v>45983</v>
       </c>
       <c r="D4" s="23">
         <v>3</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7265,125 +7296,125 @@
       <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>45976</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <v>45983</v>
       </c>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>45976</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>45983</v>
       </c>
       <c r="D6" s="23">
         <v>2</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" ht="129.6" spans="1:5">
       <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>45976</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>45983</v>
       </c>
       <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="59"/>
-    </row>
-    <row r="8" s="52" customFormat="1" ht="144" spans="1:5">
-      <c r="A8" s="60" t="s">
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" s="51" customFormat="1" ht="144" spans="1:5">
+      <c r="A8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <v>45976</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>45983</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="60">
         <v>2</v>
       </c>
-      <c r="E8" s="62"/>
-    </row>
-    <row r="9" s="52" customFormat="1" ht="158.4" spans="1:5">
-      <c r="A9" s="60" t="s">
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" s="51" customFormat="1" ht="158.4" spans="1:5">
+      <c r="A9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="54">
         <v>45976</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <v>45983</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="60">
         <v>1</v>
       </c>
-      <c r="E9" s="63"/>
-    </row>
-    <row r="10" s="52" customFormat="1" spans="1:5">
-      <c r="A10" s="61" t="s">
+      <c r="E9" s="62"/>
+    </row>
+    <row r="10" s="51" customFormat="1" spans="1:5">
+      <c r="A10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>45976</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>45983</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="60">
         <v>1</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="52" customFormat="1" spans="1:5">
-      <c r="A11" s="61" t="s">
+    <row r="11" s="51" customFormat="1" spans="1:5">
+      <c r="A11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <v>45976</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <v>45983</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="60">
         <v>1</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="52" customFormat="1" spans="1:5">
-      <c r="A12" s="61" t="s">
+    <row r="12" s="51" customFormat="1" spans="1:5">
+      <c r="A12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <v>45976</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <v>45983</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="60">
         <v>1</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7391,16 +7422,16 @@
       <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <v>45977</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>45982</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7408,16 +7439,16 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="54">
         <v>45980</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>45982</v>
       </c>
       <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7425,16 +7456,16 @@
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="54">
         <v>45980</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>45982</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7442,16 +7473,16 @@
       <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="54">
         <v>45980</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>45982</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7459,16 +7490,16 @@
       <c r="A17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="54">
         <v>45980</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>45982</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7476,16 +7507,16 @@
       <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="54">
         <v>45981</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <v>45983</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7493,16 +7524,16 @@
       <c r="A19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="54">
         <v>45982</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>45984</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7510,16 +7541,16 @@
       <c r="A20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="54">
         <v>45983</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>45985</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7527,16 +7558,16 @@
       <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="54">
         <v>45986</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>45987</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7544,16 +7575,16 @@
       <c r="A22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="54">
         <v>45986</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>45987</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7561,16 +7592,16 @@
       <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="54">
         <v>45986</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>45987</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7578,16 +7609,16 @@
       <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="55">
+      <c r="B24" s="54">
         <v>45986</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <v>45987</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7595,16 +7626,16 @@
       <c r="A25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="54">
         <v>45986</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>45987</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7612,16 +7643,16 @@
       <c r="A26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="54">
         <v>45986</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>45987</v>
       </c>
       <c r="D26" s="23">
         <v>1</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7629,16 +7660,16 @@
       <c r="A27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="54">
         <v>45986</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <v>45987</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7646,16 +7677,16 @@
       <c r="A28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="54">
         <v>45986</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>45987</v>
       </c>
       <c r="D28" s="23">
         <v>1</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7663,16 +7694,16 @@
       <c r="A29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="54">
         <v>45986</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>45987</v>
       </c>
       <c r="D29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7680,16 +7711,16 @@
       <c r="A30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="54">
         <v>45986</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="54">
         <v>45987</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7697,16 +7728,16 @@
       <c r="A31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="54">
         <v>45992</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>45993</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7714,16 +7745,16 @@
       <c r="A32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="54">
         <v>45992</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <v>45993</v>
       </c>
       <c r="D32" s="23">
         <v>1</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7731,16 +7762,16 @@
       <c r="A33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="54">
         <v>45992</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <v>45993</v>
       </c>
       <c r="D33" s="23">
         <v>1</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7748,21 +7779,21 @@
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="54">
         <v>45993</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>45993</v>
       </c>
       <c r="D34" s="23">
         <v>1</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="63" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -8376,298 +8407,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" ht="57.6" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" ht="72" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8691,52 +8722,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44">
+      <c r="A2" s="43">
         <v>45962</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>45969</v>
       </c>
-      <c r="B6" s="30"/>
-    </row>
-    <row r="7" s="43" customFormat="1" ht="57.6" spans="1:2">
-      <c r="A7" s="47" t="s">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" s="42" customFormat="1" ht="57.6" spans="1:2">
+      <c r="A7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8751,8 +8782,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8764,66 +8795,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" ht="201.6" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" ht="129.6" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="31" t="s">
+    <row r="6" ht="129.6" spans="1:4">
+      <c r="A6" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -8837,18 +8868,18 @@
       <c r="B7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" ht="115.2" spans="1:3">
+    <row r="8" ht="86.4" spans="1:3">
       <c r="A8" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="25" t="s">
@@ -8857,7 +8888,7 @@
       <c r="B9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" ht="129.6" spans="1:3">
       <c r="A10" s="23" t="s">
@@ -8866,7 +8897,7 @@
       <c r="B10" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" ht="158.4" spans="1:3">
       <c r="A11" s="23" t="s">
@@ -8875,7 +8906,7 @@
       <c r="B11" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" ht="115.2" spans="1:3">
       <c r="A12" s="25" t="s">
@@ -8884,7 +8915,7 @@
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8895,7 +8926,7 @@
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8906,7 +8937,7 @@
       <c r="B14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="23" t="s">
@@ -8915,7 +8946,7 @@
       <c r="B15" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="23" t="s">
@@ -8924,57 +8955,57 @@
       <c r="B16" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" ht="187.2" spans="1:3">
+    <row r="17" ht="172.8" spans="1:3">
       <c r="A17" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" ht="273.6" spans="1:4">
-      <c r="A18" s="33" t="s">
+    <row r="18" ht="409.5" spans="1:4">
+      <c r="A18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" ht="158.4" spans="1:4">
+    <row r="19" ht="409.5" spans="1:4">
       <c r="A19" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" ht="302.4" spans="1:4">
+    <row r="20" ht="409.5" spans="1:4">
       <c r="A20" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -8988,7 +9019,7 @@
       <c r="B21" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" ht="187.2" spans="1:3">
       <c r="A22" s="23" t="s">
@@ -8997,7 +9028,7 @@
       <c r="B22" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" ht="244.8" spans="1:3">
       <c r="A23" s="23" t="s">
@@ -9006,16 +9037,16 @@
       <c r="B23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="30"/>
-    </row>
-    <row r="24" ht="172.8" spans="1:3">
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" ht="158.4" spans="1:3">
       <c r="A24" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" ht="100.8" spans="1:3">
       <c r="A25" s="23" t="s">
@@ -9024,7 +9055,7 @@
       <c r="B25" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" ht="409" customHeight="1" spans="1:3">
       <c r="A26" s="23" t="s">
@@ -9033,7 +9064,7 @@
       <c r="B26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9044,7 +9075,7 @@
       <c r="B27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="23" t="s">
@@ -9053,7 +9084,7 @@
       <c r="B28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -9067,7 +9098,7 @@
       <c r="B29" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9078,7 +9109,7 @@
       <c r="B30" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" ht="187.2" spans="1:3">
       <c r="A31" s="23" t="s">
@@ -9087,25 +9118,25 @@
       <c r="B31" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" ht="259.2" spans="1:3">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" ht="345.6" spans="1:3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" ht="100.8" spans="1:3">
       <c r="A34" s="23" t="s">
@@ -9114,7 +9145,7 @@
       <c r="B34" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" ht="72" spans="1:3">
       <c r="A35" s="23" t="s">
@@ -9123,7 +9154,7 @@
       <c r="B35" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" ht="409" customHeight="1" spans="1:3">
       <c r="A36" s="23" t="s">
@@ -9132,7 +9163,7 @@
       <c r="B36" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9143,7 +9174,7 @@
       <c r="B37" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" ht="288" spans="1:3">
       <c r="A38" s="23" t="s">
@@ -9152,7 +9183,7 @@
       <c r="B38" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="40"/>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" ht="216" spans="1:3">
       <c r="A39" s="23" t="s">
@@ -9161,7 +9192,7 @@
       <c r="B39" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" ht="100.8" spans="1:3">
       <c r="A40" s="25" t="s">
@@ -9170,14 +9201,14 @@
       <c r="B40" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="23" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="23"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" ht="144" spans="1:3">
       <c r="A42" s="25" t="s">
@@ -9186,7 +9217,7 @@
       <c r="B42" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="30" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9197,7 +9228,7 @@
       <c r="B43" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="30"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" ht="273.6" spans="1:3">
       <c r="A44" s="25" t="s">
@@ -9206,51 +9237,61 @@
       <c r="B44" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="30"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="30"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="30"/>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" ht="172.8" spans="1:3">
+      <c r="A45" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" ht="43.2" spans="1:3">
+      <c r="A46" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="30"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="30"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="30"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="30"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="23"/>
@@ -9427,7 +9468,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9465,7 +9506,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -9475,76 +9516,76 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:2">
       <c r="A21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="27" t="s">
-        <v>191</v>
+      <c r="A22" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" ht="57.6" spans="1:2">
       <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" ht="72" spans="1:2">
       <c r="A24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="25" ht="86.4" spans="1:2">
       <c r="A25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="26" ht="43.2" spans="1:2">
       <c r="A26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:2">
       <c r="A27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:2">
       <c r="A28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -9566,17 +9607,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="22" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -9605,302 +9646,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="17" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="17" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="17" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="18" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="20" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="20" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="20" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="20" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="20" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="20" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="19" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="20" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="21" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="21" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="19" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -9915,17 +9956,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -9947,7 +9988,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="12" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9962,7 +10003,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="14" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
@@ -10204,7 +10245,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10390,7 +10431,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="13" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="391">
   <si>
     <r>
       <rPr>
@@ -2613,6 +2613,38 @@
   </si>
   <si>
     <t xml:space="preserve">In Java, Integer.MIN_VALUE and Integer.MAX_VALUE are predefined constants in the java.lang.Integer wrapper class that represent the minimum and maximum possible values for a 32-bit signed integer (int) primitive data type. </t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>What is Serialize / Deserialize</t>
+  </si>
+  <si>
+    <t>Think of a tree like a real tree in your head.
+If I say:
+“Here’s my tree”
+You can’t see it.
+So you serialize it =
+👉 convert the tree into a string so it can be stored, sent, or saved.
+Later, you deserialize it =
+👉 rebuild the same tree back from that string.
+That’s it. No magic.</t>
+  </si>
+  <si>
+    <t>How do we serialize a tree?
+We’ll use DFS (preorder) because you already know it.
+Rule we follow
+Visit node
+Then left
+Then right
+If node is null, write "null"                                                                                                                                                                                                                                                                                                                                                                  Deserialize (String → Tree)
+Now reverse the process.
+Key idea
+Split the string by ,
+Read values in order
+When you see "null" → return null
+Otherwise create node and recurse</t>
   </si>
   <si>
     <t>Space Complexity</t>
@@ -6437,10 +6469,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6591,18 +6623,18 @@
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C3"/>
     </row>
@@ -6651,32 +6683,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6684,177 +6716,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" ht="23.4" spans="1:1">
       <c r="A60" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" ht="23.4" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6864,12 +6896,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6877,12 +6909,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" ht="23.4" spans="1:1">
@@ -6890,42 +6922,42 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -6933,12 +6965,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" ht="23.4" spans="1:1">
@@ -6946,62 +6978,62 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" ht="23.4" spans="1:1">
@@ -7009,62 +7041,62 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -7074,7 +7106,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -7084,122 +7116,122 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -8780,10 +8812,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9260,19 +9292,27 @@
       <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="25"/>
       <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="29"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="29"/>
+    <row r="49" ht="201.6" spans="1:3">
+      <c r="A49" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="23"/>
@@ -9289,17 +9329,19 @@
       <c r="B52" s="23"/>
       <c r="C52" s="29"/>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-    </row>
-    <row r="54" spans="1:2">
+    <row r="53" spans="1:3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="29"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
+      <c r="C54" s="29"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="23"/>
@@ -9396,6 +9438,14 @@
     <row r="79" spans="1:2">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9468,7 +9518,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9506,7 +9556,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -9516,76 +9566,76 @@
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:2">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" ht="57.6" spans="1:2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" ht="72" spans="1:2">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" ht="86.4" spans="1:2">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" ht="43.2" spans="1:2">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:2">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -9607,17 +9657,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -9646,302 +9696,302 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="17" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="17" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:3">
       <c r="B8" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="19" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="20" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" ht="23.4" spans="2:2">
       <c r="B26" s="19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="20" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" ht="23.4" spans="2:2">
       <c r="B41" s="19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" ht="13" customHeight="1"/>
     <row r="55" ht="22" customHeight="1" spans="2:2">
       <c r="B55" s="19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -9956,17 +10006,17 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="20" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -9988,7 +10038,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10003,7 +10053,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
@@ -10245,7 +10295,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10431,7 +10481,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>

--- a/JavaPrograms/Work Done.xlsx
+++ b/JavaPrograms/Work Done.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="406">
   <si>
     <r>
       <rPr>
@@ -2615,7 +2615,130 @@
     <t xml:space="preserve">In Java, Integer.MIN_VALUE and Integer.MAX_VALUE are predefined constants in the java.lang.Integer wrapper class that represent the minimum and maximum possible values for a 32-bit signed integer (int) primitive data type. </t>
   </si>
   <si>
-    <t>Strings</t>
+    <t>String</t>
+  </si>
+  <si>
+    <t>String = object, heap, immutable
+✅ Correct
+One precision:
+String literals ("abc") are stored in String Pool (special part of heap)
+But conceptually for you: heap + immutable is enough
+Why immutable?
+Thread safety
+Caching
+Security
+You don’t need more right now.</t>
+  </si>
+  <si>
+    <t>charAt(i)</t>
+  </si>
+  <si>
+    <t>Think of it exactly like:
+arr[i]
+But since String is not an array, Java exposes:
+s.charAt(i)
+That’s it. No hidden trick.</t>
+  </si>
+  <si>
+    <t>s.length()</t>
+  </si>
+  <si>
+    <t>✅ Correct
+Returns count of characters, not last index.
+So always:
+i &lt; s.length()</t>
+  </si>
+  <si>
+    <t>String → char[]</t>
+  </si>
+  <si>
+    <t>char[] arr = s.toCharArray();
+Now you’re back in array land, where you’re strong.</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>You said:
+StringBuilder is like ArrayList so we can add and update it as we grow must be O(n)
+Let’s refine.
+Similarity
+Both are mutable
+Both grow dynamically
+Both are used to avoid costly copying
+Difference
+StringBuilder is for characters
+ArrayList is for objects
+Complexity clarification
+append() is amortized O(1)
+Final .toString() is O(n)
+So:
+Building string in loop = efficient
+Repeated s = s + x = inefficient</t>
+  </si>
+  <si>
+    <t>split()</t>
+  </si>
+  <si>
+    <t>What split() actually does
+It splits based on a delimiter, not characters.
+"Swaraj".split("")
+This is a special case, not normal usage.
+Typical usage:
+"1,2,3".split(",") → ["1","2","3"]
+"hello world".split(" ") → ["hello","world"]
+In Serialize/Deserialize:
+"1,2,null,3".split(",")
+So remember:
+split() = break by pattern, not by character</t>
+  </si>
+  <si>
+    <t>equals() vs ==</t>
+  </si>
+  <si>
+    <t>You said:
+== checks memory means what inside of that
+Correction:
+== checks memory address
+equals() checks content
+So:
+a == b        // same object?
+a.equals(b)  // same text?
+Always use .equals() for strings.</t>
+  </si>
+  <si>
+    <t>🔥 Now the BIG INSIGHT you asked for</t>
+  </si>
+  <si>
+    <t>“Characters are just numbers”
+This is extremely important for DSA.
+In Java:
+'a' → 97
+'b' → 98
+'z' → 122
+So this works:
+char c = 'c';
+int x = c; // x = 99
+Now look at this:
+int index = s.charAt(i) - 'a';
+Why this works
+If:
+s.charAt(i) = 'c' → 99
+'a' = 97
+Then:
+99 - 97 = 2
+So:
+'a' → index 0
+'b' → index 1
+'c' → index 2
+This unlocks frequency arrays
+int[] freq = new int[26];
+freq[s.charAt(i) - 'a']++;
+This is the backbone of:
+Anagram
+Sliding window on strings
+Permutation in String
+Longest substring problems</t>
   </si>
   <si>
     <t>What is Serialize / Deserialize</t>
@@ -6469,10 +6592,10 @@
   <sheetData>
     <row r="1" ht="409" customHeight="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6623,18 +6746,18 @@
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C3"/>
     </row>
@@ -6683,32 +6806,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" ht="23.4" spans="1:1">
@@ -6716,177 +6839,177 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <